--- a/data/raw/life_cycle_data.xlsx
+++ b/data/raw/life_cycle_data.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/GitHub/saleos/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C57D1-8D54-48C3-BB4F-7F118792C90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D3EE36-8087-0046-B906-A76096815136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36560" yWindow="880" windowWidth="35760" windowHeight="25960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Results" sheetId="2" r:id="rId2"/>
     <sheet name="Results Visualisation" sheetId="3" r:id="rId3"/>
     <sheet name="Final" sheetId="6" r:id="rId4"/>
-    <sheet name="Transpose" sheetId="4" r:id="rId5"/>
+    <sheet name="cons_emissions" sheetId="11" r:id="rId5"/>
+    <sheet name="Transpose" sheetId="4" r:id="rId6"/>
+    <sheet name="example" sheetId="7" r:id="rId7"/>
+    <sheet name="mission" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="183">
   <si>
     <t>Impact category UUID</t>
   </si>
@@ -480,17 +483,127 @@
   <si>
     <t>Kuiper</t>
   </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>oneweb_soyuz</t>
+  </si>
+  <si>
+    <t>oneweb_falcon</t>
+  </si>
+  <si>
+    <t>starlink_falcon</t>
+  </si>
+  <si>
+    <t>kuiper_ariane</t>
+  </si>
+  <si>
+    <t>kuiper_glenn</t>
+  </si>
+  <si>
+    <t>kuiper_vulcan</t>
+  </si>
+  <si>
+    <t>Future launches (unknowns)</t>
+  </si>
+  <si>
+    <t>3 strategies:</t>
+  </si>
+  <si>
+    <t>all hydrogen</t>
+  </si>
+  <si>
+    <t>all hydrocarbon</t>
+  </si>
+  <si>
+    <t>hypothetical mix of launcher types (our best effort to represent reality)</t>
+  </si>
+  <si>
+    <t>oneweb_lvm3</t>
+  </si>
+  <si>
+    <t>unknown rocket properties:</t>
+  </si>
+  <si>
+    <t>lvm3</t>
+  </si>
+  <si>
+    <t>glenn</t>
+  </si>
+  <si>
+    <t>vulcan</t>
+  </si>
+  <si>
+    <t>rocket</t>
+  </si>
+  <si>
+    <t>falcon-9</t>
+  </si>
+  <si>
+    <t>soyuz-2</t>
+  </si>
+  <si>
+    <t>Impact Category</t>
+  </si>
+  <si>
+    <t>Launches</t>
+  </si>
+  <si>
+    <t>Rocket Production</t>
+  </si>
+  <si>
+    <t>AIT</t>
+  </si>
+  <si>
+    <t>Propellant Production</t>
+  </si>
+  <si>
+    <t>Rocket Transportation</t>
+  </si>
+  <si>
+    <t>Ariane 5</t>
+  </si>
+  <si>
+    <t>Ariane 6</t>
+  </si>
+  <si>
+    <t>Ariane 7</t>
+  </si>
+  <si>
+    <t>Ariane 8</t>
+  </si>
+  <si>
+    <t>Ariane 9</t>
+  </si>
+  <si>
+    <t>Ariane 10</t>
+  </si>
+  <si>
+    <t>Ariane 11</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>unknown_hyc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,8 +651,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,8 +702,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -600,12 +738,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -636,9 +783,42 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9312,39 +9492,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="54.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="54.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9418,7 +9598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9495,7 +9675,7 @@
         <v>26479.613010181864</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9572,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -9649,7 +9829,7 @@
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9726,7 +9906,7 @@
         <v>3340.0507369887155</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9803,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -9880,7 +10060,7 @@
         <v>-5879755.1550195301</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -9957,7 +10137,7 @@
         <v>135834545.36514488</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -10034,7 +10214,7 @@
         <v>4266.6176385415683</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -10111,7 +10291,7 @@
         <v>5314.5705902229456</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -10188,7 +10368,7 @@
         <v>3716643.0167293628</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -10265,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -10342,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -10419,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -10496,7 +10676,7 @@
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -10573,7 +10753,7 @@
         <v>7995.7318478159505</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -10650,7 +10830,7 @@
         <v>14499.459904160849</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -10727,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -10804,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -10881,7 +11061,7 @@
         <v>81359612.470782876</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -10958,7 +11138,7 @@
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -11035,7 +11215,7 @@
         <v>55659.512490115521</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -11112,7 +11292,7 @@
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -11189,7 +11369,7 @@
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -11266,7 +11446,7 @@
         <v>8025510500.6247005</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -11352,41 +11532,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.6640625" customWidth="1"/>
-    <col min="21" max="21" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11469,7 +11649,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11552,7 +11732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11659,7 +11839,7 @@
         <v>5603052.8998623258</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11766,7 +11946,7 @@
         <v>218297.2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -11877,7 +12057,7 @@
         <v>3.5876885810410113</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -11984,7 +12164,7 @@
         <v>970241.10715785658</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -12091,7 +12271,7 @@
         <v>685000</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -12198,7 +12378,7 @@
         <v>-724629682.26727211</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12305,7 +12485,7 @@
         <v>19591026625.000957</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -12412,7 +12592,7 @@
         <v>622340.45053803571</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -12519,7 +12699,7 @@
         <v>1200157.687738826</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -12626,7 +12806,7 @@
         <v>284503183.97836286</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -12733,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -12840,7 +13020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -12947,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -13054,7 +13234,7 @@
         <v>277533.9090081093</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -13161,7 +13341,7 @@
         <v>2968658.2702427674</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -13268,7 +13448,7 @@
         <v>4055763.7126770243</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -13375,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -13482,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -13589,7 +13769,7 @@
         <v>12998375123.27142</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -13696,7 +13876,7 @@
         <v>253778.79438827973</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -13803,7 +13983,7 @@
         <v>312871574.43354261</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -13910,7 +14090,7 @@
         <v>6629902747.9261084</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -14017,7 +14197,7 @@
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -14124,7 +14304,7 @@
         <v>2909455165589.1377</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -14231,7 +14411,7 @@
         <v>8023222710.5628309</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z28" s="5">
         <f>SUM(Z3:Z27)</f>
         <v>3739627385395.8403</v>
@@ -14245,7 +14425,7 @@
         <v>2957951117951.2559</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>137</v>
       </c>
@@ -14253,7 +14433,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>140</v>
       </c>
@@ -14266,7 +14446,7 @@
         <v>23073540.183070235</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>139</v>
       </c>
@@ -14293,22 +14473,22 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="5"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="5"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C1" s="5" t="s">
         <v>124</v>
       </c>
@@ -14340,8 +14520,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -14384,8 +14564,8 @@
         <v>1.3032140360995145E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
@@ -14427,8 +14607,8 @@
         <v>5.778039771532946E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
       <c r="B4" s="5" t="s">
         <v>96</v>
       </c>
@@ -14469,12 +14649,12 @@
         <v>2.3554832385923238E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="H5" s="2"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>124</v>
       </c>
@@ -14501,8 +14681,8 @@
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -14545,8 +14725,8 @@
         <v>7.0799118024040389E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
       <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
@@ -14588,8 +14768,8 @@
         <v>1.4142380146734562E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
       <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
@@ -14630,11 +14810,11 @@
         <v>1.72381309942925E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>124</v>
       </c>
@@ -14660,8 +14840,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -14696,8 +14876,8 @@
         <v>178934.38348911522</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
@@ -14731,8 +14911,8 @@
         <v>210446.89104714966</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
       <c r="B14" s="5" t="s">
         <v>96</v>
       </c>
@@ -14765,11 +14945,11 @@
         <v>253778.79438827973</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
         <v>124</v>
       </c>
@@ -14795,8 +14975,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -14838,8 +15018,8 @@
         <v>1.160830337472771E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
       <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
@@ -14880,8 +15060,8 @@
         <v>8.142898028660972E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
       <c r="B19" s="5" t="s">
         <v>96</v>
       </c>
@@ -14921,11 +15101,11 @@
         <v>8.1348499974553479E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
         <v>124</v>
       </c>
@@ -14951,8 +15131,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -14987,8 +15167,8 @@
         <v>673.40683789445438</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
       <c r="B23" s="5" t="s">
         <v>95</v>
       </c>
@@ -15022,8 +15202,8 @@
         <v>490.83784818779668</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
       <c r="B24" s="5" t="s">
         <v>96</v>
       </c>
@@ -15056,7 +15236,7 @@
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E26" s="3">
         <v>7545609269.0161886</v>
       </c>
@@ -15083,38 +15263,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EFF905-71F7-4E4C-A860-FECA9C454F58}">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:D55"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="D12:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>143</v>
       </c>
@@ -15222,7 +15402,7 @@
         <v>TOTAL OneWeb</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="str">
         <f>Results!A2</f>
         <v>Impact category UUID</v>
@@ -15332,7 +15512,7 @@
         <v>TOTAL OneWeb</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
         <f>Results!A5</f>
         <v>305e2dd5-defb-4d89-8d38-d54a8ad9cdda</v>
@@ -15441,7 +15621,7 @@
         <v>1128969153.5449555</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
         <f>Results!A5</f>
         <v>305e2dd5-defb-4d89-8d38-d54a8ad9cdda</v>
@@ -15550,7 +15730,7 @@
         <v>1363824795.1449556</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
         <f>Results!A16</f>
         <v>5d5095a7-65cc-4657-8f3a-bd1c64f77b2b</v>
@@ -15659,7 +15839,7 @@
         <v>63231.709008109261</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
         <f>Results!A16</f>
         <v>5d5095a7-65cc-4657-8f3a-bd1c64f77b2b</v>
@@ -15768,7 +15948,7 @@
         <v>277533.9090081093</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="str">
         <f>Results!A22</f>
         <v>1bd12fe7-e558-4abd-86f1-e9ef7c3439b9</v>
@@ -15878,7 +16058,7 @@
         <v>253778.79438827973</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="str">
         <f>Results!A24</f>
         <v>9a6e8ecd-bb0a-4204-ab5d-8686be10b6af</v>
@@ -15988,7 +16168,7 @@
         <v>6629902747.9261084</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="str">
         <f>Results!A25</f>
         <v>5a9aec82-fca2-48bd-803d-66d103d777fb</v>
@@ -16097,6 +16277,285 @@
         <f t="shared" si="2"/>
         <v>460.03530776908087</v>
       </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f>D3/54</f>
+        <v>467816.80000000261</v>
+      </c>
+      <c r="E12">
+        <f>E3/54</f>
+        <v>11018755.479632294</v>
+      </c>
+      <c r="F12">
+        <f>F3/54</f>
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="G12">
+        <f>G3/54</f>
+        <v>4793267.4795996109</v>
+      </c>
+      <c r="H12">
+        <f>H3/54</f>
+        <v>8984275.3361050114</v>
+      </c>
+      <c r="I12">
+        <f>I3/54</f>
+        <v>11043.18682335895</v>
+      </c>
+      <c r="J12">
+        <f>J3/54</f>
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D13" s="9">
+        <f>D4/54</f>
+        <v>107643343.2</v>
+      </c>
+      <c r="E13" s="9">
+        <f>E4/54</f>
+        <v>11018755.479632294</v>
+      </c>
+      <c r="F13" s="9">
+        <f>F4/54</f>
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="G13" s="9">
+        <f>G4/54</f>
+        <v>4793267.4795996109</v>
+      </c>
+      <c r="H13" s="9">
+        <f>H4/54</f>
+        <v>8984275.3361050114</v>
+      </c>
+      <c r="I13" s="9">
+        <f>I4/54</f>
+        <v>11043.18682335895</v>
+      </c>
+      <c r="J13" s="9">
+        <f>J4/54</f>
+        <v>5666556.7423715731</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D14" s="9">
+        <f>D5/54</f>
+        <v>86728.6</v>
+      </c>
+      <c r="E14" s="9">
+        <f>E5/54</f>
+        <v>0.74573505127734652</v>
+      </c>
+      <c r="F14" s="9">
+        <f>F5/54</f>
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="G14" s="9">
+        <f>G5/54</f>
+        <v>0.22329274937454158</v>
+      </c>
+      <c r="H14" s="9">
+        <f>H5/54</f>
+        <v>0.75392759599629455</v>
+      </c>
+      <c r="I14" s="9">
+        <f>I5/54</f>
+        <v>1.8928006407470293E-3</v>
+      </c>
+      <c r="J14" s="9">
+        <f>J5/54</f>
+        <v>0.7778704047126872</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f>D6/54</f>
+        <v>211083.6</v>
+      </c>
+      <c r="E15">
+        <f>E6/54</f>
+        <v>0.74573505127734652</v>
+      </c>
+      <c r="F15">
+        <f>F6/54</f>
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="G15">
+        <f>G6/54</f>
+        <v>0.22329274937454158</v>
+      </c>
+      <c r="H15">
+        <f>H6/54</f>
+        <v>0.75392759599629455</v>
+      </c>
+      <c r="I15">
+        <f>I6/54</f>
+        <v>1.8928006407470293E-3</v>
+      </c>
+      <c r="J15">
+        <f>J6/54</f>
+        <v>0.7778704047126872</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D16" s="22">
+        <f>D7/54</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <f>E7/54</f>
+        <v>2719.7256868327318</v>
+      </c>
+      <c r="F16" s="9">
+        <f>F7/54</f>
+        <v>15.65466434602483</v>
+      </c>
+      <c r="G16" s="9">
+        <f>G7/54</f>
+        <v>34.596428111635966</v>
+      </c>
+      <c r="H16" s="9">
+        <f>H7/54</f>
+        <v>510.20211806069682</v>
+      </c>
+      <c r="I16" s="9">
+        <f>I7/54</f>
+        <v>0.19478691182100277</v>
+      </c>
+      <c r="J16" s="9">
+        <f>J7/54</f>
+        <v>33.22600997996404</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D17" s="22">
+        <f>D8/54</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <f>E8/54</f>
+        <v>69735037.475485206</v>
+      </c>
+      <c r="F17" s="9">
+        <f>F8/54</f>
+        <v>7701094.9926574994</v>
+      </c>
+      <c r="G17" s="9">
+        <f>G8/54</f>
+        <v>17124098.336521085</v>
+      </c>
+      <c r="H17" s="9">
+        <f>H8/54</f>
+        <v>61938424.028104655</v>
+      </c>
+      <c r="I17" s="9">
+        <f>I8/54</f>
+        <v>17341.877787438436</v>
+      </c>
+      <c r="J17" s="9">
+        <f>J8/54</f>
+        <v>18683396.815427154</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D18" s="22">
+        <f>D9/54</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <f>E9/54</f>
+        <v>4.5853853789451549</v>
+      </c>
+      <c r="F18" s="9">
+        <f>F9/54</f>
+        <v>0.48623415113583118</v>
+      </c>
+      <c r="G18" s="9">
+        <f>G9/54</f>
+        <v>1.520253794218255</v>
+      </c>
+      <c r="H18" s="9">
+        <f>H9/54</f>
+        <v>4.1811083796708388</v>
+      </c>
+      <c r="I18" s="9">
+        <f>I9/54</f>
+        <v>1.6539262753034992E-3</v>
+      </c>
+      <c r="J18" s="9">
+        <f>J9/54</f>
+        <v>1.6958613678000689</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="R19" s="22"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16104,28 +16563,1036 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2589047-AB2C-1546-BBBF-01D856EB5DFF}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="169" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17">
+        <v>4113533.9070438663</v>
+      </c>
+      <c r="C3" s="30">
+        <v>4113533.9070438663</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="E3" s="30">
+        <v>4744753.3386012306</v>
+      </c>
+      <c r="F3" s="30">
+        <v>5594990.9167991066</v>
+      </c>
+      <c r="G3" s="30">
+        <v>17220.724910639186</v>
+      </c>
+      <c r="H3" s="30">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="30">
+        <v>26728958.935199995</v>
+      </c>
+      <c r="C4" s="30">
+        <v>4113533.9070438663</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="E4" s="30">
+        <v>4744753.3386012306</v>
+      </c>
+      <c r="F4" s="30">
+        <v>5594990.9167991066</v>
+      </c>
+      <c r="G4" s="30">
+        <v>17220.724910639186</v>
+      </c>
+      <c r="H4" s="30">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="30">
+        <v>6837.1799999999967</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.27747851403236745</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0.54687465295254967</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0.49942301463786543</v>
+      </c>
+      <c r="G5" s="30">
+        <v>3.5682837815305545E-3</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="30">
+        <v>30767.309999999998</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.27747851403236745</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0.54687465295254967</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0.49942301463786543</v>
+      </c>
+      <c r="G6" s="30">
+        <v>3.5682837815305545E-3</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30">
+        <v>1783.3371177688603</v>
+      </c>
+      <c r="D7" s="30">
+        <v>15.65466434602483</v>
+      </c>
+      <c r="E7" s="30">
+        <v>32.926631961777332</v>
+      </c>
+      <c r="F7" s="30">
+        <v>277.75696511623221</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0.83687164026362992</v>
+      </c>
+      <c r="H7" s="30">
+        <v>33.22600997996404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30">
+        <v>20253601.637710914</v>
+      </c>
+      <c r="D8" s="30">
+        <v>7701094.9926574985</v>
+      </c>
+      <c r="E8" s="30">
+        <v>15292951.197525069</v>
+      </c>
+      <c r="F8" s="30">
+        <v>36949013.689920552</v>
+      </c>
+      <c r="G8" s="30">
+        <v>47571.203415352677</v>
+      </c>
+      <c r="H8" s="30">
+        <v>18683396.815427154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30">
+        <v>1.5153080599897464</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.48623415113583118</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1.3787279638927508</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2.4319269835396082</v>
+      </c>
+      <c r="G9" s="30">
+        <v>4.7666844362048606E-3</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1.6958613678000689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="30">
+        <v>288655.10960000008</v>
+      </c>
+      <c r="C15" s="30">
+        <v>44680412.981284596</v>
+      </c>
+      <c r="D15" s="30">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="E15" s="30">
+        <v>968910.19943819474</v>
+      </c>
+      <c r="F15" s="30">
+        <v>3223330.483496089</v>
+      </c>
+      <c r="G15" s="30">
+        <v>4328.6038079110258</v>
+      </c>
+      <c r="H15" s="30">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="30">
+        <v>12031437.1896</v>
+      </c>
+      <c r="C16" s="30">
+        <v>44680412.981284596</v>
+      </c>
+      <c r="D16" s="30">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="E16" s="30">
+        <v>968910.19943819474</v>
+      </c>
+      <c r="F16" s="30">
+        <v>3223330.483496089</v>
+      </c>
+      <c r="G16" s="30">
+        <v>4328.6038079110258</v>
+      </c>
+      <c r="H16" s="30">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="30">
+        <v>3157.14</v>
+      </c>
+      <c r="C17" s="30">
+        <v>3.1118177295096698</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0.10999882300059302</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0.28784860068329066</v>
+      </c>
+      <c r="G17" s="30">
+        <v>1.3395513644780855E-3</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="30">
+        <v>13872.25</v>
+      </c>
+      <c r="C18" s="30">
+        <v>3.1118177295096698</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.10999882300059302</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0.28784860068329066</v>
+      </c>
+      <c r="G18" s="30">
+        <v>1.3395513644780855E-3</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="30">
+        <v>0</v>
+      </c>
+      <c r="C19" s="30">
+        <v>12473.4086030452</v>
+      </c>
+      <c r="D19" s="30">
+        <v>15.65466434602483</v>
+      </c>
+      <c r="E19" s="30">
+        <v>6.7162504899370443</v>
+      </c>
+      <c r="F19" s="30">
+        <v>159.77569797841963</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0.15849357444046022</v>
+      </c>
+      <c r="H19" s="30">
+        <v>33.22600997996404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="30">
+        <v>0</v>
+      </c>
+      <c r="C20" s="30">
+        <v>280703930.50702399</v>
+      </c>
+      <c r="D20" s="30">
+        <v>7701094.9926574994</v>
+      </c>
+      <c r="E20" s="30">
+        <v>3114043.0979245142</v>
+      </c>
+      <c r="F20" s="30">
+        <v>21269740.344604127</v>
+      </c>
+      <c r="G20" s="30">
+        <v>22931.638668104453</v>
+      </c>
+      <c r="H20" s="30">
+        <v>18683396.815427154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="30">
+        <v>0</v>
+      </c>
+      <c r="C21" s="30">
+        <v>19.1361268975229</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0.48623415113583118</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0.28140976012724422</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1.3995528389592491</v>
+      </c>
+      <c r="G21" s="30">
+        <v>2.5803729087505245E-3</v>
+      </c>
+      <c r="H21" s="30">
+        <v>1.6958613678000689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="30">
+        <v>467816.80000000261</v>
+      </c>
+      <c r="C27" s="30">
+        <v>11018755.479632294</v>
+      </c>
+      <c r="D27" s="30">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="E27" s="30">
+        <v>4793267.4795996109</v>
+      </c>
+      <c r="F27" s="30">
+        <v>8984275.3361050114</v>
+      </c>
+      <c r="G27" s="30">
+        <v>11043.18682335895</v>
+      </c>
+      <c r="H27" s="30">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="30">
+        <v>107643343.2</v>
+      </c>
+      <c r="C28" s="30">
+        <v>11018755.479632294</v>
+      </c>
+      <c r="D28" s="30">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="E28" s="30">
+        <v>4793267.4795996109</v>
+      </c>
+      <c r="F28" s="30">
+        <v>8984275.3361050114</v>
+      </c>
+      <c r="G28" s="30">
+        <v>11043.18682335895</v>
+      </c>
+      <c r="H28" s="30">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="30">
+        <v>86728.6</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.74573505127734652</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="E29" s="30">
+        <v>0.22329274937454158</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.75392759599629455</v>
+      </c>
+      <c r="G29" s="30">
+        <v>1.8928006407470293E-3</v>
+      </c>
+      <c r="H29" s="30">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="30">
+        <v>211083.6</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0.74573505127734652</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="E30" s="30">
+        <v>0.22329274937454158</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0.75392759599629455</v>
+      </c>
+      <c r="G30" s="30">
+        <v>1.8928006407470293E-3</v>
+      </c>
+      <c r="H30" s="30">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="30">
+        <v>0</v>
+      </c>
+      <c r="C31" s="30">
+        <v>2719.7256868327318</v>
+      </c>
+      <c r="D31" s="30">
+        <v>15.65466434602483</v>
+      </c>
+      <c r="E31" s="30">
+        <v>34.596428111635966</v>
+      </c>
+      <c r="F31" s="30">
+        <v>510.20211806069682</v>
+      </c>
+      <c r="G31" s="30">
+        <v>0.19478691182100277</v>
+      </c>
+      <c r="H31" s="30">
+        <v>33.22600997996404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="30">
+        <v>0</v>
+      </c>
+      <c r="C32" s="30">
+        <v>69735037.475485206</v>
+      </c>
+      <c r="D32" s="30">
+        <v>7701094.9926574994</v>
+      </c>
+      <c r="E32" s="30">
+        <v>17124098.336521085</v>
+      </c>
+      <c r="F32" s="30">
+        <v>61938424.028104655</v>
+      </c>
+      <c r="G32" s="30">
+        <v>17341.877787438436</v>
+      </c>
+      <c r="H32" s="30">
+        <v>18683396.815427154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="30">
+        <v>0</v>
+      </c>
+      <c r="C33" s="30">
+        <v>4.5853853789451549</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.48623415113583118</v>
+      </c>
+      <c r="E33" s="30">
+        <v>1.520253794218255</v>
+      </c>
+      <c r="F33" s="30">
+        <v>4.1811083796708388</v>
+      </c>
+      <c r="G33" s="30">
+        <v>1.6539262753034992E-3</v>
+      </c>
+      <c r="H33" s="30">
+        <v>1.6958613678000689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="30">
+        <f>(B3+B15)/2</f>
+        <v>2201094.5083219334</v>
+      </c>
+      <c r="C39" s="30">
+        <f>(C3+C15)/2</f>
+        <v>24396973.444164231</v>
+      </c>
+      <c r="D39" s="30">
+        <f>(D3+D15)/2</f>
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="E39" s="30">
+        <f>(E3+E15)/2</f>
+        <v>2856831.7690197127</v>
+      </c>
+      <c r="F39" s="30">
+        <f>(F3+F15)/2</f>
+        <v>4409160.7001475981</v>
+      </c>
+      <c r="G39" s="30">
+        <f>(G3+G15)/2</f>
+        <v>10774.664359275106</v>
+      </c>
+      <c r="H39" s="30">
+        <f>(H3+H15)/2</f>
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="30">
+        <f>(B4+B16)/2</f>
+        <v>19380198.062399998</v>
+      </c>
+      <c r="C40" s="30">
+        <f>(C4+C16)/2</f>
+        <v>24396973.444164231</v>
+      </c>
+      <c r="D40" s="30">
+        <f>(D4+D16)/2</f>
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="E40" s="30">
+        <f>(E4+E16)/2</f>
+        <v>2856831.7690197127</v>
+      </c>
+      <c r="F40" s="30">
+        <f>(F4+F16)/2</f>
+        <v>4409160.7001475981</v>
+      </c>
+      <c r="G40" s="30">
+        <f>(G4+G16)/2</f>
+        <v>10774.664359275106</v>
+      </c>
+      <c r="H40" s="30">
+        <f>(H4+H16)/2</f>
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="30">
+        <f>(B5+B17)/2</f>
+        <v>4997.159999999998</v>
+      </c>
+      <c r="C41" s="30">
+        <f>(C5+C17)/2</f>
+        <v>1.6946481217710185</v>
+      </c>
+      <c r="D41" s="30">
+        <f>(D5+D17)/2</f>
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="E41" s="30">
+        <f>(E5+E29)/2</f>
+        <v>0.38508370116354562</v>
+      </c>
+      <c r="F41" s="30">
+        <f>(F5+F17)/2</f>
+        <v>0.39363580766057804</v>
+      </c>
+      <c r="G41" s="30">
+        <f>(G5+G17)/2</f>
+        <v>2.4539175730043201E-3</v>
+      </c>
+      <c r="H41" s="30">
+        <f>(H5+H17)/2</f>
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="30">
+        <f>(B6+B18)/2</f>
+        <v>22319.78</v>
+      </c>
+      <c r="C42" s="30">
+        <f>(C6+C18)/2</f>
+        <v>1.6946481217710185</v>
+      </c>
+      <c r="D42" s="30">
+        <f>(D6+D18)/2</f>
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="E42" s="30">
+        <f>(E6+E18)/2</f>
+        <v>0.32843673797657136</v>
+      </c>
+      <c r="F42" s="30">
+        <f>(F6+F18)/2</f>
+        <v>0.39363580766057804</v>
+      </c>
+      <c r="G42" s="30">
+        <f>(G6+G18)/2</f>
+        <v>2.4539175730043201E-3</v>
+      </c>
+      <c r="H42" s="30">
+        <f>(H6+H18)/2</f>
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="30">
+        <f>(B7+B19)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="30">
+        <f>(C7+C19)/2</f>
+        <v>7128.3728604070302</v>
+      </c>
+      <c r="D43" s="30">
+        <f>(D7+D19)/2</f>
+        <v>15.65466434602483</v>
+      </c>
+      <c r="E43" s="30">
+        <f>(E7+E19)/2</f>
+        <v>19.821441225857189</v>
+      </c>
+      <c r="F43" s="30">
+        <f>(F7+F19)/2</f>
+        <v>218.76633154732593</v>
+      </c>
+      <c r="G43" s="30">
+        <f>(G7+G19)/2</f>
+        <v>0.49768260735204506</v>
+      </c>
+      <c r="H43" s="30">
+        <f>(H7+H19)/2</f>
+        <v>33.22600997996404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="30">
+        <f>(B8+B20)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="30">
+        <f>(C8+C20)/2</f>
+        <v>150478766.07236746</v>
+      </c>
+      <c r="D44" s="30">
+        <f>(D8+D20)/2</f>
+        <v>7701094.9926574994</v>
+      </c>
+      <c r="E44" s="30">
+        <f>(E8+E20)/2</f>
+        <v>9203497.1477247924</v>
+      </c>
+      <c r="F44" s="30">
+        <f>(F8+F20)/2</f>
+        <v>29109377.01726234</v>
+      </c>
+      <c r="G44" s="30">
+        <f>(G8+G20)/2</f>
+        <v>35251.421041728565</v>
+      </c>
+      <c r="H44" s="30">
+        <f>(H8+H20)/2</f>
+        <v>18683396.815427154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="30">
+        <f>(B9+B21)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="30">
+        <f>(C9+C21)/2</f>
+        <v>10.325717478756323</v>
+      </c>
+      <c r="D45" s="30">
+        <f>(D9+D21)/2</f>
+        <v>0.48623415113583118</v>
+      </c>
+      <c r="E45" s="30">
+        <f>(E9+E21)/2</f>
+        <v>0.83006886200999752</v>
+      </c>
+      <c r="F45" s="30">
+        <f>(F9+F21)/2</f>
+        <v>1.9157399112494287</v>
+      </c>
+      <c r="G45" s="30">
+        <f>(G9+G21)/2</f>
+        <v>3.6735286724776926E-3</v>
+      </c>
+      <c r="H45" s="30">
+        <f>(H9+H21)/2</f>
+        <v>1.6958613678000689</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445714A6-DB77-4E6D-8803-0121084C8619}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" customWidth="1"/>
     <col min="25" max="27" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f t="array" ref="A1:I27">TRANSPOSE(Final!A1:AA9)</f>
         <v>Constellation</v>
@@ -16155,7 +17622,7 @@
         <v>5a9aec82-fca2-48bd-803d-66d103d777fb</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <v>Constellation</v>
       </c>
@@ -16184,7 +17651,7 @@
         <v>Toxicity - Human Toxicity</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <v>Reference unit</v>
       </c>
@@ -16213,7 +17680,7 @@
         <v>cases</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <v>Kuiper</v>
       </c>
@@ -16242,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <v>Kuiper</v>
       </c>
@@ -16271,7 +17738,7 @@
         <v>247.61081046303838</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <v>Kuiper</v>
       </c>
@@ -16300,7 +17767,7 @@
         <v>26.256644161334883</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <v>Kuiper</v>
       </c>
@@ -16329,7 +17796,7 @@
         <v>82.093704887785776</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <v>Kuiper</v>
       </c>
@@ -16358,7 +17825,7 @@
         <v>225.77985250222531</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <v>Kuiper</v>
       </c>
@@ -16387,7 +17854,7 @@
         <v>8.9312018866388954E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <v>Kuiper</v>
       </c>
@@ -16416,210 +17883,210 @@
         <v>91.576513861203722</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="str">
         <v>Starlink</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="2" t="str">
         <v>Falcon 9 Launches</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="28">
         <v>304401509.1212461</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="28">
         <v>1977942961.2047997</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="29">
         <v>505951.31999999977</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="28">
         <v>2276780.94</v>
       </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <v>0</v>
-      </c>
-      <c r="I11" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="str">
         <v>Starlink</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="2" t="str">
         <v>Falcon 9 Production</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="28">
         <v>304401509.1212461</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="28">
         <v>304401509.1212461</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="29">
         <v>20.533410038395193</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="28">
         <v>20.533410038395193</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="28">
         <v>131966.94671489566</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="28">
         <v>1498766521.1906075</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="28">
         <v>112.13279643924123</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="str">
         <v>Starlink</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="2" t="str">
         <v>Falcon 9 AIT</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="28">
         <v>119603503.23645689</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="28">
         <v>119603503.23645689</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="29">
         <v>11.586571918254084</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="28">
         <v>11.586571918254084</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="28">
         <v>1158.4451616058375</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="28">
         <v>569881029.45665491</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="28">
         <v>35.981327184051509</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="str">
         <v>Starlink</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="2" t="str">
         <v>Falcon 9 Propellant Production</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="28">
         <v>351111747.05649108</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="28">
         <v>351111747.05649108</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="29">
         <v>40.468724318488675</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="28">
         <v>40.468724318488675</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="28">
         <v>2436.5707651715225</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="28">
         <v>1131678388.6168551</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="28">
         <v>102.02586932806355</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="str">
         <v>Starlink</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="2" t="str">
         <v>SCHD of Falcon 9 Propellant</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="28">
         <v>414029327.84313387</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="28">
         <v>414029327.84313387</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="29">
         <v>36.957303083202042</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="28">
         <v>36.957303083202042</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="28">
         <v>20554.015418601182</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="28">
         <v>2734227013.054121</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="28">
         <v>179.96259678193101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="str">
         <v>Starlink</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="2" t="str">
         <v>Transportation of Falcon 9 by truck</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="28">
         <v>1274333.6433872997</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="28">
         <v>1274333.6433872997</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="29">
         <v>0.26405299983326103</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="28">
         <v>0.26405299983326103</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="28">
         <v>61.928501379508617</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="28">
         <v>3520269.0527360979</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="28">
         <v>0.35273464827915968</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="str">
         <v>Starlink</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="2" t="str">
         <v>Falcon 9 Launch Campaign</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="28">
         <v>419325198.93549639</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="28">
         <v>419325198.93549639</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="29">
         <v>57.562409948738853</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="28">
         <v>57.562409948738853</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="28">
         <v>2458.7247385173391</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="28">
         <v>1382571364.3416095</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="28">
         <v>125.4937412172051</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <v>OneWeb</v>
       </c>
@@ -16648,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <v>OneWeb</v>
       </c>
@@ -16677,7 +18144,7 @@
         <v>382.72253795045799</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <v>OneWeb</v>
       </c>
@@ -16706,7 +18173,7 @@
         <v>9.7246830227166239</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <v>OneWeb</v>
       </c>
@@ -16735,7 +18202,7 @@
         <v>5.6281952025448847</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <v>OneWeb</v>
       </c>
@@ -16764,7 +18231,7 @@
         <v>27.99105677918498</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <v>OneWeb</v>
       </c>
@@ -16793,7 +18260,7 @@
         <v>5.1607458175010487E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <v>OneWeb</v>
       </c>
@@ -16822,7 +18289,7 @@
         <v>33.917227356001376</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <v>TOTAL Kupier</v>
       </c>
@@ -16851,7 +18318,7 @@
         <v>673.40683789445438</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <v>TOTAL Starlink</v>
       </c>
@@ -16880,7 +18347,7 @@
         <v>555.94906559877165</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <v>TOTAL OneWeb</v>
       </c>
@@ -16909,7 +18376,7 @@
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="F28" s="22"/>
@@ -16921,4 +18388,1738 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2EF0A-47A9-4BD2-8B71-3C2A201626BA}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="31">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="31">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="31">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="31">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="32">
+        <v>2024</v>
+      </c>
+      <c r="H2" s="32">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="32">
+        <v>2026</v>
+      </c>
+      <c r="J2" s="32">
+        <v>2027</v>
+      </c>
+      <c r="K2" s="32">
+        <v>2028</v>
+      </c>
+      <c r="L2" s="32">
+        <v>2029</v>
+      </c>
+      <c r="M2" s="32">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31">
+        <v>3</v>
+      </c>
+      <c r="D3" s="31">
+        <v>8</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0</v>
+      </c>
+      <c r="J3" s="32">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31">
+        <v>3</v>
+      </c>
+      <c r="G4" s="32">
+        <v>3</v>
+      </c>
+      <c r="H4" s="32">
+        <v>3</v>
+      </c>
+      <c r="I4" s="32">
+        <v>3</v>
+      </c>
+      <c r="J4" s="32">
+        <v>3</v>
+      </c>
+      <c r="K4" s="32">
+        <v>3</v>
+      </c>
+      <c r="L4" s="32">
+        <v>3</v>
+      </c>
+      <c r="M4" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="34">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="31">
+        <v>2</v>
+      </c>
+      <c r="C6" s="31">
+        <v>14</v>
+      </c>
+      <c r="D6" s="31">
+        <v>19</v>
+      </c>
+      <c r="E6" s="31">
+        <v>34</v>
+      </c>
+      <c r="F6" s="31">
+        <v>58</v>
+      </c>
+      <c r="G6" s="32">
+        <v>23</v>
+      </c>
+      <c r="H6" s="32">
+        <v>23</v>
+      </c>
+      <c r="I6" s="32">
+        <v>23</v>
+      </c>
+      <c r="J6" s="32">
+        <v>23</v>
+      </c>
+      <c r="K6" s="32">
+        <v>23</v>
+      </c>
+      <c r="L6" s="32">
+        <v>23</v>
+      </c>
+      <c r="M6" s="32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35">
+        <v>4</v>
+      </c>
+      <c r="H7" s="35">
+        <v>4</v>
+      </c>
+      <c r="I7" s="35">
+        <v>4</v>
+      </c>
+      <c r="J7" s="35">
+        <v>4</v>
+      </c>
+      <c r="K7" s="35">
+        <v>4</v>
+      </c>
+      <c r="L7" s="35">
+        <v>4</v>
+      </c>
+      <c r="M7" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35">
+        <v>4</v>
+      </c>
+      <c r="H8" s="35">
+        <v>4</v>
+      </c>
+      <c r="I8" s="35">
+        <v>4</v>
+      </c>
+      <c r="J8" s="35">
+        <v>4</v>
+      </c>
+      <c r="K8" s="35">
+        <v>4</v>
+      </c>
+      <c r="L8" s="35">
+        <v>4</v>
+      </c>
+      <c r="M8" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35">
+        <v>4</v>
+      </c>
+      <c r="H9" s="35">
+        <v>4</v>
+      </c>
+      <c r="I9" s="35">
+        <v>4</v>
+      </c>
+      <c r="J9" s="35">
+        <v>4</v>
+      </c>
+      <c r="K9" s="35">
+        <v>4</v>
+      </c>
+      <c r="L9" s="35">
+        <v>4</v>
+      </c>
+      <c r="M9" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="31">
+        <v>4</v>
+      </c>
+      <c r="C10" s="31">
+        <v>4</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849708CD-AF9C-FA44-89D3-3AC8A37EFCC0}">
+  <dimension ref="A1:L78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="49">
+        <v>2019</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49">
+        <v>2022</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+      <c r="K1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="43">
+        <v>45413</v>
+      </c>
+      <c r="B2" s="45">
+        <v>60</v>
+      </c>
+      <c r="C2" s="40">
+        <v>44933</v>
+      </c>
+      <c r="D2" s="39">
+        <v>60</v>
+      </c>
+      <c r="E2" s="41">
+        <v>45045</v>
+      </c>
+      <c r="F2" s="42">
+        <v>60</v>
+      </c>
+      <c r="G2" s="37">
+        <v>45037</v>
+      </c>
+      <c r="H2" s="38">
+        <v>53</v>
+      </c>
+      <c r="I2" s="36">
+        <v>45035</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="44">
+        <v>45241</v>
+      </c>
+      <c r="B3" s="45">
+        <v>60</v>
+      </c>
+      <c r="C3" s="40">
+        <v>44955</v>
+      </c>
+      <c r="D3" s="39">
+        <v>60</v>
+      </c>
+      <c r="E3" s="41">
+        <v>45023</v>
+      </c>
+      <c r="F3" s="42">
+        <v>60</v>
+      </c>
+      <c r="G3" s="37">
+        <v>45045</v>
+      </c>
+      <c r="H3" s="38">
+        <v>53</v>
+      </c>
+      <c r="I3" s="36">
+        <v>45043</v>
+      </c>
+      <c r="J3">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="40">
+        <v>44974</v>
+      </c>
+      <c r="D4" s="39">
+        <v>60</v>
+      </c>
+      <c r="E4" s="41">
+        <v>45278</v>
+      </c>
+      <c r="F4" s="42">
+        <v>52</v>
+      </c>
+      <c r="G4" s="37">
+        <v>45148</v>
+      </c>
+      <c r="H4" s="38">
+        <v>52</v>
+      </c>
+      <c r="I4" s="36">
+        <v>45149</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="40">
+        <v>45003</v>
+      </c>
+      <c r="D5" s="39">
+        <v>60</v>
+      </c>
+      <c r="E5" s="41">
+        <v>45262</v>
+      </c>
+      <c r="F5" s="42">
+        <v>48</v>
+      </c>
+      <c r="G5" s="37">
+        <v>45150</v>
+      </c>
+      <c r="H5" s="38">
+        <v>46</v>
+      </c>
+      <c r="I5" s="36">
+        <v>45155</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="40">
+        <v>45038</v>
+      </c>
+      <c r="D6" s="39">
+        <v>60</v>
+      </c>
+      <c r="E6" s="41">
+        <v>44973</v>
+      </c>
+      <c r="F6" s="42">
+        <v>60</v>
+      </c>
+      <c r="G6" s="37">
+        <v>45157</v>
+      </c>
+      <c r="H6" s="38">
+        <v>53</v>
+      </c>
+      <c r="I6" s="36">
+        <v>45160</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="40">
+        <v>45090</v>
+      </c>
+      <c r="D7" s="39">
+        <v>58</v>
+      </c>
+      <c r="E7" s="41">
+        <v>44961</v>
+      </c>
+      <c r="F7" s="42">
+        <v>60</v>
+      </c>
+      <c r="G7" s="37">
+        <v>45166</v>
+      </c>
+      <c r="H7" s="38">
+        <v>54</v>
+      </c>
+      <c r="I7" s="36">
+        <v>45165</v>
+      </c>
+      <c r="J7">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="40">
+        <v>45081</v>
+      </c>
+      <c r="D8" s="39">
+        <v>60</v>
+      </c>
+      <c r="E8" s="41">
+        <v>44946</v>
+      </c>
+      <c r="F8" s="42">
+        <v>60</v>
+      </c>
+      <c r="G8" s="37">
+        <v>45169</v>
+      </c>
+      <c r="H8" s="38">
+        <v>46</v>
+      </c>
+      <c r="I8" s="36">
+        <v>45145</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="40">
+        <v>45156</v>
+      </c>
+      <c r="D9" s="39">
+        <v>58</v>
+      </c>
+      <c r="E9" s="41">
+        <v>44950</v>
+      </c>
+      <c r="F9" s="42">
+        <v>10</v>
+      </c>
+      <c r="G9" s="37">
+        <v>45277</v>
+      </c>
+      <c r="H9" s="38">
+        <v>54</v>
+      </c>
+      <c r="I9" s="36">
+        <v>45146</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="40">
+        <v>45145</v>
+      </c>
+      <c r="D10" s="39">
+        <v>57</v>
+      </c>
+      <c r="E10" s="41">
+        <v>45107</v>
+      </c>
+      <c r="F10" s="42">
+        <v>3</v>
+      </c>
+      <c r="G10" s="37">
+        <v>45288</v>
+      </c>
+      <c r="H10" s="38">
+        <v>54</v>
+      </c>
+      <c r="I10" s="36">
+        <v>44969</v>
+      </c>
+      <c r="J10">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="40">
+        <v>45172</v>
+      </c>
+      <c r="D11" s="39">
+        <v>60</v>
+      </c>
+      <c r="E11" s="41">
+        <v>44996</v>
+      </c>
+      <c r="F11" s="42">
+        <v>60</v>
+      </c>
+      <c r="G11" s="37">
+        <v>44978</v>
+      </c>
+      <c r="H11" s="38">
+        <v>46</v>
+      </c>
+      <c r="I11" s="36">
+        <v>44974</v>
+      </c>
+      <c r="J11">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="40">
+        <v>45205</v>
+      </c>
+      <c r="D12" s="39">
+        <v>60</v>
+      </c>
+      <c r="E12" s="41">
+        <v>44999</v>
+      </c>
+      <c r="F12" s="42">
+        <v>60</v>
+      </c>
+      <c r="G12" s="37">
+        <v>44982</v>
+      </c>
+      <c r="H12" s="38">
+        <v>50</v>
+      </c>
+      <c r="I12" s="36">
+        <v>44959</v>
+      </c>
+      <c r="J12">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="40">
+        <v>45217</v>
+      </c>
+      <c r="D13" s="39">
+        <v>60</v>
+      </c>
+      <c r="E13" s="41">
+        <v>45009</v>
+      </c>
+      <c r="F13" s="42">
+        <v>60</v>
+      </c>
+      <c r="G13" s="37">
+        <v>44960</v>
+      </c>
+      <c r="H13" s="38">
+        <v>49</v>
+      </c>
+      <c r="I13" s="36">
+        <v>44984</v>
+      </c>
+      <c r="J13">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="40">
+        <v>45223</v>
+      </c>
+      <c r="D14" s="39">
+        <v>60</v>
+      </c>
+      <c r="E14" s="41">
+        <v>44989</v>
+      </c>
+      <c r="F14" s="42">
+        <v>60</v>
+      </c>
+      <c r="G14" s="37">
+        <v>44945</v>
+      </c>
+      <c r="H14" s="38">
+        <v>49</v>
+      </c>
+      <c r="I14" s="36">
+        <v>44945</v>
+      </c>
+      <c r="J14">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="40">
+        <v>45255</v>
+      </c>
+      <c r="D15" s="39">
+        <v>60</v>
+      </c>
+      <c r="E15" s="41">
+        <v>45061</v>
+      </c>
+      <c r="F15" s="42">
+        <v>52</v>
+      </c>
+      <c r="G15" s="37">
+        <v>44932</v>
+      </c>
+      <c r="H15" s="38">
+        <v>49</v>
+      </c>
+      <c r="I15" s="36">
+        <v>44952</v>
+      </c>
+      <c r="J15">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="41">
+        <v>45072</v>
+      </c>
+      <c r="F16" s="42">
+        <v>60</v>
+      </c>
+      <c r="G16" s="37">
+        <v>45118</v>
+      </c>
+      <c r="H16" s="38">
+        <v>46</v>
+      </c>
+      <c r="I16" s="36">
+        <v>44957</v>
+      </c>
+      <c r="J16">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="41">
+        <v>45050</v>
+      </c>
+      <c r="F17" s="42">
+        <v>60</v>
+      </c>
+      <c r="G17" s="37">
+        <v>45124</v>
+      </c>
+      <c r="H17" s="38">
+        <v>53</v>
+      </c>
+      <c r="I17" s="36">
+        <v>45117</v>
+      </c>
+      <c r="J17">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="41">
+        <v>45055</v>
+      </c>
+      <c r="F18" s="42">
+        <v>60</v>
+      </c>
+      <c r="G18" s="37">
+        <v>45129</v>
+      </c>
+      <c r="H18" s="38">
+        <v>46</v>
+      </c>
+      <c r="I18" s="36">
+        <v>45123</v>
+      </c>
+      <c r="J18">
+        <v>54</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E19" s="41">
+        <v>45243</v>
+      </c>
+      <c r="F19" s="42">
+        <v>53</v>
+      </c>
+      <c r="G19" s="37">
+        <v>45131</v>
+      </c>
+      <c r="H19" s="38">
+        <v>53</v>
+      </c>
+      <c r="I19" s="36">
+        <v>45127</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E20" s="41">
+        <v>45183</v>
+      </c>
+      <c r="F20" s="42">
+        <v>51</v>
+      </c>
+      <c r="G20" s="37">
+        <v>45114</v>
+      </c>
+      <c r="H20" s="38">
+        <v>53</v>
+      </c>
+      <c r="I20" s="36">
+        <v>45131</v>
+      </c>
+      <c r="J20">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G21" s="37">
+        <v>45094</v>
+      </c>
+      <c r="H21" s="38">
+        <v>53</v>
+      </c>
+      <c r="I21" s="36">
+        <v>45135</v>
+      </c>
+      <c r="J21">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G22" s="37">
+        <v>45004</v>
+      </c>
+      <c r="H22" s="38">
+        <v>53</v>
+      </c>
+      <c r="I22" s="36">
+        <v>45114</v>
+      </c>
+      <c r="J22">
+        <v>48</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G23" s="37">
+        <v>44988</v>
+      </c>
+      <c r="H23" s="38">
+        <v>47</v>
+      </c>
+      <c r="I23" s="36">
+        <v>45089</v>
+      </c>
+      <c r="J23">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="37">
+        <v>44994</v>
+      </c>
+      <c r="H24" s="38">
+        <v>48</v>
+      </c>
+      <c r="I24" s="36">
+        <v>45099</v>
+      </c>
+      <c r="J24">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G25" s="37">
+        <v>45059</v>
+      </c>
+      <c r="H25" s="38">
+        <v>53</v>
+      </c>
+      <c r="I25" s="36">
+        <v>45100</v>
+      </c>
+      <c r="J25">
+        <v>56</v>
+      </c>
+      <c r="K25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G26" s="37">
+        <v>45060</v>
+      </c>
+      <c r="H26" s="38">
+        <v>53</v>
+      </c>
+      <c r="I26" s="36">
+        <v>45081</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G27" s="37">
+        <v>45064</v>
+      </c>
+      <c r="H27" s="38">
+        <v>53</v>
+      </c>
+      <c r="I27" s="36">
+        <v>45002</v>
+      </c>
+      <c r="J27">
+        <v>52</v>
+      </c>
+      <c r="K27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="37">
+        <v>45052</v>
+      </c>
+      <c r="H28" s="38">
+        <v>53</v>
+      </c>
+      <c r="I28" s="36">
+        <v>45009</v>
+      </c>
+      <c r="J28">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G29" s="37">
+        <v>45219</v>
+      </c>
+      <c r="H29" s="38">
+        <v>54</v>
+      </c>
+      <c r="I29" s="36">
+        <v>45014</v>
+      </c>
+      <c r="J29">
+        <v>56</v>
+      </c>
+      <c r="K29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G30" s="37">
+        <v>45227</v>
+      </c>
+      <c r="H30" s="38">
+        <v>53</v>
+      </c>
+      <c r="I30" s="36">
+        <v>44988</v>
+      </c>
+      <c r="J30">
+        <v>51</v>
+      </c>
+      <c r="K30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G31" s="37">
+        <v>45204</v>
+      </c>
+      <c r="H31" s="38">
+        <v>52</v>
+      </c>
+      <c r="I31" s="36">
+        <v>45056</v>
+      </c>
+      <c r="J31">
+        <v>51</v>
+      </c>
+      <c r="K31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G32" s="37">
+        <v>45180</v>
+      </c>
+      <c r="H32" s="38">
+        <v>34</v>
+      </c>
+      <c r="I32" s="36">
+        <v>45060</v>
+      </c>
+      <c r="J32">
+        <v>56</v>
+      </c>
+      <c r="K32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G33" s="37">
+        <v>45188</v>
+      </c>
+      <c r="H33" s="38">
+        <v>54</v>
+      </c>
+      <c r="I33" s="36">
+        <v>45065</v>
+      </c>
+      <c r="J33">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="G34" s="37">
+        <v>45193</v>
+      </c>
+      <c r="H34" s="38">
+        <v>52</v>
+      </c>
+      <c r="I34" s="36">
+        <v>45077</v>
+      </c>
+      <c r="J34">
+        <v>52</v>
+      </c>
+      <c r="K34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G35" s="37">
+        <v>45174</v>
+      </c>
+      <c r="H35" s="38">
+        <v>51</v>
+      </c>
+      <c r="I35" s="36">
+        <v>45050</v>
+      </c>
+      <c r="J35">
+        <v>56</v>
+      </c>
+      <c r="K35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I36" s="36">
+        <v>45170</v>
+      </c>
+      <c r="J36">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I37" s="36">
+        <v>45181</v>
+      </c>
+      <c r="J37">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I38" s="36">
+        <v>45185</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="36">
+        <v>45189</v>
+      </c>
+      <c r="J39">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="36">
+        <v>45193</v>
+      </c>
+      <c r="J40">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="36">
+        <v>45194</v>
+      </c>
+      <c r="J41">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I42" s="36">
+        <v>45173</v>
+      </c>
+      <c r="J42">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="36">
+        <v>45178</v>
+      </c>
+      <c r="J43">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I44" s="36">
+        <v>45258</v>
+      </c>
+      <c r="J44">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="36">
+        <v>45252</v>
+      </c>
+      <c r="J45">
+        <v>23</v>
+      </c>
+      <c r="K45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="36">
+        <v>45250</v>
+      </c>
+      <c r="J46">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I47" s="36">
+        <v>45248</v>
+      </c>
+      <c r="J47">
+        <v>23</v>
+      </c>
+      <c r="K47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I48" s="36">
+        <v>45238</v>
+      </c>
+      <c r="J48">
+        <v>23</v>
+      </c>
+      <c r="K48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I49" s="36">
+        <v>45233</v>
+      </c>
+      <c r="J49">
+        <v>23</v>
+      </c>
+      <c r="K49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I50" s="36">
+        <v>45229</v>
+      </c>
+      <c r="J50">
+        <v>23</v>
+      </c>
+      <c r="K50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I51" s="36">
+        <v>45228</v>
+      </c>
+      <c r="J51">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I52" s="36">
+        <v>45220</v>
+      </c>
+      <c r="J52">
+        <v>23</v>
+      </c>
+      <c r="K52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I53" s="36">
+        <v>45220</v>
+      </c>
+      <c r="J53">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I54" s="36">
+        <v>45216</v>
+      </c>
+      <c r="J54">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I55" s="36">
+        <v>45212</v>
+      </c>
+      <c r="J55">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I56" s="36">
+        <v>45208</v>
+      </c>
+      <c r="J56">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I57" s="36">
+        <v>45207</v>
+      </c>
+      <c r="J57">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I58" s="36">
+        <v>45204</v>
+      </c>
+      <c r="J58">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I59" s="36">
+        <v>45198</v>
+      </c>
+      <c r="J59">
+        <v>22</v>
+      </c>
+      <c r="K59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I60" s="36">
+        <v>45262</v>
+      </c>
+      <c r="J60">
+        <v>23</v>
+      </c>
+      <c r="K60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I61" s="36"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I62" s="36"/>
+    </row>
+    <row r="63" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="21">
+        <f>SUM(B2:B3)</f>
+        <v>120</v>
+      </c>
+      <c r="D63" s="21">
+        <f>SUM(D2:D15)</f>
+        <v>833</v>
+      </c>
+      <c r="F63" s="21">
+        <f>SUM(F2:F20)</f>
+        <v>989</v>
+      </c>
+      <c r="H63" s="21">
+        <f>SUM(H2:H35)</f>
+        <v>1722</v>
+      </c>
+      <c r="J63" s="21">
+        <f>SUM(J2:J62)</f>
+        <v>1892</v>
+      </c>
+      <c r="L63" s="21">
+        <f>SUM(B63:J63)</f>
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="36">
+        <v>44984</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" s="36">
+        <v>45278</v>
+      </c>
+      <c r="D65">
+        <v>36</v>
+      </c>
+      <c r="E65" s="36">
+        <v>45041</v>
+      </c>
+      <c r="F65">
+        <v>36</v>
+      </c>
+      <c r="G65" s="36">
+        <v>45268</v>
+      </c>
+      <c r="H65">
+        <v>40</v>
+      </c>
+      <c r="K65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C66" s="36">
+        <v>44963</v>
+      </c>
+      <c r="D66">
+        <v>34</v>
+      </c>
+      <c r="E66" s="36">
+        <v>45159</v>
+      </c>
+      <c r="F66">
+        <v>34</v>
+      </c>
+      <c r="G66" s="36">
+        <v>44967</v>
+      </c>
+      <c r="H66">
+        <v>34</v>
+      </c>
+      <c r="K66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C67" s="36">
+        <v>45006</v>
+      </c>
+      <c r="D67">
+        <v>34</v>
+      </c>
+      <c r="E67" s="36">
+        <v>45287</v>
+      </c>
+      <c r="F67">
+        <v>36</v>
+      </c>
+      <c r="K67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E68" s="36">
+        <v>45108</v>
+      </c>
+      <c r="F68">
+        <v>36</v>
+      </c>
+      <c r="K68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E69" s="36">
+        <v>45010</v>
+      </c>
+      <c r="F69">
+        <v>36</v>
+      </c>
+      <c r="K69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E70" s="36">
+        <v>45074</v>
+      </c>
+      <c r="F70">
+        <v>36</v>
+      </c>
+      <c r="K70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E71" s="36">
+        <v>45213</v>
+      </c>
+      <c r="F71">
+        <v>36</v>
+      </c>
+      <c r="K71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E72" s="36">
+        <v>45183</v>
+      </c>
+      <c r="F72">
+        <v>34</v>
+      </c>
+      <c r="K72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E73" s="36"/>
+      <c r="G73" s="36">
+        <v>45221</v>
+      </c>
+      <c r="H73">
+        <v>36</v>
+      </c>
+      <c r="K73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G74" s="36">
+        <v>44936</v>
+      </c>
+      <c r="I74" s="36">
+        <v>45011</v>
+      </c>
+      <c r="J74">
+        <v>36</v>
+      </c>
+      <c r="K74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I75" s="36">
+        <v>44936</v>
+      </c>
+      <c r="J75">
+        <v>40</v>
+      </c>
+      <c r="K75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I76" s="36">
+        <v>44994</v>
+      </c>
+      <c r="J76">
+        <v>40</v>
+      </c>
+      <c r="K76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I77" s="36">
+        <v>45066</v>
+      </c>
+      <c r="J77">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="21">
+        <f>SUM(B65:B77)</f>
+        <v>6</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21">
+        <f>SUM(D65:D77)</f>
+        <v>104</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21">
+        <f>SUM(F65:F72)</f>
+        <v>284</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21">
+        <f>SUM(H65:H77)</f>
+        <v>110</v>
+      </c>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21">
+        <f>SUM(J64:J77)</f>
+        <v>132</v>
+      </c>
+      <c r="K78" s="21">
+        <f>SUM(B78:J78)</f>
+        <v>636</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/raw/life_cycle_data.xlsx
+++ b/data/raw/life_cycle_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/GitHub/saleos/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D3EE36-8087-0046-B906-A76096815136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0CB9D1-27C9-5946-AC6E-D6F928D4808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36560" yWindow="880" windowWidth="35760" windowHeight="25960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33040" yWindow="880" windowWidth="35760" windowHeight="25960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="177">
   <si>
     <t>Impact category UUID</t>
   </si>
@@ -568,24 +568,6 @@
     <t>Ariane 5</t>
   </si>
   <si>
-    <t>Ariane 6</t>
-  </si>
-  <si>
-    <t>Ariane 7</t>
-  </si>
-  <si>
-    <t>Ariane 8</t>
-  </si>
-  <si>
-    <t>Ariane 9</t>
-  </si>
-  <si>
-    <t>Ariane 10</t>
-  </si>
-  <si>
-    <t>Ariane 11</t>
-  </si>
-  <si>
     <t>Rocket</t>
   </si>
   <si>
@@ -600,8 +582,8 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -752,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -801,6 +783,11 @@
     <xf numFmtId="17" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,12 +800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -14521,7 +14502,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -14565,7 +14546,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
@@ -14608,7 +14589,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="5" t="s">
         <v>96</v>
       </c>
@@ -14682,7 +14663,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="51" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -14726,7 +14707,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
@@ -14769,7 +14750,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
@@ -14841,7 +14822,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="51" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -14877,7 +14858,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
@@ -14912,7 +14893,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="5" t="s">
         <v>96</v>
       </c>
@@ -14976,7 +14957,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="51" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -15019,7 +15000,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
@@ -15061,7 +15042,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="5" t="s">
         <v>96</v>
       </c>
@@ -15132,7 +15113,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="51" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -15168,7 +15149,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5" t="s">
         <v>95</v>
       </c>
@@ -15203,7 +15184,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="5" t="s">
         <v>96</v>
       </c>
@@ -16280,61 +16261,61 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D12">
-        <f>D3/54</f>
+        <f t="shared" ref="D12:J18" si="3">D3/54</f>
         <v>467816.80000000261</v>
       </c>
       <c r="E12">
-        <f>E3/54</f>
+        <f t="shared" si="3"/>
         <v>11018755.479632294</v>
       </c>
       <c r="F12">
-        <f>F3/54</f>
+        <f t="shared" si="3"/>
         <v>1616263.5572494173</v>
       </c>
       <c r="G12">
-        <f>G3/54</f>
+        <f t="shared" si="3"/>
         <v>4793267.4795996109</v>
       </c>
       <c r="H12">
-        <f>H3/54</f>
+        <f t="shared" si="3"/>
         <v>8984275.3361050114</v>
       </c>
       <c r="I12">
-        <f>I3/54</f>
+        <f t="shared" si="3"/>
         <v>11043.18682335895</v>
       </c>
       <c r="J12">
-        <f>J3/54</f>
+        <f t="shared" si="3"/>
         <v>5666556.7423715731</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D13" s="9">
-        <f>D4/54</f>
+        <f t="shared" si="3"/>
         <v>107643343.2</v>
       </c>
       <c r="E13" s="9">
-        <f>E4/54</f>
+        <f t="shared" si="3"/>
         <v>11018755.479632294</v>
       </c>
       <c r="F13" s="9">
-        <f>F4/54</f>
+        <f t="shared" si="3"/>
         <v>1616263.5572494173</v>
       </c>
       <c r="G13" s="9">
-        <f>G4/54</f>
+        <f t="shared" si="3"/>
         <v>4793267.4795996109</v>
       </c>
       <c r="H13" s="9">
-        <f>H4/54</f>
+        <f t="shared" si="3"/>
         <v>8984275.3361050114</v>
       </c>
       <c r="I13" s="9">
-        <f>I4/54</f>
+        <f t="shared" si="3"/>
         <v>11043.18682335895</v>
       </c>
       <c r="J13" s="9">
-        <f>J4/54</f>
+        <f t="shared" si="3"/>
         <v>5666556.7423715731</v>
       </c>
       <c r="K13" s="9"/>
@@ -16347,31 +16328,31 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D14" s="9">
-        <f>D5/54</f>
+        <f t="shared" si="3"/>
         <v>86728.6</v>
       </c>
       <c r="E14" s="9">
-        <f>E5/54</f>
+        <f t="shared" si="3"/>
         <v>0.74573505127734652</v>
       </c>
       <c r="F14" s="9">
-        <f>F5/54</f>
+        <f t="shared" si="3"/>
         <v>0.15657529619262275</v>
       </c>
       <c r="G14" s="9">
-        <f>G5/54</f>
+        <f t="shared" si="3"/>
         <v>0.22329274937454158</v>
       </c>
       <c r="H14" s="9">
-        <f>H5/54</f>
+        <f t="shared" si="3"/>
         <v>0.75392759599629455</v>
       </c>
       <c r="I14" s="9">
-        <f>I5/54</f>
+        <f t="shared" si="3"/>
         <v>1.8928006407470293E-3</v>
       </c>
       <c r="J14" s="9">
-        <f>J5/54</f>
+        <f t="shared" si="3"/>
         <v>0.7778704047126872</v>
       </c>
       <c r="K14" s="9"/>
@@ -16391,31 +16372,31 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D15">
-        <f>D6/54</f>
+        <f t="shared" si="3"/>
         <v>211083.6</v>
       </c>
       <c r="E15">
-        <f>E6/54</f>
+        <f t="shared" si="3"/>
         <v>0.74573505127734652</v>
       </c>
       <c r="F15">
-        <f>F6/54</f>
+        <f t="shared" si="3"/>
         <v>0.15657529619262275</v>
       </c>
       <c r="G15">
-        <f>G6/54</f>
+        <f t="shared" si="3"/>
         <v>0.22329274937454158</v>
       </c>
       <c r="H15">
-        <f>H6/54</f>
+        <f t="shared" si="3"/>
         <v>0.75392759599629455</v>
       </c>
       <c r="I15">
-        <f>I6/54</f>
+        <f t="shared" si="3"/>
         <v>1.8928006407470293E-3</v>
       </c>
       <c r="J15">
-        <f>J6/54</f>
+        <f t="shared" si="3"/>
         <v>0.7778704047126872</v>
       </c>
       <c r="R15" s="9"/>
@@ -16423,36 +16404,36 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="54"/>
+      <c r="W15" s="49"/>
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="22">
-        <f>D7/54</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E16" s="9">
-        <f>E7/54</f>
+        <f t="shared" si="3"/>
         <v>2719.7256868327318</v>
       </c>
       <c r="F16" s="9">
-        <f>F7/54</f>
+        <f t="shared" si="3"/>
         <v>15.65466434602483</v>
       </c>
       <c r="G16" s="9">
-        <f>G7/54</f>
+        <f t="shared" si="3"/>
         <v>34.596428111635966</v>
       </c>
       <c r="H16" s="9">
-        <f>H7/54</f>
+        <f t="shared" si="3"/>
         <v>510.20211806069682</v>
       </c>
       <c r="I16" s="9">
-        <f>I7/54</f>
+        <f t="shared" si="3"/>
         <v>0.19478691182100277</v>
       </c>
       <c r="J16" s="9">
-        <f>J7/54</f>
+        <f t="shared" si="3"/>
         <v>33.22600997996404</v>
       </c>
       <c r="L16" s="9"/>
@@ -16464,31 +16445,31 @@
     </row>
     <row r="17" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D17" s="22">
-        <f>D8/54</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E17" s="9">
-        <f>E8/54</f>
+        <f t="shared" si="3"/>
         <v>69735037.475485206</v>
       </c>
       <c r="F17" s="9">
-        <f>F8/54</f>
+        <f t="shared" si="3"/>
         <v>7701094.9926574994</v>
       </c>
       <c r="G17" s="9">
-        <f>G8/54</f>
+        <f t="shared" si="3"/>
         <v>17124098.336521085</v>
       </c>
       <c r="H17" s="9">
-        <f>H8/54</f>
+        <f t="shared" si="3"/>
         <v>61938424.028104655</v>
       </c>
       <c r="I17" s="9">
-        <f>I8/54</f>
+        <f t="shared" si="3"/>
         <v>17341.877787438436</v>
       </c>
       <c r="J17" s="9">
-        <f>J8/54</f>
+        <f t="shared" si="3"/>
         <v>18683396.815427154</v>
       </c>
       <c r="L17" s="9"/>
@@ -16502,36 +16483,36 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="50"/>
+      <c r="W17" s="46"/>
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D18" s="22">
-        <f>D9/54</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E18" s="9">
-        <f>E9/54</f>
+        <f t="shared" si="3"/>
         <v>4.5853853789451549</v>
       </c>
       <c r="F18" s="9">
-        <f>F9/54</f>
+        <f t="shared" si="3"/>
         <v>0.48623415113583118</v>
       </c>
       <c r="G18" s="9">
-        <f>G9/54</f>
+        <f t="shared" si="3"/>
         <v>1.520253794218255</v>
       </c>
       <c r="H18" s="9">
-        <f>H9/54</f>
+        <f t="shared" si="3"/>
         <v>4.1811083796708388</v>
       </c>
       <c r="I18" s="9">
-        <f>I9/54</f>
+        <f t="shared" si="3"/>
         <v>1.6539262753034992E-3</v>
       </c>
       <c r="J18" s="9">
-        <f>J9/54</f>
+        <f t="shared" si="3"/>
         <v>1.6958613678000689</v>
       </c>
       <c r="L18" s="9"/>
@@ -16554,7 +16535,7 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="54"/>
+      <c r="W19" s="49"/>
       <c r="X19" s="9"/>
     </row>
   </sheetData>
@@ -16566,7 +16547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2589047-AB2C-1546-BBBF-01D856EB5DFF}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="169" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="169" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -16586,25 +16567,25 @@
       <c r="A1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="48" t="s">
         <v>95</v>
       </c>
       <c r="I1" s="5"/>
@@ -16616,28 +16597,28 @@
       <c r="B2" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="48" t="s">
         <v>129</v>
       </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="17">
@@ -16663,7 +16644,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>144</v>
       </c>
       <c r="B4" s="30">
@@ -16689,7 +16670,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="30">
@@ -16715,7 +16696,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="30">
@@ -16741,7 +16722,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="30"/>
@@ -16765,7 +16746,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="30"/>
@@ -16789,7 +16770,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="30"/>
@@ -16816,25 +16797,25 @@
       <c r="A13" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="48" t="s">
         <v>96</v>
       </c>
     </row>
@@ -16845,27 +16826,27 @@
       <c r="B14" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="30">
@@ -16891,7 +16872,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="47" t="s">
         <v>144</v>
       </c>
       <c r="B16" s="30">
@@ -16917,7 +16898,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="30">
@@ -16943,7 +16924,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="47" t="s">
         <v>145</v>
       </c>
       <c r="B18" s="30">
@@ -16969,7 +16950,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="30">
@@ -16995,7 +16976,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="30">
@@ -17021,7 +17002,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="30">
@@ -17048,28 +17029,28 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>180</v>
+      <c r="C25" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -17079,27 +17060,27 @@
       <c r="B26" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="30">
@@ -17125,7 +17106,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="47" t="s">
         <v>144</v>
       </c>
       <c r="B28" s="30">
@@ -17151,7 +17132,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="30">
@@ -17177,14 +17158,14 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="47" t="s">
         <v>145</v>
       </c>
       <c r="B30" s="30">
         <v>211083.6</v>
       </c>
       <c r="C30" s="30">
-        <v>0.74573505127734652</v>
+        <v>0.74573505127734696</v>
       </c>
       <c r="D30" s="30">
         <v>0.15657529619262275</v>
@@ -17203,7 +17184,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="30">
@@ -17229,7 +17210,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="30">
@@ -17255,7 +17236,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="30">
@@ -17282,28 +17263,28 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="H37" s="55" t="s">
-        <v>182</v>
+        <v>175</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -17313,105 +17294,105 @@
       <c r="B38" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F38" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="53" t="s">
+      <c r="H38" s="48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="30">
-        <f>(B3+B15)/2</f>
+        <f t="shared" ref="B39:H40" si="0">(B3+B15)/2</f>
         <v>2201094.5083219334</v>
       </c>
       <c r="C39" s="30">
-        <f>(C3+C15)/2</f>
+        <f t="shared" si="0"/>
         <v>24396973.444164231</v>
       </c>
       <c r="D39" s="30">
-        <f>(D3+D15)/2</f>
+        <f t="shared" si="0"/>
         <v>1616263.5572494173</v>
       </c>
       <c r="E39" s="30">
-        <f>(E3+E15)/2</f>
+        <f t="shared" si="0"/>
         <v>2856831.7690197127</v>
       </c>
       <c r="F39" s="30">
-        <f>(F3+F15)/2</f>
+        <f t="shared" si="0"/>
         <v>4409160.7001475981</v>
       </c>
       <c r="G39" s="30">
-        <f>(G3+G15)/2</f>
+        <f t="shared" si="0"/>
         <v>10774.664359275106</v>
       </c>
       <c r="H39" s="30">
-        <f>(H3+H15)/2</f>
+        <f t="shared" si="0"/>
         <v>5666556.7423715731</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="47" t="s">
         <v>144</v>
       </c>
       <c r="B40" s="30">
-        <f>(B4+B16)/2</f>
+        <f t="shared" si="0"/>
         <v>19380198.062399998</v>
       </c>
       <c r="C40" s="30">
-        <f>(C4+C16)/2</f>
+        <f t="shared" si="0"/>
         <v>24396973.444164231</v>
       </c>
       <c r="D40" s="30">
-        <f>(D4+D16)/2</f>
+        <f t="shared" si="0"/>
         <v>1616263.5572494173</v>
       </c>
       <c r="E40" s="30">
-        <f>(E4+E16)/2</f>
+        <f t="shared" si="0"/>
         <v>2856831.7690197127</v>
       </c>
       <c r="F40" s="30">
-        <f>(F4+F16)/2</f>
+        <f t="shared" si="0"/>
         <v>4409160.7001475981</v>
       </c>
       <c r="G40" s="30">
-        <f>(G4+G16)/2</f>
+        <f t="shared" si="0"/>
         <v>10774.664359275106</v>
       </c>
       <c r="H40" s="30">
-        <f>(H4+H16)/2</f>
+        <f t="shared" si="0"/>
         <v>5666556.7423715731</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="30">
-        <f>(B5+B17)/2</f>
+        <f t="shared" ref="B41:D45" si="1">(B5+B17)/2</f>
         <v>4997.159999999998</v>
       </c>
       <c r="C41" s="30">
-        <f>(C5+C17)/2</f>
+        <f t="shared" si="1"/>
         <v>1.6946481217710185</v>
       </c>
       <c r="D41" s="30">
-        <f>(D5+D17)/2</f>
+        <f t="shared" si="1"/>
         <v>0.15657529619262275</v>
       </c>
       <c r="E41" s="30">
@@ -17419,32 +17400,32 @@
         <v>0.38508370116354562</v>
       </c>
       <c r="F41" s="30">
-        <f>(F5+F17)/2</f>
+        <f t="shared" ref="F41:H45" si="2">(F5+F17)/2</f>
         <v>0.39363580766057804</v>
       </c>
       <c r="G41" s="30">
-        <f>(G5+G17)/2</f>
+        <f t="shared" si="2"/>
         <v>2.4539175730043201E-3</v>
       </c>
       <c r="H41" s="30">
-        <f>(H5+H17)/2</f>
+        <f t="shared" si="2"/>
         <v>0.7778704047126872</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="47" t="s">
         <v>145</v>
       </c>
       <c r="B42" s="30">
-        <f>(B6+B18)/2</f>
+        <f t="shared" si="1"/>
         <v>22319.78</v>
       </c>
       <c r="C42" s="30">
-        <f>(C6+C18)/2</f>
+        <f t="shared" si="1"/>
         <v>1.6946481217710185</v>
       </c>
       <c r="D42" s="30">
-        <f>(D6+D18)/2</f>
+        <f t="shared" si="1"/>
         <v>0.15657529619262275</v>
       </c>
       <c r="E42" s="30">
@@ -17452,32 +17433,32 @@
         <v>0.32843673797657136</v>
       </c>
       <c r="F42" s="30">
-        <f>(F6+F18)/2</f>
+        <f t="shared" si="2"/>
         <v>0.39363580766057804</v>
       </c>
       <c r="G42" s="30">
-        <f>(G6+G18)/2</f>
+        <f t="shared" si="2"/>
         <v>2.4539175730043201E-3</v>
       </c>
       <c r="H42" s="30">
-        <f>(H6+H18)/2</f>
+        <f t="shared" si="2"/>
         <v>0.7778704047126872</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="30">
-        <f>(B7+B19)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C43" s="30">
-        <f>(C7+C19)/2</f>
+        <f t="shared" si="1"/>
         <v>7128.3728604070302</v>
       </c>
       <c r="D43" s="30">
-        <f>(D7+D19)/2</f>
+        <f t="shared" si="1"/>
         <v>15.65466434602483</v>
       </c>
       <c r="E43" s="30">
@@ -17485,32 +17466,32 @@
         <v>19.821441225857189</v>
       </c>
       <c r="F43" s="30">
-        <f>(F7+F19)/2</f>
+        <f t="shared" si="2"/>
         <v>218.76633154732593</v>
       </c>
       <c r="G43" s="30">
-        <f>(G7+G19)/2</f>
+        <f t="shared" si="2"/>
         <v>0.49768260735204506</v>
       </c>
       <c r="H43" s="30">
-        <f>(H7+H19)/2</f>
+        <f t="shared" si="2"/>
         <v>33.22600997996404</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="30">
-        <f>(B8+B20)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C44" s="30">
-        <f>(C8+C20)/2</f>
+        <f t="shared" si="1"/>
         <v>150478766.07236746</v>
       </c>
       <c r="D44" s="30">
-        <f>(D8+D20)/2</f>
+        <f t="shared" si="1"/>
         <v>7701094.9926574994</v>
       </c>
       <c r="E44" s="30">
@@ -17518,32 +17499,32 @@
         <v>9203497.1477247924</v>
       </c>
       <c r="F44" s="30">
-        <f>(F8+F20)/2</f>
+        <f t="shared" si="2"/>
         <v>29109377.01726234</v>
       </c>
       <c r="G44" s="30">
-        <f>(G8+G20)/2</f>
+        <f t="shared" si="2"/>
         <v>35251.421041728565</v>
       </c>
       <c r="H44" s="30">
-        <f>(H8+H20)/2</f>
+        <f t="shared" si="2"/>
         <v>18683396.815427154</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="30">
-        <f>(B9+B21)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C45" s="30">
-        <f>(C9+C21)/2</f>
+        <f t="shared" si="1"/>
         <v>10.325717478756323</v>
       </c>
       <c r="D45" s="30">
-        <f>(D9+D21)/2</f>
+        <f t="shared" si="1"/>
         <v>0.48623415113583118</v>
       </c>
       <c r="E45" s="30">
@@ -17551,15 +17532,15 @@
         <v>0.83006886200999752</v>
       </c>
       <c r="F45" s="30">
-        <f>(F9+F21)/2</f>
+        <f t="shared" si="2"/>
         <v>1.9157399112494287</v>
       </c>
       <c r="G45" s="30">
-        <f>(G9+G21)/2</f>
+        <f t="shared" si="2"/>
         <v>3.6735286724776926E-3</v>
       </c>
       <c r="H45" s="30">
-        <f>(H9+H21)/2</f>
+        <f t="shared" si="2"/>
         <v>1.6958613678000689</v>
       </c>
     </row>
@@ -18404,20 +18385,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -18771,22 +18752,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="49">
+      <c r="A1" s="54">
         <v>2019</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54">
         <v>2020</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54">
         <v>2021</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54">
         <v>2022</v>
       </c>
-      <c r="H1" s="49"/>
+      <c r="H1" s="54"/>
       <c r="J1">
         <v>2023</v>
       </c>

--- a/data/raw/life_cycle_data.xlsx
+++ b/data/raw/life_cycle_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/GitHub/saleos/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0CB9D1-27C9-5946-AC6E-D6F928D4808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6315E9-9668-B342-B7AC-DAE92B20FE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33040" yWindow="880" windowWidth="35760" windowHeight="25960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42140" yWindow="860" windowWidth="35760" windowHeight="25960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -800,6 +800,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9473,8 +9476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11196,80 +11199,80 @@
         <v>55659.512490115521</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="42">
+        <v>0</v>
+      </c>
+      <c r="F23" s="42">
         <v>69735037.475485206</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="42">
         <v>17124098.336521085</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="42">
         <v>17341.877787438436</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="42">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
         <v>20253601.637710914</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="42">
         <v>15292951.197525069</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="42">
         <v>47571.203415352677</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="O23" s="42">
+        <v>0</v>
+      </c>
+      <c r="P23" s="42">
         <v>280703930.50702399</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="42">
         <v>3114043.0979245142</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="42">
         <v>22931.638668104453</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="42">
         <v>26153.098235103258</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="42">
         <v>47.246022857813202</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="42">
         <v>5.9848170842292383</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="42">
         <v>22.905049463831471</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="42">
         <v>7701094.9926574994</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="42">
         <v>18683396.815427154</v>
       </c>
     </row>
@@ -11514,7 +11517,7 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:J1"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15247,7 +15250,7 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="D12:J18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16547,8 +16550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2589047-AB2C-1546-BBBF-01D856EB5DFF}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="169" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="169" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17131,107 +17134,107 @@
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="56">
         <v>86728.6</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="56">
         <v>0.74573505127734652</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="56">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="56">
         <v>0.22329274937454158</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="56">
         <v>0.75392759599629455</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="56">
         <v>1.8928006407470293E-3</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="56">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+    <row r="30" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="56">
         <v>211083.6</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="56">
         <v>0.74573505127734696</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="56">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="56">
         <v>0.22329274937454158</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="56">
         <v>0.75392759599629455</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="56">
         <v>1.8928006407470293E-3</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="56">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="30">
-        <v>0</v>
-      </c>
-      <c r="C31" s="30">
+      <c r="B31" s="56">
+        <v>0</v>
+      </c>
+      <c r="C31" s="56">
         <v>2719.7256868327318</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="56">
         <v>15.65466434602483</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="56">
         <v>34.596428111635966</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="56">
         <v>510.20211806069682</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="56">
         <v>0.19478691182100277</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="56">
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="30">
-        <v>0</v>
-      </c>
-      <c r="C32" s="30">
+      <c r="B32" s="56">
+        <v>0</v>
+      </c>
+      <c r="C32" s="56">
         <v>69735037.475485206</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="56">
         <v>7701094.9926574994</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="56">
         <v>17124098.336521085</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="56">
         <v>61938424.028104655</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="56">
         <v>17341.877787438436</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="56">
         <v>18683396.815427154</v>
       </c>
     </row>
@@ -17396,8 +17399,8 @@
         <v>0.15657529619262275</v>
       </c>
       <c r="E41" s="30">
-        <f>(E5+E29)/2</f>
-        <v>0.38508370116354562</v>
+        <f>(E5+E17)/2</f>
+        <v>0.32843673797657136</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" ref="F41:H45" si="2">(F5+F17)/2</f>

--- a/data/raw/life_cycle_data.xlsx
+++ b/data/raw/life_cycle_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6315E9-9668-B342-B7AC-DAE92B20FE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2313018-F505-A44D-8366-2C2981F6116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42140" yWindow="860" windowWidth="35760" windowHeight="25960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42360" yWindow="780" windowWidth="35000" windowHeight="25960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -578,14 +578,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +646,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -788,6 +796,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,9 +811,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9477,7 +9485,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9485,11 +9493,11 @@
     <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
@@ -9762,11 +9770,11 @@
       <c r="H4">
         <v>11043.18682335895</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="53">
         <f>J4-11330184-10900418.4-3867890.4</f>
         <v>630466.13519999431</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="53">
         <v>26728958.935199995</v>
       </c>
       <c r="K4">
@@ -11199,80 +11207,80 @@
         <v>55659.512490115521</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="42">
-        <v>0</v>
-      </c>
-      <c r="F23" s="42">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>69735037.475485206</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23">
         <v>17124098.336521085</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23">
         <v>17341.877787438436</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="42">
-        <v>0</v>
-      </c>
-      <c r="K23" s="42">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>20253601.637710914</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23">
         <v>15292951.197525069</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23">
         <v>47571.203415352677</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="42">
-        <v>0</v>
-      </c>
-      <c r="P23" s="42">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>280703930.50702399</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23">
         <v>3114043.0979245142</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23">
         <v>22931.638668104453</v>
       </c>
-      <c r="S23" s="42">
+      <c r="S23">
         <v>26153.098235103258</v>
       </c>
-      <c r="T23" s="42">
+      <c r="T23">
         <v>47.246022857813202</v>
       </c>
-      <c r="U23" s="42">
+      <c r="U23">
         <v>5.9848170842292383</v>
       </c>
-      <c r="V23" s="42">
+      <c r="V23">
         <v>22.905049463831471</v>
       </c>
-      <c r="W23" s="42">
+      <c r="W23">
         <v>7701094.9926574994</v>
       </c>
-      <c r="X23" s="42">
+      <c r="X23">
         <v>18683396.815427154</v>
       </c>
     </row>
@@ -11509,15 +11517,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14443,6 +14452,12 @@
         <v>1.3853653207842724</v>
       </c>
     </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <f>K5/74</f>
+        <v>26728958.935199995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14505,7 +14520,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -14549,7 +14564,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
@@ -14592,7 +14607,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="5" t="s">
         <v>96</v>
       </c>
@@ -14666,7 +14681,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -14710,7 +14725,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
@@ -14753,7 +14768,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
@@ -14825,7 +14840,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -14861,7 +14876,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
@@ -14896,7 +14911,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="5" t="s">
         <v>96</v>
       </c>
@@ -14960,7 +14975,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="54" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -15003,7 +15018,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
@@ -15045,7 +15060,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="5" t="s">
         <v>96</v>
       </c>
@@ -15116,7 +15131,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="54" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -15152,7 +15167,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="5" t="s">
         <v>95</v>
       </c>
@@ -15187,7 +15202,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="5" t="s">
         <v>96</v>
       </c>
@@ -15250,7 +15265,7 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J18" sqref="D12:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16550,14 +16565,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2589047-AB2C-1546-BBBF-01D856EB5DFF}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="169" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="169" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
@@ -16624,8 +16639,8 @@
       <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17">
-        <v>4113533.9070438663</v>
+      <c r="B3" s="51">
+        <v>630466.13520000002</v>
       </c>
       <c r="C3" s="30">
         <v>4113533.9070438663</v>
@@ -16777,7 +16792,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="30"/>
-      <c r="C9" s="30">
+      <c r="C9" s="52">
         <v>1.5153080599897464</v>
       </c>
       <c r="D9" s="30">
@@ -17134,107 +17149,107 @@
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="30">
         <v>86728.6</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="30">
         <v>0.74573505127734652</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="30">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="30">
         <v>0.22329274937454158</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="30">
         <v>0.75392759599629455</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="30">
         <v>1.8928006407470293E-3</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="30">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="30">
         <v>211083.6</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="30">
         <v>0.74573505127734696</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="30">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="30">
         <v>0.22329274937454158</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="30">
         <v>0.75392759599629455</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="30">
         <v>1.8928006407470293E-3</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="30">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="56">
-        <v>0</v>
-      </c>
-      <c r="C31" s="56">
+      <c r="B31" s="30">
+        <v>0</v>
+      </c>
+      <c r="C31" s="30">
         <v>2719.7256868327318</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="30">
         <v>15.65466434602483</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="30">
         <v>34.596428111635966</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="30">
         <v>510.20211806069682</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="30">
         <v>0.19478691182100277</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="30">
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="56">
-        <v>0</v>
-      </c>
-      <c r="C32" s="56">
+      <c r="B32" s="30">
+        <v>0</v>
+      </c>
+      <c r="C32" s="30">
         <v>69735037.475485206</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="30">
         <v>7701094.9926574994</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="30">
         <v>17124098.336521085</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="30">
         <v>61938424.028104655</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="30">
         <v>17341.877787438436</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="30">
         <v>18683396.815427154</v>
       </c>
     </row>
@@ -17322,7 +17337,7 @@
       </c>
       <c r="B39" s="30">
         <f t="shared" ref="B39:H40" si="0">(B3+B15)/2</f>
-        <v>2201094.5083219334</v>
+        <v>459560.62240000005</v>
       </c>
       <c r="C39" s="30">
         <f t="shared" si="0"/>
@@ -18388,20 +18403,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -18755,22 +18770,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="54">
+      <c r="A1" s="57">
         <v>2019</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57">
         <v>2020</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57">
         <v>2021</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57">
         <v>2022</v>
       </c>
-      <c r="H1" s="54"/>
+      <c r="H1" s="57"/>
       <c r="J1">
         <v>2023</v>
       </c>

--- a/data/raw/life_cycle_data.xlsx
+++ b/data/raw/life_cycle_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2313018-F505-A44D-8366-2C2981F6116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29CBEB1-4F2F-495C-905C-3942B5795C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42360" yWindow="780" windowWidth="35000" windowHeight="25960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -752,7 +752,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -798,7 +797,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,6 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9484,39 +9483,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="54.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>26479.613010181864</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9744,84 +9743,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:24" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f>E4-73502240-21471840-12201446.4</f>
         <v>467816.80000000261</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>107643343.2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>11018755.479632294</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>4793267.4795996109</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>11043.18682335895</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="56">
         <f>J4-11330184-10900418.4-3867890.4</f>
         <v>630466.13519999431</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="56">
         <v>26728958.935199995</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>4113533.9070438663</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>4744753.3386012306</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>17220.724910639186</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <f>O4-5064495.04-4901963.04-1776324</f>
         <v>288655.10960000008</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>12031437.1896</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>44680412.981284596</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>968910.19943819474</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>4328.6038079110258</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>3010.0417356509301</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>8.1785312771686876</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>5.2770303864775068</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>5.7891776486982183</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <v>1616263.5572494173</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9898,7 +9897,7 @@
         <v>3340.0507369887155</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9975,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10052,7 +10051,7 @@
         <v>-5879755.1550195301</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>135834545.36514488</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -10206,7 +10205,7 @@
         <v>4266.6176385415683</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>5314.5705902229456</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>3716643.0167293628</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -10437,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -10668,7 +10667,7 @@
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -10745,7 +10744,7 @@
         <v>7995.7318478159505</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -10822,7 +10821,7 @@
         <v>14499.459904160849</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -10899,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>81359612.470782876</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -11207,7 +11206,7 @@
         <v>55659.512490115521</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>8025510500.6247005</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -11529,37 +11528,37 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.6640625" customWidth="1"/>
-    <col min="21" max="21" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11569,80 +11568,80 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11715,17 +11714,17 @@
       <c r="X2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>5603052.8998623258</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11939,7 +11938,7 @@
         <v>218297.2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -12037,7 +12036,7 @@
         <f>SUM(D5:J5)</f>
         <v>7545609269.0161886</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="9">
         <f t="shared" si="1"/>
         <v>3587688581.0410113</v>
       </c>
@@ -12045,12 +12044,12 @@
         <f t="shared" si="2"/>
         <v>1363824795.1449556</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="8">
         <f>AA5/1000000000</f>
         <v>3.5876885810410113</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -12157,7 +12156,7 @@
         <v>970241.10715785658</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>685000</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>-724629682.26727211</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12478,7 +12477,7 @@
         <v>19591026625.000957</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -12585,7 +12584,7 @@
         <v>622340.45053803571</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -12692,7 +12691,7 @@
         <v>1200157.687738826</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -12799,7 +12798,7 @@
         <v>284503183.97836286</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -13013,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -13120,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -13227,7 +13226,7 @@
         <v>277533.9090081093</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -13334,7 +13333,7 @@
         <v>2968658.2702427674</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>4055763.7126770243</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -13548,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -13655,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>12998375123.27142</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -13869,7 +13868,7 @@
         <v>253778.79438827973</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -13976,7 +13975,7 @@
         <v>312871574.43354261</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -14083,7 +14082,7 @@
         <v>6629902747.9261084</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -14297,7 +14296,7 @@
         <v>2909455165589.1377</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>8023222710.5628309</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28">
       <c r="Z28" s="5">
         <f>SUM(Z3:Z27)</f>
         <v>3739627385395.8403</v>
@@ -14418,7 +14417,7 @@
         <v>2957951117951.2559</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28">
       <c r="L30" t="s">
         <v>137</v>
       </c>
@@ -14426,7 +14425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28">
       <c r="K31" t="s">
         <v>140</v>
       </c>
@@ -14439,7 +14438,7 @@
         <v>23073540.183070235</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28">
       <c r="K32" t="s">
         <v>139</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>1.3853653207842724</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:11">
       <c r="K34">
         <f>K5/74</f>
         <v>26728958.935199995</v>
@@ -14469,25 +14468,26 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="5"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="5"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="C1" s="5" t="s">
         <v>124</v>
       </c>
@@ -14519,8 +14519,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="52" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -14555,16 +14555,16 @@
         <f>SUM(C2:J2)</f>
         <v>7545609269.0161886</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="26">
         <v>57900000000000</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <f>L2/M2</f>
         <v>1.3032140360995145E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="52"/>
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
@@ -14598,16 +14598,16 @@
         <f t="shared" ref="L3:L24" si="0">SUM(C3:J3)</f>
         <v>3345485027.7175756</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="26">
         <v>57900000000000</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <f t="shared" ref="N3:N4" si="1">L3/M3</f>
         <v>5.778039771532946E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+    <row r="4" spans="1:14">
+      <c r="A4" s="52"/>
       <c r="B4" s="5" t="s">
         <v>96</v>
       </c>
@@ -14640,20 +14640,21 @@
         <f t="shared" si="0"/>
         <v>1363824795.1449554</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="26">
         <v>57900000000000</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f t="shared" si="1"/>
         <v>2.3554832385923238E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="6"/>
       <c r="H5" s="2"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M5" s="26"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="C6" s="5" t="s">
         <v>124</v>
       </c>
@@ -14678,10 +14679,11 @@
       <c r="J6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="52" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -14716,16 +14718,16 @@
         <f t="shared" si="0"/>
         <v>11398658.001870502</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="26">
         <v>161000000</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f>L7/M7</f>
         <v>7.0799118024040389E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+    <row r="8" spans="1:14">
+      <c r="A8" s="52"/>
       <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
@@ -14759,16 +14761,16 @@
         <f t="shared" si="0"/>
         <v>2276923.2036242643</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="26">
         <v>161000000</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" ref="N8:N9" si="2">L8/M8</f>
         <v>1.4142380146734562E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="52"/>
       <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
@@ -14801,19 +14803,20 @@
         <f t="shared" si="0"/>
         <v>277533.90900810924</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="26">
         <v>161000000</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" si="2"/>
         <v>1.72381309942925E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="6"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11" s="5" t="s">
         <v>124</v>
       </c>
@@ -14838,9 +14841,10 @@
       <c r="J11" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="52" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -14874,9 +14878,10 @@
         <f t="shared" si="0"/>
         <v>178934.38348911522</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="52"/>
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
@@ -14909,9 +14914,10 @@
         <f t="shared" si="0"/>
         <v>210446.89104714966</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="52"/>
       <c r="B14" s="5" t="s">
         <v>96</v>
       </c>
@@ -14943,12 +14949,14 @@
         <f t="shared" si="0"/>
         <v>253778.79438827973</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="6"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="C16" s="5" t="s">
         <v>124</v>
       </c>
@@ -14973,9 +14981,10 @@
       <c r="J16" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="52" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -15009,16 +15018,16 @@
         <f t="shared" si="0"/>
         <v>9460767250.4030838</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="26">
         <v>81500000000000</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <f>L17/M17</f>
         <v>1.160830337472771E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+    <row r="18" spans="1:14">
+      <c r="A18" s="52"/>
       <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
@@ -15051,16 +15060,16 @@
         <f t="shared" si="0"/>
         <v>6636461893.3586922</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="26">
         <v>81500000000000</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f t="shared" ref="N18:N19" si="3">L18/M18</f>
         <v>8.142898028660972E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+    <row r="19" spans="1:14">
+      <c r="A19" s="52"/>
       <c r="B19" s="5" t="s">
         <v>96</v>
       </c>
@@ -15092,19 +15101,19 @@
         <f t="shared" si="0"/>
         <v>6629902747.9261084</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="26">
         <v>81500000000000</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <f t="shared" si="3"/>
         <v>8.1348499974553479E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="6"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="C21" s="5" t="s">
         <v>124</v>
       </c>
@@ -15130,8 +15139,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="52" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -15166,8 +15175,8 @@
         <v>673.40683789445438</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
+    <row r="23" spans="1:14">
+      <c r="A23" s="52"/>
       <c r="B23" s="5" t="s">
         <v>95</v>
       </c>
@@ -15201,8 +15210,8 @@
         <v>490.83784818779668</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+    <row r="24" spans="1:14">
+      <c r="A24" s="52"/>
       <c r="B24" s="5" t="s">
         <v>96</v>
       </c>
@@ -15235,7 +15244,7 @@
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="E26" s="3">
         <v>7545609269.0161886</v>
       </c>
@@ -15268,1016 +15277,1016 @@
       <selection activeCell="J18" sqref="D12:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" customWidth="1"/>
+    <col min="22" max="22" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="17" t="str">
+      <c r="C1" s="16" t="str">
         <f>Results!C1</f>
         <v>Reference unit</v>
       </c>
-      <c r="D1" s="17" t="str">
+      <c r="D1" s="16" t="str">
         <f>Results!D1</f>
         <v>Kuiper</v>
       </c>
-      <c r="E1" s="17" t="str">
+      <c r="E1" s="16" t="str">
         <f>Results!E1</f>
         <v>Kuiper</v>
       </c>
-      <c r="F1" s="17" t="str">
+      <c r="F1" s="16" t="str">
         <f>Results!F1</f>
         <v>Kuiper</v>
       </c>
-      <c r="G1" s="17" t="str">
+      <c r="G1" s="16" t="str">
         <f>Results!G1</f>
         <v>Kuiper</v>
       </c>
-      <c r="H1" s="17" t="str">
+      <c r="H1" s="16" t="str">
         <f>Results!H1</f>
         <v>Kuiper</v>
       </c>
-      <c r="I1" s="17" t="str">
+      <c r="I1" s="16" t="str">
         <f>Results!I1</f>
         <v>Kuiper</v>
       </c>
-      <c r="J1" s="17" t="str">
+      <c r="J1" s="16" t="str">
         <f>Results!J1</f>
         <v>Kuiper</v>
       </c>
-      <c r="K1" s="17" t="str">
+      <c r="K1" s="16" t="str">
         <f>Results!K1</f>
         <v>Starlink</v>
       </c>
-      <c r="L1" s="17" t="str">
+      <c r="L1" s="16" t="str">
         <f>Results!L1</f>
         <v>Starlink</v>
       </c>
-      <c r="M1" s="17" t="str">
+      <c r="M1" s="16" t="str">
         <f>Results!M1</f>
         <v>Starlink</v>
       </c>
-      <c r="N1" s="17" t="str">
+      <c r="N1" s="16" t="str">
         <f>Results!N1</f>
         <v>Starlink</v>
       </c>
-      <c r="O1" s="17" t="str">
+      <c r="O1" s="16" t="str">
         <f>Results!O1</f>
         <v>Starlink</v>
       </c>
-      <c r="P1" s="17" t="str">
+      <c r="P1" s="16" t="str">
         <f>Results!P1</f>
         <v>Starlink</v>
       </c>
-      <c r="Q1" s="17" t="str">
+      <c r="Q1" s="16" t="str">
         <f>Results!Q1</f>
         <v>Starlink</v>
       </c>
-      <c r="R1" s="17" t="str">
+      <c r="R1" s="16" t="str">
         <f>Results!R1</f>
         <v>OneWeb</v>
       </c>
-      <c r="S1" s="17" t="str">
+      <c r="S1" s="16" t="str">
         <f>Results!S1</f>
         <v>OneWeb</v>
       </c>
-      <c r="T1" s="17" t="str">
+      <c r="T1" s="16" t="str">
         <f>Results!T1</f>
         <v>OneWeb</v>
       </c>
-      <c r="U1" s="17" t="str">
+      <c r="U1" s="16" t="str">
         <f>Results!U1</f>
         <v>OneWeb</v>
       </c>
-      <c r="V1" s="17" t="str">
+      <c r="V1" s="16" t="str">
         <f>Results!V1</f>
         <v>OneWeb</v>
       </c>
-      <c r="W1" s="17" t="str">
+      <c r="W1" s="16" t="str">
         <f>Results!W1</f>
         <v>OneWeb</v>
       </c>
-      <c r="X1" s="17" t="str">
+      <c r="X1" s="16" t="str">
         <f>Results!X1</f>
         <v>OneWeb</v>
       </c>
-      <c r="Y1" s="17" t="str">
+      <c r="Y1" s="16" t="str">
         <f>Results!Z1</f>
         <v>TOTAL Kupier</v>
       </c>
-      <c r="Z1" s="17" t="str">
+      <c r="Z1" s="16" t="str">
         <f>Results!AA1</f>
         <v>TOTAL Starlink</v>
       </c>
-      <c r="AA1" s="17" t="str">
+      <c r="AA1" s="16" t="str">
         <f>Results!AB1</f>
         <v>TOTAL OneWeb</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="str">
+    <row r="2" spans="1:27">
+      <c r="A2" s="16" t="str">
         <f>Results!A2</f>
         <v>Impact category UUID</v>
       </c>
-      <c r="B2" s="17" t="str">
+      <c r="B2" s="16" t="str">
         <f>Results!B2</f>
         <v>Impact category</v>
       </c>
-      <c r="C2" s="17" t="str">
+      <c r="C2" s="16" t="str">
         <f>Results!C2</f>
         <v>Reference unit</v>
       </c>
-      <c r="D2" s="17" t="str">
+      <c r="D2" s="16" t="str">
         <f>Results!D2</f>
         <v>Ariane 5 Launches</v>
       </c>
-      <c r="E2" s="17" t="str">
+      <c r="E2" s="16" t="str">
         <f>Results!E2</f>
         <v>Ariane 5 Production</v>
       </c>
-      <c r="F2" s="17" t="str">
+      <c r="F2" s="16" t="str">
         <f>Results!F2</f>
         <v>Ariane 5 AIT</v>
       </c>
-      <c r="G2" s="17" t="str">
+      <c r="G2" s="16" t="str">
         <f>Results!G2</f>
         <v>Ariane 5 Propellant Production</v>
       </c>
-      <c r="H2" s="17" t="str">
+      <c r="H2" s="16" t="str">
         <f>Results!H2</f>
         <v>SCHD of Ariane 5 Propellant</v>
       </c>
-      <c r="I2" s="17" t="str">
+      <c r="I2" s="16" t="str">
         <f>Results!I2</f>
         <v>Transportation of Ariane 5</v>
       </c>
-      <c r="J2" s="17" t="str">
+      <c r="J2" s="16" t="str">
         <f>Results!J2</f>
         <v>Ariane 5 Launch Campaign</v>
       </c>
-      <c r="K2" s="17" t="str">
+      <c r="K2" s="16" t="str">
         <f>Results!K2</f>
         <v>Falcon 9 Launches</v>
       </c>
-      <c r="L2" s="17" t="str">
+      <c r="L2" s="16" t="str">
         <f>Results!L2</f>
         <v>Falcon 9 Production</v>
       </c>
-      <c r="M2" s="17" t="str">
+      <c r="M2" s="16" t="str">
         <f>Results!M2</f>
         <v>Falcon 9 AIT</v>
       </c>
-      <c r="N2" s="17" t="str">
+      <c r="N2" s="16" t="str">
         <f>Results!N2</f>
         <v>Falcon 9 Propellant Production</v>
       </c>
-      <c r="O2" s="17" t="str">
+      <c r="O2" s="16" t="str">
         <f>Results!O2</f>
         <v>SCHD of Falcon 9 Propellant</v>
       </c>
-      <c r="P2" s="17" t="str">
+      <c r="P2" s="16" t="str">
         <f>Results!P2</f>
         <v>Transportation of Falcon 9 by truck</v>
       </c>
-      <c r="Q2" s="17" t="str">
+      <c r="Q2" s="16" t="str">
         <f>Results!Q2</f>
         <v>Falcon 9 Launch Campaign</v>
       </c>
-      <c r="R2" s="17" t="str">
+      <c r="R2" s="16" t="str">
         <f>Results!R2</f>
         <v>Soyuz-FG Launches</v>
       </c>
-      <c r="S2" s="17" t="str">
+      <c r="S2" s="16" t="str">
         <f>Results!S2</f>
         <v>Soyuz-FG Production</v>
       </c>
-      <c r="T2" s="17" t="str">
+      <c r="T2" s="16" t="str">
         <f>Results!T2</f>
         <v>Soyuz-FG AIT</v>
       </c>
-      <c r="U2" s="17" t="str">
+      <c r="U2" s="16" t="str">
         <f>Results!U2</f>
         <v>Soyuz-FG Propellant Production</v>
       </c>
-      <c r="V2" s="17" t="str">
+      <c r="V2" s="16" t="str">
         <f>Results!V2</f>
         <v>SCHD of Soyuz-FG Propellant</v>
       </c>
-      <c r="W2" s="17" t="str">
+      <c r="W2" s="16" t="str">
         <f>Results!W2</f>
         <v>Transportation of Soyuz-FG by train</v>
       </c>
-      <c r="X2" s="17" t="str">
+      <c r="X2" s="16" t="str">
         <f>Results!X2</f>
         <v>Soyuz-FG Launch Campaign</v>
       </c>
-      <c r="Y2" s="17" t="str">
+      <c r="Y2" s="16" t="str">
         <f>Results!Z2</f>
         <v>TOTAL Kupier</v>
       </c>
-      <c r="Z2" s="17" t="str">
+      <c r="Z2" s="16" t="str">
         <f>Results!AA2</f>
         <v>TOTAL Starlink</v>
       </c>
-      <c r="AA2" s="17" t="str">
+      <c r="AA2" s="16" t="str">
         <f>Results!AB2</f>
         <v>TOTAL OneWeb</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="str">
+    <row r="3" spans="1:27" s="20" customFormat="1">
+      <c r="A3" s="22" t="str">
         <f>Results!A5</f>
         <v>305e2dd5-defb-4d89-8d38-d54a8ad9cdda</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="22" t="str">
         <f>Results!C5</f>
         <v>kg CO2 eq</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <f>Inventory!D4*54</f>
         <v>25262107.200000141</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <f>Results!E5</f>
         <v>595012795.90014386</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <f>Results!F5</f>
         <v>87278232.091468528</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f>Results!G5</f>
         <v>258836443.898379</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <f>Results!H5</f>
         <v>485150868.1496706</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <f>Results!I5</f>
         <v>596332.08846138336</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <f>Results!J5</f>
         <v>305994064.08806497</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <f>Inventory!K4*74</f>
         <v>304401509.1212461</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <f>Results!L5</f>
         <v>304401509.1212461</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="22">
         <f>Results!M5</f>
         <v>119603503.23645689</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="22">
         <f>Results!N5</f>
         <v>351111747.05649108</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="22">
         <f>Results!O5</f>
         <v>414029327.84313387</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="22">
         <f>Results!P5</f>
         <v>1274333.6433872997</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="22">
         <f>Results!Q5</f>
         <v>419325198.93549639</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="22">
         <f>Inventory!N4*20</f>
         <v>5773102.1920000017</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="22">
         <f>Results!S5</f>
         <v>893608259.62569189</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="22">
         <f>Results!T5</f>
         <v>32325271.144988347</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="22">
         <f>Results!U5</f>
         <v>19378203.988763895</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="22">
         <f>Results!V5</f>
         <v>64466609.669921778</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="22">
         <f>Results!W5</f>
         <v>86572.076158220516</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="22">
         <f>Results!X5</f>
         <v>113331134.84743147</v>
       </c>
-      <c r="Y3" s="24">
+      <c r="Y3" s="23">
         <f t="shared" ref="Y3:Y9" si="0">SUM(D3:J3)</f>
         <v>1758130843.4161885</v>
       </c>
-      <c r="Z3" s="24">
+      <c r="Z3" s="23">
         <f t="shared" ref="Z3:Z9" si="1">SUM(K3:Q3)</f>
         <v>1914147128.9574578</v>
       </c>
-      <c r="AA3" s="24">
+      <c r="AA3" s="23">
         <f t="shared" ref="AA3:AA9" si="2">SUM(R3:X3)</f>
         <v>1128969153.5449555</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="str">
+    <row r="4" spans="1:27" s="20" customFormat="1">
+      <c r="A4" s="22" t="str">
         <f>Results!A5</f>
         <v>305e2dd5-defb-4d89-8d38-d54a8ad9cdda</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="23" t="str">
+      <c r="C4" s="22" t="str">
         <f>Results!C5</f>
         <v>kg CO2 eq</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <f>Results!D5</f>
         <v>5812740532.8000002</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <f>Results!E5</f>
         <v>595012795.90014386</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <f>Results!F5</f>
         <v>87278232.091468528</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <f>Results!G5</f>
         <v>258836443.898379</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <f>Results!H5</f>
         <v>485150868.1496706</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <f>Results!I5</f>
         <v>596332.08846138336</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <f>Results!J5</f>
         <v>305994064.08806497</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <f>Results!K5</f>
         <v>1977942961.2047997</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <f>Results!L5</f>
         <v>304401509.1212461</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <f>Results!M5</f>
         <v>119603503.23645689</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="24">
         <f>Results!N5</f>
         <v>351111747.05649108</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <f>Results!O5</f>
         <v>414029327.84313387</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="24">
         <f>Results!P5</f>
         <v>1274333.6433872997</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="24">
         <f>Results!Q5</f>
         <v>419325198.93549639</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="24">
         <f>Results!R5</f>
         <v>240628743.792</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="24">
         <f>Results!S5</f>
         <v>893608259.62569189</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="24">
         <f>Results!T5</f>
         <v>32325271.144988347</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="24">
         <f>Results!U5</f>
         <v>19378203.988763895</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="24">
         <f>Results!V5</f>
         <v>64466609.669921778</v>
       </c>
-      <c r="W4" s="25">
+      <c r="W4" s="24">
         <f>Results!W5</f>
         <v>86572.076158220516</v>
       </c>
-      <c r="X4" s="25">
+      <c r="X4" s="24">
         <f>Results!X5</f>
         <v>113331134.84743147</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Y4" s="23">
         <f t="shared" si="0"/>
         <v>7545609269.0161886</v>
       </c>
-      <c r="Z4" s="24">
+      <c r="Z4" s="23">
         <f t="shared" si="1"/>
         <v>3587688581.0410113</v>
       </c>
-      <c r="AA4" s="24">
+      <c r="AA4" s="23">
         <f t="shared" si="2"/>
         <v>1363824795.1449556</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="str">
+    <row r="5" spans="1:27" s="20" customFormat="1">
+      <c r="A5" s="22" t="str">
         <f>Results!A16</f>
         <v>5d5095a7-65cc-4657-8f3a-bd1c64f77b2b</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="23" t="str">
+      <c r="C5" s="22" t="str">
         <f>Results!C16</f>
         <v>kg CFC-11 eq</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <f>Inventory!D15*54</f>
         <v>4683344.4000000004</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <f>Results!E16</f>
         <v>40.269692768976711</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f>Results!F16</f>
         <v>8.4550659944016289</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <f>Results!G16</f>
         <v>12.057808466225245</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <f>Results!H16</f>
         <v>40.712090183799909</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f>Results!I16</f>
         <v>0.10221123460033958</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f>Results!J16</f>
         <v>42.005001854485108</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <f>Inventory!I15*74</f>
         <v>505951.31999999977</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f>Results!L16</f>
         <v>20.533410038395193</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <f>Results!M16</f>
         <v>11.586571918254084</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <f>Results!N16</f>
         <v>40.468724318488675</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="24">
         <f>Results!O16</f>
         <v>36.957303083202042</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="24">
         <f>Results!P16</f>
         <v>0.26405299983326103</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="24">
         <f>Results!Q16</f>
         <v>57.562409948738853</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="24">
         <f>Inventory!N15*20</f>
         <v>63142.799999999996</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="24">
         <f>Results!S16</f>
         <v>62.2363545901934</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="24">
         <f>Results!T16</f>
         <v>3.1315059238524552</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="24">
         <f>Results!U16</f>
         <v>2.1999764600118605</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="24">
         <f>Results!V16</f>
         <v>5.7569720136658127</v>
       </c>
-      <c r="W5" s="25">
+      <c r="W5" s="24">
         <f>Results!W16</f>
         <v>2.679102728956171E-2</v>
       </c>
-      <c r="X5" s="25">
+      <c r="X5" s="24">
         <f>Results!X16</f>
         <v>15.557408094253745</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="23">
         <f t="shared" si="0"/>
         <v>4683488.0018705027</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="Z5" s="23">
         <f t="shared" si="1"/>
         <v>506118.69247230672</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="23">
         <f t="shared" si="2"/>
         <v>63231.709008109261</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="str">
+    <row r="6" spans="1:27" s="20" customFormat="1">
+      <c r="A6" s="22" t="str">
         <f>Results!A16</f>
         <v>5d5095a7-65cc-4657-8f3a-bd1c64f77b2b</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="23" t="str">
+      <c r="C6" s="22" t="str">
         <f>Results!C16</f>
         <v>kg CFC-11 eq</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <f>Inventory!E15*54</f>
         <v>11398514.4</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f>Results!E16</f>
         <v>40.269692768976711</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <f>Results!F16</f>
         <v>8.4550659944016289</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <f>Results!G16</f>
         <v>12.057808466225245</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <f>Results!H16</f>
         <v>40.712090183799909</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <f>Results!I16</f>
         <v>0.10221123460033958</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <f>Results!J16</f>
         <v>42.005001854485108</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <f>Inventory!J15*74</f>
         <v>2276780.94</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <f>Results!L16</f>
         <v>20.533410038395193</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="22">
         <f>Results!M16</f>
         <v>11.586571918254084</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="22">
         <f>Results!N16</f>
         <v>40.468724318488675</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="22">
         <f>Results!O16</f>
         <v>36.957303083202042</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="22">
         <f>Results!P16</f>
         <v>0.26405299983326103</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="22">
         <f>Results!Q16</f>
         <v>57.562409948738853</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="22">
         <f>Results!R16</f>
         <v>277445</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="22">
         <f>Results!S16</f>
         <v>62.2363545901934</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="22">
         <f>Results!T16</f>
         <v>3.1315059238524552</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="22">
         <f>Results!U16</f>
         <v>2.1999764600118605</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6" s="22">
         <f>Results!V16</f>
         <v>5.7569720136658127</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="22">
         <f>Results!W16</f>
         <v>2.679102728956171E-2</v>
       </c>
-      <c r="X6" s="23">
+      <c r="X6" s="22">
         <f>Results!X16</f>
         <v>15.557408094253745</v>
       </c>
-      <c r="Y6" s="24">
+      <c r="Y6" s="23">
         <f t="shared" si="0"/>
         <v>11398658.001870502</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="23">
         <f t="shared" si="1"/>
         <v>2276948.3124723062</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="23">
         <f t="shared" si="2"/>
         <v>277533.9090081093</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="str">
+    <row r="7" spans="1:27">
+      <c r="A7" s="18" t="str">
         <f>Results!A22</f>
         <v>1bd12fe7-e558-4abd-86f1-e9ef7c3439b9</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="18" t="str">
         <f>Results!B22</f>
         <v xml:space="preserve">Resource Depletion - Mineral Resource Depletion Potential </v>
       </c>
-      <c r="C7" s="19" t="str">
+      <c r="C7" s="18" t="str">
         <f>Results!C22</f>
         <v>kg Sb eq</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f>Results!D22</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f>Results!E22</f>
         <v>146865.1870889675</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f>Results!F22</f>
         <v>845.35187468534082</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <f>Results!G22</f>
         <v>1868.2071180283422</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f>Results!H22</f>
         <v>27550.914375277629</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f>Results!I22</f>
         <v>10.51849323833415</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <f>Results!J22</f>
         <v>1794.2045389180582</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <f>Results!K22</f>
         <v>0</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <f>Results!L22</f>
         <v>131966.94671489566</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <f>Results!M22</f>
         <v>1158.4451616058375</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <f>Results!N22</f>
         <v>2436.5707651715225</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="19">
         <f>Results!O22</f>
         <v>20554.015418601182</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="19">
         <f>Results!P22</f>
         <v>61.928501379508617</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="19">
         <f>Results!Q22</f>
         <v>2458.7247385173391</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="19">
         <f>Results!R22</f>
         <v>0</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="19">
         <f>Results!S22</f>
         <v>249468.17206090401</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="19">
         <f>Results!T22</f>
         <v>313.09328692049661</v>
       </c>
-      <c r="U7" s="20">
+      <c r="U7" s="19">
         <f>Results!U22</f>
         <v>134.32500979874089</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="19">
         <f>Results!V22</f>
         <v>3195.5139595683927</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="19">
         <f>Results!W22</f>
         <v>3.1698714888092043</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="19">
         <f>Results!X22</f>
         <v>664.52019959928077</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="17">
         <f t="shared" si="0"/>
         <v>178934.38348911522</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="17">
         <f t="shared" si="1"/>
         <v>158636.63130017105</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AA7" s="17">
         <f t="shared" si="2"/>
         <v>253778.79438827973</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="str">
+    <row r="8" spans="1:27">
+      <c r="A8" s="18" t="str">
         <f>Results!A24</f>
         <v>9a6e8ecd-bb0a-4204-ab5d-8686be10b6af</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="18" t="str">
         <f>Results!B24</f>
         <v>Toxicity - Freshwater Aquatic Ecotoxicity</v>
       </c>
-      <c r="C8" s="19" t="str">
+      <c r="C8" s="18" t="str">
         <f>Results!C24</f>
         <v>PAF.m3.day</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f>Results!D24</f>
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f>Results!E24</f>
         <v>3765692023.6762009</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f>Results!F24</f>
         <v>415859129.60350496</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f>Results!G24</f>
         <v>924701310.17213857</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f>Results!H24</f>
         <v>3344674897.5176516</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f>Results!I24</f>
         <v>936461.40052167559</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <f>Results!J24</f>
         <v>1008903428.0330663</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f>Results!K24</f>
         <v>0</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <f>Results!L24</f>
         <v>1498766521.1906075</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <f>Results!M24</f>
         <v>569881029.45665491</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <f>Results!N24</f>
         <v>1131678388.6168551</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <f>Results!O24</f>
         <v>2734227013.054121</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <f>Results!P24</f>
         <v>3520269.0527360979</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <f>Results!Q24</f>
         <v>1382571364.3416095</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <f>Results!R24</f>
         <v>0</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="19">
         <f>Results!S24</f>
         <v>5614078610.14048</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="19">
         <f>Results!T24</f>
         <v>154021899.85314998</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="19">
         <f>Results!U24</f>
         <v>62280861.958490282</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="19">
         <f>Results!V24</f>
         <v>425394806.89208257</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="19">
         <f>Results!W24</f>
         <v>458632.77336208906</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="19">
         <f>Results!X24</f>
         <v>373667936.30854309</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="17">
         <f t="shared" si="0"/>
         <v>9460767250.4030838</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="Z8" s="17">
         <f t="shared" si="1"/>
         <v>7320644585.7125854</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AA8" s="17">
         <f t="shared" si="2"/>
         <v>6629902747.9261084</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="str">
+    <row r="9" spans="1:27">
+      <c r="A9" s="18" t="str">
         <f>Results!A25</f>
         <v>5a9aec82-fca2-48bd-803d-66d103d777fb</v>
       </c>
-      <c r="B9" s="19" t="str">
+      <c r="B9" s="18" t="str">
         <f>Results!B25</f>
         <v>Toxicity - Human Toxicity</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="18" t="str">
         <f>Results!C25</f>
         <v>cases</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <f>Results!D25</f>
         <v>0</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f>Results!E25</f>
         <v>247.61081046303838</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f>Results!F25</f>
         <v>26.256644161334883</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <f>Results!G25</f>
         <v>82.093704887785776</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f>Results!H25</f>
         <v>225.77985250222531</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f>Results!I25</f>
         <v>8.9312018866388954E-2</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <f>Results!J25</f>
         <v>91.576513861203722</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <f>Results!K25</f>
         <v>0</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <f>Results!L25</f>
         <v>112.13279643924123</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <f>Results!M25</f>
         <v>35.981327184051509</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <f>Results!N25</f>
         <v>102.02586932806355</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="19">
         <f>Results!O25</f>
         <v>179.96259678193101</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="19">
         <f>Results!P25</f>
         <v>0.35273464827915968</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <f>Results!Q25</f>
         <v>125.4937412172051</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <f>Results!R25</f>
         <v>0</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="19">
         <f>Results!S25</f>
         <v>382.72253795045799</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="19">
         <f>Results!T25</f>
         <v>9.7246830227166239</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="19">
         <f>Results!U25</f>
         <v>5.6281952025448847</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="19">
         <f>Results!V25</f>
         <v>27.99105677918498</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="19">
         <f>Results!W25</f>
         <v>5.1607458175010487E-2</v>
       </c>
-      <c r="X9" s="20">
+      <c r="X9" s="19">
         <f>Results!X25</f>
         <v>33.917227356001376</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="17">
         <f t="shared" si="0"/>
         <v>673.40683789445438</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z9" s="17">
         <f t="shared" si="1"/>
         <v>555.94906559877165</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA9" s="17">
         <f t="shared" si="2"/>
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="D12">
         <f t="shared" ref="D12:J18" si="3">D3/54</f>
         <v>467816.80000000261</v>
@@ -16307,88 +16316,88 @@
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D13" s="9">
+    <row r="13" spans="1:27">
+      <c r="D13" s="8">
         <f t="shared" si="3"/>
         <v>107643343.2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f t="shared" si="3"/>
         <v>11018755.479632294</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="3"/>
         <v>1616263.5572494173</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="3"/>
         <v>4793267.4795996109</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f t="shared" si="3"/>
         <v>8984275.3361050114</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="3"/>
         <v>11043.18682335895</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <f t="shared" si="3"/>
         <v>5666556.7423715731</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D14" s="9">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="D14" s="8">
         <f t="shared" si="3"/>
         <v>86728.6</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f t="shared" si="3"/>
         <v>0.74573505127734652</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="3"/>
         <v>0.15657529619262275</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="3"/>
         <v>0.22329274937454158</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f t="shared" si="3"/>
         <v>0.75392759599629455</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="3"/>
         <v>1.8928006407470293E-3</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <f t="shared" si="3"/>
         <v>0.7778704047126872</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="D15">
         <f t="shared" si="3"/>
         <v>211083.6</v>
@@ -16417,144 +16426,144 @@
         <f t="shared" si="3"/>
         <v>0.7778704047126872</v>
       </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D16" s="22">
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="D16" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" si="3"/>
         <v>2719.7256868327318</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="3"/>
         <v>15.65466434602483</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="3"/>
         <v>34.596428111635966</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" si="3"/>
         <v>510.20211806069682</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="3"/>
         <v>0.19478691182100277</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <f t="shared" si="3"/>
         <v>33.22600997996404</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D17" s="22">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="4:24">
+      <c r="D17" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <f t="shared" si="3"/>
         <v>69735037.475485206</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" si="3"/>
         <v>7701094.9926574994</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <f t="shared" si="3"/>
         <v>17124098.336521085</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <f t="shared" si="3"/>
         <v>61938424.028104655</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="3"/>
         <v>17341.877787438436</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <f t="shared" si="3"/>
         <v>18683396.815427154</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="9"/>
-    </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D18" s="22">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="4:24">
+      <c r="D18" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <f t="shared" si="3"/>
         <v>4.5853853789451549</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f t="shared" si="3"/>
         <v>0.48623415113583118</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f t="shared" si="3"/>
         <v>1.520253794218255</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="3"/>
         <v>4.1811083796708388</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f t="shared" si="3"/>
         <v>1.6539262753034992E-3</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <f t="shared" si="3"/>
         <v>1.6958613678000689</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-    </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="R19" s="22"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="4:24">
+      <c r="R19" s="21"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16565,999 +16574,999 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2589047-AB2C-1546-BBBF-01D856EB5DFF}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="169" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="169" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>95</v>
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>129</v>
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="50">
         <v>630466.13520000002</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>4113533.9070438663</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>4744753.3386012306</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>5594990.9167991066</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>17220.724910639186</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>26728958.935199995</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>4113533.9070438663</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>4744753.3386012306</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>5594990.9167991066</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>17220.724910639186</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>6837.1799999999967</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>0.27747851403236745</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>0.54687465295254967</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>0.49942301463786543</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <v>3.5682837815305545E-3</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>30767.309999999998</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>0.27747851403236745</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>0.54687465295254967</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>0.49942301463786543</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>3.5682837815305545E-3</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29">
         <v>1783.3371177688603</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>15.65466434602483</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>32.926631961777332</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>277.75696511623221</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>0.83687164026362992</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="29">
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29">
         <v>20253601.637710914</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>7701094.9926574985</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>15292951.197525069</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>36949013.689920552</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>47571.203415352677</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="52">
+      <c r="B9" s="29"/>
+      <c r="C9" s="51">
         <v>1.5153080599897464</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>0.48623415113583118</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>1.3787279638927508</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>2.4319269835396082</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>4.7666844362048606E-3</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>288655.10960000008</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <v>44680412.981284596</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>968910.19943819474</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>3223330.483496089</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <v>4328.6038079110258</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="29">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>12031437.1896</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>44680412.981284596</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>968910.19943819474</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <v>3223330.483496089</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <v>4328.6038079110258</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="29">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>3157.14</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>3.1118177295096698</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>0.10999882300059302</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>0.28784860068329066</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <v>1.3395513644780855E-3</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>13872.25</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>3.1118177295096698</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>0.10999882300059302</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <v>0.28784860068329066</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="29">
         <v>1.3395513644780855E-3</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="29">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="30">
-        <v>0</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="29">
+        <v>0</v>
+      </c>
+      <c r="C19" s="29">
         <v>12473.4086030452</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <v>15.65466434602483</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <v>6.7162504899370443</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <v>159.77569797841963</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>0.15849357444046022</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="30">
-        <v>0</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="29">
+        <v>0</v>
+      </c>
+      <c r="C20" s="29">
         <v>280703930.50702399</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="29">
         <v>7701094.9926574994</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>3114043.0979245142</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <v>21269740.344604127</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <v>22931.638668104453</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="29">
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="30">
-        <v>0</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="29">
+        <v>0</v>
+      </c>
+      <c r="C21" s="29">
         <v>19.1361268975229</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <v>0.48623415113583118</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <v>0.28140976012724422</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>1.3995528389592491</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="29">
         <v>2.5803729087505245E-3</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="29">
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="47" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="29">
         <v>467816.80000000261</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="29">
         <v>11018755.479632294</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="29">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <v>4793267.4795996109</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="29">
         <v>8984275.3361050114</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="29">
         <v>11043.18682335895</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="29">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="29">
         <v>107643343.2</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="29">
         <v>11018755.479632294</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="29">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="29">
         <v>4793267.4795996109</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="29">
         <v>8984275.3361050114</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="29">
         <v>11043.18682335895</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="29">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="29">
         <v>86728.6</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="29">
         <v>0.74573505127734652</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="29">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <v>0.22329274937454158</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="29">
         <v>0.75392759599629455</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>1.8928006407470293E-3</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="29">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="29">
         <v>211083.6</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <v>0.74573505127734696</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="29">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>0.22329274937454158</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <v>0.75392759599629455</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="29">
         <v>1.8928006407470293E-3</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="29">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="30">
-        <v>0</v>
-      </c>
-      <c r="C31" s="30">
+      <c r="B31" s="29">
+        <v>0</v>
+      </c>
+      <c r="C31" s="29">
         <v>2719.7256868327318</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="29">
         <v>15.65466434602483</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>34.596428111635966</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="29">
         <v>510.20211806069682</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <v>0.19478691182100277</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="29">
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="30">
-        <v>0</v>
-      </c>
-      <c r="C32" s="30">
+      <c r="B32" s="29">
+        <v>0</v>
+      </c>
+      <c r="C32" s="29">
         <v>69735037.475485206</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="29">
         <v>7701094.9926574994</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <v>17124098.336521085</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="29">
         <v>61938424.028104655</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="29">
         <v>17341.877787438436</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="29">
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="30">
-        <v>0</v>
-      </c>
-      <c r="C33" s="30">
+      <c r="B33" s="29">
+        <v>0</v>
+      </c>
+      <c r="C33" s="29">
         <v>4.5853853789451549</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="29">
         <v>0.48623415113583118</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <v>1.520253794218255</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="29">
         <v>4.1811083796708388</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="29">
         <v>1.6539262753034992E-3</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="29">
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="49" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="29">
         <f t="shared" ref="B39:H40" si="0">(B3+B15)/2</f>
         <v>459560.62240000005</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="29">
         <f t="shared" si="0"/>
         <v>24396973.444164231</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="29">
         <f t="shared" si="0"/>
         <v>1616263.5572494173</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="29">
         <f t="shared" si="0"/>
         <v>2856831.7690197127</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="29">
         <f t="shared" si="0"/>
         <v>4409160.7001475981</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="29">
         <f t="shared" si="0"/>
         <v>10774.664359275106</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="29">
         <f t="shared" si="0"/>
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="29">
         <f t="shared" si="0"/>
         <v>19380198.062399998</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="29">
         <f t="shared" si="0"/>
         <v>24396973.444164231</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="29">
         <f t="shared" si="0"/>
         <v>1616263.5572494173</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="29">
         <f t="shared" si="0"/>
         <v>2856831.7690197127</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="29">
         <f t="shared" si="0"/>
         <v>4409160.7001475981</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="29">
         <f t="shared" si="0"/>
         <v>10774.664359275106</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="29">
         <f t="shared" si="0"/>
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="29">
         <f t="shared" ref="B41:D45" si="1">(B5+B17)/2</f>
         <v>4997.159999999998</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="29">
         <f t="shared" si="1"/>
         <v>1.6946481217710185</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="29">
         <f t="shared" si="1"/>
         <v>0.15657529619262275</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="29">
         <f>(E5+E17)/2</f>
         <v>0.32843673797657136</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <f t="shared" ref="F41:H45" si="2">(F5+F17)/2</f>
         <v>0.39363580766057804</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="29">
         <f t="shared" si="2"/>
         <v>2.4539175730043201E-3</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="29">
         <f t="shared" si="2"/>
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="29">
         <f t="shared" si="1"/>
         <v>22319.78</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="29">
         <f t="shared" si="1"/>
         <v>1.6946481217710185</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="29">
         <f t="shared" si="1"/>
         <v>0.15657529619262275</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="29">
         <f>(E6+E18)/2</f>
         <v>0.32843673797657136</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="29">
         <f t="shared" si="2"/>
         <v>0.39363580766057804</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="29">
         <f t="shared" si="2"/>
         <v>2.4539175730043201E-3</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="29">
         <f t="shared" si="2"/>
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="29">
         <f t="shared" si="1"/>
         <v>7128.3728604070302</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="29">
         <f t="shared" si="1"/>
         <v>15.65466434602483</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="29">
         <f>(E7+E19)/2</f>
         <v>19.821441225857189</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="29">
         <f t="shared" si="2"/>
         <v>218.76633154732593</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="29">
         <f t="shared" si="2"/>
         <v>0.49768260735204506</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="29">
         <f t="shared" si="2"/>
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="29">
         <f t="shared" si="1"/>
         <v>150478766.07236746</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="29">
         <f t="shared" si="1"/>
         <v>7701094.9926574994</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="29">
         <f>(E8+E20)/2</f>
         <v>9203497.1477247924</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="29">
         <f t="shared" si="2"/>
         <v>29109377.01726234</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="29">
         <f t="shared" si="2"/>
         <v>35251.421041728565</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="29">
         <f t="shared" si="2"/>
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="29">
         <f t="shared" si="1"/>
         <v>10.325717478756323</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="29">
         <f t="shared" si="1"/>
         <v>0.48623415113583118</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="29">
         <f>(E9+E21)/2</f>
         <v>0.83006886200999752</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="29">
         <f t="shared" si="2"/>
         <v>1.9157399112494287</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="29">
         <f t="shared" si="2"/>
         <v>3.6735286724776926E-3</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="29">
         <f t="shared" si="2"/>
         <v>1.6958613678000689</v>
       </c>
@@ -17577,21 +17586,21 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
     <col min="25" max="27" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="str">
         <f t="array" ref="A1:I27">TRANSPOSE(Final!A1:AA9)</f>
         <v>Constellation</v>
@@ -17605,7 +17614,7 @@
       <c r="D1" t="str">
         <v>305e2dd5-defb-4d89-8d38-d54a8ad9cdda</v>
       </c>
-      <c r="E1" s="27" t="str">
+      <c r="E1" s="26" t="str">
         <v>5d5095a7-65cc-4657-8f3a-bd1c64f77b2b</v>
       </c>
       <c r="F1" t="str">
@@ -17621,7 +17630,7 @@
         <v>5a9aec82-fca2-48bd-803d-66d103d777fb</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="str">
         <v>Constellation</v>
       </c>
@@ -17634,7 +17643,7 @@
       <c r="D2" t="str">
         <v>Climate Change WC - Global Warming Potential 100a</v>
       </c>
-      <c r="E2" s="27" t="str">
+      <c r="E2" s="26" t="str">
         <v>Ozone Depletion - Ozone Depletion Potential (Steady State)</v>
       </c>
       <c r="F2" t="str">
@@ -17650,7 +17659,7 @@
         <v>Toxicity - Human Toxicity</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="str">
         <v>Reference unit</v>
       </c>
@@ -17663,7 +17672,7 @@
       <c r="D3" t="str">
         <v>kg CO2 eq</v>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="26" t="str">
         <v>kg CFC-11 eq</v>
       </c>
       <c r="F3" t="str">
@@ -17679,709 +17688,709 @@
         <v>cases</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="str">
         <v>Kuiper</v>
       </c>
       <c r="B4" t="str">
         <v>Ariane 5 Launches</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>25262107.200000141</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>5812740532.8000002</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>4683344.4000000004</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>11398514.4</v>
       </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
-        <v>0</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="str">
         <v>Kuiper</v>
       </c>
       <c r="B5" t="str">
         <v>Ariane 5 Production</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>595012795.90014386</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>595012795.90014386</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>40.269692768976711</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>40.269692768976711</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>146865.1870889675</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>3765692023.6762009</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>247.61081046303838</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="str">
         <v>Kuiper</v>
       </c>
       <c r="B6" t="str">
         <v>Ariane 5 AIT</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>87278232.091468528</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>87278232.091468528</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>8.4550659944016289</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>8.4550659944016289</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>845.35187468534082</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>415859129.60350496</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>26.256644161334883</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="str">
         <v>Kuiper</v>
       </c>
       <c r="B7" t="str">
         <v>Ariane 5 Propellant Production</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>258836443.898379</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>258836443.898379</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>12.057808466225245</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>12.057808466225245</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>1868.2071180283422</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>924701310.17213857</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>82.093704887785776</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="str">
         <v>Kuiper</v>
       </c>
       <c r="B8" t="str">
         <v>SCHD of Ariane 5 Propellant</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>485150868.1496706</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>485150868.1496706</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>40.712090183799909</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>40.712090183799909</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>27550.914375277629</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>3344674897.5176516</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>225.77985250222531</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="str">
         <v>Kuiper</v>
       </c>
       <c r="B9" t="str">
         <v>Transportation of Ariane 5</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>596332.08846138336</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>596332.08846138336</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>0.10221123460033958</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>0.10221123460033958</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>10.51849323833415</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>936461.40052167559</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>8.9312018866388954E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="str">
         <v>Kuiper</v>
       </c>
       <c r="B10" t="str">
         <v>Ariane 5 Launch Campaign</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>305994064.08806497</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>305994064.08806497</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>42.005001854485108</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>42.005001854485108</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>1794.2045389180582</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>1008903428.0330663</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>91.576513861203722</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="A11" s="2" t="str">
         <v>Starlink</v>
       </c>
       <c r="B11" s="2" t="str">
         <v>Falcon 9 Launches</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>304401509.1212461</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>1977942961.2047997</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>505951.31999999977</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>2276780.94</v>
       </c>
-      <c r="G11" s="28">
-        <v>0</v>
-      </c>
-      <c r="H11" s="28">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="27">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="A12" s="2" t="str">
         <v>Starlink</v>
       </c>
       <c r="B12" s="2" t="str">
         <v>Falcon 9 Production</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>304401509.1212461</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>304401509.1212461</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>20.533410038395193</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>20.533410038395193</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>131966.94671489566</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <v>1498766521.1906075</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <v>112.13279643924123</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="2" customFormat="1">
       <c r="A13" s="2" t="str">
         <v>Starlink</v>
       </c>
       <c r="B13" s="2" t="str">
         <v>Falcon 9 AIT</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>119603503.23645689</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>119603503.23645689</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>11.586571918254084</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>11.586571918254084</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>1158.4451616058375</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>569881029.45665491</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <v>35.981327184051509</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="2" customFormat="1">
       <c r="A14" s="2" t="str">
         <v>Starlink</v>
       </c>
       <c r="B14" s="2" t="str">
         <v>Falcon 9 Propellant Production</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>351111747.05649108</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>351111747.05649108</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>40.468724318488675</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>40.468724318488675</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>2436.5707651715225</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <v>1131678388.6168551</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="27">
         <v>102.02586932806355</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="2" customFormat="1">
       <c r="A15" s="2" t="str">
         <v>Starlink</v>
       </c>
       <c r="B15" s="2" t="str">
         <v>SCHD of Falcon 9 Propellant</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>414029327.84313387</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>414029327.84313387</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>36.957303083202042</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>36.957303083202042</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>20554.015418601182</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>2734227013.054121</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <v>179.96259678193101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="2" customFormat="1">
       <c r="A16" s="2" t="str">
         <v>Starlink</v>
       </c>
       <c r="B16" s="2" t="str">
         <v>Transportation of Falcon 9 by truck</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>1274333.6433872997</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>1274333.6433872997</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>0.26405299983326103</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>0.26405299983326103</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>61.928501379508617</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <v>3520269.0527360979</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="27">
         <v>0.35273464827915968</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="2" customFormat="1">
       <c r="A17" s="2" t="str">
         <v>Starlink</v>
       </c>
       <c r="B17" s="2" t="str">
         <v>Falcon 9 Launch Campaign</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <v>419325198.93549639</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>419325198.93549639</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>57.562409948738853</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>57.562409948738853</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>2458.7247385173391</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="27">
         <v>1382571364.3416095</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <v>125.4937412172051</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="str">
         <v>OneWeb</v>
       </c>
       <c r="B18" t="str">
         <v>Soyuz-FG Launches</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>5773102.1920000017</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <v>240628743.792</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <v>63142.799999999996</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>277445</v>
       </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
-        <v>0</v>
-      </c>
-      <c r="I18" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="str">
         <v>OneWeb</v>
       </c>
       <c r="B19" t="str">
         <v>Soyuz-FG Production</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>893608259.62569189</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>893608259.62569189</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <v>62.2363545901934</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>62.2363545901934</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>249468.17206090401</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>5614078610.14048</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="25">
         <v>382.72253795045799</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="str">
         <v>OneWeb</v>
       </c>
       <c r="B20" t="str">
         <v>Soyuz-FG AIT</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>32325271.144988347</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>32325271.144988347</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <v>3.1315059238524552</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>3.1315059238524552</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>313.09328692049661</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>154021899.85314998</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>9.7246830227166239</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="str">
         <v>OneWeb</v>
       </c>
       <c r="B21" t="str">
         <v>Soyuz-FG Propellant Production</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>19378203.988763895</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>19378203.988763895</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <v>2.1999764600118605</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="25">
         <v>2.1999764600118605</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>134.32500979874089</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>62280861.958490282</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="25">
         <v>5.6281952025448847</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="str">
         <v>OneWeb</v>
       </c>
       <c r="B22" t="str">
         <v>SCHD of Soyuz-FG Propellant</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>64466609.669921778</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>64466609.669921778</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <v>5.7569720136658127</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>5.7569720136658127</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <v>3195.5139595683927</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>425394806.89208257</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="25">
         <v>27.99105677918498</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="str">
         <v>OneWeb</v>
       </c>
       <c r="B23" t="str">
         <v>Transportation of Soyuz-FG by train</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>86572.076158220516</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>86572.076158220516</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>2.679102728956171E-2</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>2.679102728956171E-2</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>3.1698714888092043</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>458632.77336208906</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>5.1607458175010487E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="str">
         <v>OneWeb</v>
       </c>
       <c r="B24" t="str">
         <v>Soyuz-FG Launch Campaign</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>113331134.84743147</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>113331134.84743147</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <v>15.557408094253745</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <v>15.557408094253745</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="25">
         <v>664.52019959928077</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <v>373667936.30854309</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="25">
         <v>33.917227356001376</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="str">
         <v>TOTAL Kupier</v>
       </c>
       <c r="B25" t="str">
         <v>TOTAL Kupier</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>1758130843.4161885</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>7545609269.0161886</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <v>4683488.0018705027</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <v>11398658.001870502</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="25">
         <v>178934.38348911522</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>9460767250.4030838</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="25">
         <v>673.40683789445438</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="str">
         <v>TOTAL Starlink</v>
       </c>
       <c r="B26" t="str">
         <v>TOTAL Starlink</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>1914147128.9574578</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>3587688581.0410113</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <v>506118.69247230672</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>2276948.3124723062</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>158636.63130017105</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>7320644585.7125854</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>555.94906559877165</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="str">
         <v>TOTAL OneWeb</v>
       </c>
       <c r="B27" t="str">
         <v>TOTAL OneWeb</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>1128969153.5449555</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <v>1363824795.1449556</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <v>63231.709008109261</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="25">
         <v>277533.9090081093</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="25">
         <v>253778.79438827973</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <v>6629902747.9261084</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+    <row r="28" spans="1:9">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18397,354 +18406,354 @@
       <selection activeCell="B3" sqref="B3:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>2019</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>2020</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>2021</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>2022</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <v>2023</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="31">
         <v>2024</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="31">
         <v>2025</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="31">
         <v>2026</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="31">
         <v>2027</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="31">
         <v>2028</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="31">
         <v>2029</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="31">
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>1</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>3</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>8</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>2</v>
       </c>
-      <c r="F3" s="31">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
-        <v>0</v>
-      </c>
-      <c r="H3" s="32">
-        <v>0</v>
-      </c>
-      <c r="I3" s="32">
-        <v>0</v>
-      </c>
-      <c r="J3" s="32">
-        <v>0</v>
-      </c>
-      <c r="K3" s="32">
-        <v>0</v>
-      </c>
-      <c r="L3" s="32">
-        <v>0</v>
-      </c>
-      <c r="M3" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="31">
+        <v>0</v>
+      </c>
+      <c r="J3" s="31">
+        <v>0</v>
+      </c>
+      <c r="K3" s="31">
+        <v>0</v>
+      </c>
+      <c r="L3" s="31">
+        <v>0</v>
+      </c>
+      <c r="M3" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30">
         <v>3</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>3</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>3</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>3</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="31">
         <v>3</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="31">
         <v>3</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="31">
         <v>3</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:13" s="20" customFormat="1">
+      <c r="A5" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33">
         <v>1</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <v>1</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>2</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>14</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>19</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>34</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>58</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <v>23</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>23</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>23</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="31">
         <v>23</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="31">
         <v>23</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="31">
         <v>23</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:13" s="20" customFormat="1">
+      <c r="A7" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34">
         <v>4</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>4</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="34">
         <v>4</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <v>4</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="34">
         <v>4</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="34">
         <v>4</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:13" s="20" customFormat="1">
+      <c r="A8" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34">
         <v>4</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>4</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="34">
         <v>4</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="34">
         <v>4</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <v>4</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="34">
         <v>4</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:13" s="20" customFormat="1">
+      <c r="A9" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34">
         <v>4</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>4</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <v>4</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>4</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>4</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <v>4</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>4</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>4</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="B14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -18767,25 +18776,25 @@
       <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="57">
+    <row r="1" spans="1:11">
+      <c r="A1" s="55">
         <v>2019</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55">
         <v>2020</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55">
         <v>2021</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55">
         <v>2022</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="55"/>
       <c r="J1">
         <v>2023</v>
       </c>
@@ -18793,32 +18802,32 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
+    <row r="2" spans="1:11">
+      <c r="A2" s="42">
         <v>45413</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>60</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <v>44933</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="38">
         <v>60</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="40">
         <v>45045</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="41">
         <v>60</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="36">
         <v>45037</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="37">
         <v>53</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <v>45035</v>
       </c>
       <c r="J2">
@@ -18828,32 +18837,32 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="44">
+    <row r="3" spans="1:11">
+      <c r="A3" s="43">
         <v>45241</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>60</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="39">
         <v>44955</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>60</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>45023</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>60</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="36">
         <v>45045</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="37">
         <v>53</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <v>45043</v>
       </c>
       <c r="J3">
@@ -18863,26 +18872,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C4" s="40">
+    <row r="4" spans="1:11">
+      <c r="C4" s="39">
         <v>44974</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>60</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <v>45278</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <v>52</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <v>45148</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <v>52</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>45149</v>
       </c>
       <c r="J4">
@@ -18892,26 +18901,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C5" s="40">
+    <row r="5" spans="1:11">
+      <c r="C5" s="39">
         <v>45003</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>60</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <v>45262</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>48</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="36">
         <v>45150</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="37">
         <v>46</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <v>45155</v>
       </c>
       <c r="J5">
@@ -18921,26 +18930,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="40">
+    <row r="6" spans="1:11">
+      <c r="C6" s="39">
         <v>45038</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>60</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <v>44973</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>60</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="36">
         <v>45157</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>53</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>45160</v>
       </c>
       <c r="J6">
@@ -18950,26 +18959,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="40">
+    <row r="7" spans="1:11">
+      <c r="C7" s="39">
         <v>45090</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>58</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <v>44961</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>60</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="36">
         <v>45166</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="37">
         <v>54</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>45165</v>
       </c>
       <c r="J7">
@@ -18979,26 +18988,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="40">
+    <row r="8" spans="1:11">
+      <c r="C8" s="39">
         <v>45081</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>60</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>44946</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>60</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>45169</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>46</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>45145</v>
       </c>
       <c r="J8">
@@ -19008,26 +19017,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="40">
+    <row r="9" spans="1:11">
+      <c r="C9" s="39">
         <v>45156</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>58</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <v>44950</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>10</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>45277</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="37">
         <v>54</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>45146</v>
       </c>
       <c r="J9">
@@ -19037,26 +19046,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="40">
+    <row r="10" spans="1:11">
+      <c r="C10" s="39">
         <v>45145</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>57</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <v>45107</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <v>3</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>45288</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>54</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>44969</v>
       </c>
       <c r="J10">
@@ -19066,26 +19075,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="40">
+    <row r="11" spans="1:11">
+      <c r="C11" s="39">
         <v>45172</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>60</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <v>44996</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <v>60</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <v>44978</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="37">
         <v>46</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>44974</v>
       </c>
       <c r="J11">
@@ -19095,26 +19104,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="40">
+    <row r="12" spans="1:11">
+      <c r="C12" s="39">
         <v>45205</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>60</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <v>44999</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>60</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>44982</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>50</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="35">
         <v>44959</v>
       </c>
       <c r="J12">
@@ -19124,26 +19133,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="40">
+    <row r="13" spans="1:11">
+      <c r="C13" s="39">
         <v>45217</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <v>60</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="40">
         <v>45009</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>60</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>44960</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <v>49</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>44984</v>
       </c>
       <c r="J13">
@@ -19153,26 +19162,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="40">
+    <row r="14" spans="1:11">
+      <c r="C14" s="39">
         <v>45223</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="38">
         <v>60</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="40">
         <v>44989</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>60</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>44945</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <v>49</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>44945</v>
       </c>
       <c r="J14">
@@ -19182,26 +19191,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="40">
+    <row r="15" spans="1:11">
+      <c r="C15" s="39">
         <v>45255</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
         <v>60</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="40">
         <v>45061</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>52</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>44932</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="37">
         <v>49</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <v>44952</v>
       </c>
       <c r="J15">
@@ -19211,20 +19220,20 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E16" s="41">
+    <row r="16" spans="1:11">
+      <c r="E16" s="40">
         <v>45072</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <v>60</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>45118</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="37">
         <v>46</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="35">
         <v>44957</v>
       </c>
       <c r="J16">
@@ -19234,20 +19243,20 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E17" s="41">
+    <row r="17" spans="5:11">
+      <c r="E17" s="40">
         <v>45050</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>60</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="36">
         <v>45124</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="37">
         <v>53</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <v>45117</v>
       </c>
       <c r="J17">
@@ -19257,20 +19266,20 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E18" s="41">
+    <row r="18" spans="5:11">
+      <c r="E18" s="40">
         <v>45055</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <v>60</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>45129</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="37">
         <v>46</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <v>45123</v>
       </c>
       <c r="J18">
@@ -19280,20 +19289,20 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E19" s="41">
+    <row r="19" spans="5:11">
+      <c r="E19" s="40">
         <v>45243</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <v>53</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>45131</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>53</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <v>45127</v>
       </c>
       <c r="J19">
@@ -19303,20 +19312,20 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E20" s="41">
+    <row r="20" spans="5:11">
+      <c r="E20" s="40">
         <v>45183</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="41">
         <v>51</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <v>45114</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="37">
         <v>53</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="35">
         <v>45131</v>
       </c>
       <c r="J20">
@@ -19326,14 +19335,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G21" s="37">
+    <row r="21" spans="5:11">
+      <c r="G21" s="36">
         <v>45094</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="37">
         <v>53</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="35">
         <v>45135</v>
       </c>
       <c r="J21">
@@ -19343,14 +19352,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G22" s="37">
+    <row r="22" spans="5:11">
+      <c r="G22" s="36">
         <v>45004</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="37">
         <v>53</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="35">
         <v>45114</v>
       </c>
       <c r="J22">
@@ -19360,14 +19369,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G23" s="37">
+    <row r="23" spans="5:11">
+      <c r="G23" s="36">
         <v>44988</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="37">
         <v>47</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="35">
         <v>45089</v>
       </c>
       <c r="J23">
@@ -19377,14 +19386,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G24" s="37">
+    <row r="24" spans="5:11">
+      <c r="G24" s="36">
         <v>44994</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <v>48</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="35">
         <v>45099</v>
       </c>
       <c r="J24">
@@ -19394,14 +19403,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G25" s="37">
+    <row r="25" spans="5:11">
+      <c r="G25" s="36">
         <v>45059</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="37">
         <v>53</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <v>45100</v>
       </c>
       <c r="J25">
@@ -19411,14 +19420,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G26" s="37">
+    <row r="26" spans="5:11">
+      <c r="G26" s="36">
         <v>45060</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="37">
         <v>53</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="35">
         <v>45081</v>
       </c>
       <c r="J26">
@@ -19428,14 +19437,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G27" s="37">
+    <row r="27" spans="5:11">
+      <c r="G27" s="36">
         <v>45064</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="37">
         <v>53</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <v>45002</v>
       </c>
       <c r="J27">
@@ -19445,14 +19454,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G28" s="37">
+    <row r="28" spans="5:11">
+      <c r="G28" s="36">
         <v>45052</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="37">
         <v>53</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <v>45009</v>
       </c>
       <c r="J28">
@@ -19462,14 +19471,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G29" s="37">
+    <row r="29" spans="5:11">
+      <c r="G29" s="36">
         <v>45219</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="37">
         <v>54</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="35">
         <v>45014</v>
       </c>
       <c r="J29">
@@ -19479,14 +19488,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G30" s="37">
+    <row r="30" spans="5:11">
+      <c r="G30" s="36">
         <v>45227</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="37">
         <v>53</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="35">
         <v>44988</v>
       </c>
       <c r="J30">
@@ -19496,14 +19505,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G31" s="37">
+    <row r="31" spans="5:11">
+      <c r="G31" s="36">
         <v>45204</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="37">
         <v>52</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <v>45056</v>
       </c>
       <c r="J31">
@@ -19513,14 +19522,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G32" s="37">
+    <row r="32" spans="5:11">
+      <c r="G32" s="36">
         <v>45180</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="37">
         <v>34</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="35">
         <v>45060</v>
       </c>
       <c r="J32">
@@ -19530,14 +19539,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G33" s="37">
+    <row r="33" spans="1:11">
+      <c r="G33" s="36">
         <v>45188</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="37">
         <v>54</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="35">
         <v>45065</v>
       </c>
       <c r="J33">
@@ -19547,18 +19556,18 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="G34" s="37">
+      <c r="G34" s="36">
         <v>45193</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="37">
         <v>52</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="35">
         <v>45077</v>
       </c>
       <c r="J34">
@@ -19568,14 +19577,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G35" s="37">
+    <row r="35" spans="1:11">
+      <c r="G35" s="36">
         <v>45174</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="37">
         <v>51</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="35">
         <v>45050</v>
       </c>
       <c r="J35">
@@ -19585,8 +19594,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I36" s="36">
+    <row r="36" spans="1:11">
+      <c r="I36" s="35">
         <v>45170</v>
       </c>
       <c r="J36">
@@ -19596,8 +19605,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I37" s="36">
+    <row r="37" spans="1:11">
+      <c r="I37" s="35">
         <v>45181</v>
       </c>
       <c r="J37">
@@ -19607,8 +19616,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I38" s="36">
+    <row r="38" spans="1:11">
+      <c r="I38" s="35">
         <v>45185</v>
       </c>
       <c r="J38">
@@ -19618,8 +19627,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I39" s="36">
+    <row r="39" spans="1:11">
+      <c r="I39" s="35">
         <v>45189</v>
       </c>
       <c r="J39">
@@ -19629,8 +19638,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I40" s="36">
+    <row r="40" spans="1:11">
+      <c r="I40" s="35">
         <v>45193</v>
       </c>
       <c r="J40">
@@ -19640,8 +19649,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I41" s="36">
+    <row r="41" spans="1:11">
+      <c r="I41" s="35">
         <v>45194</v>
       </c>
       <c r="J41">
@@ -19651,8 +19660,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I42" s="36">
+    <row r="42" spans="1:11">
+      <c r="I42" s="35">
         <v>45173</v>
       </c>
       <c r="J42">
@@ -19662,8 +19671,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I43" s="36">
+    <row r="43" spans="1:11">
+      <c r="I43" s="35">
         <v>45178</v>
       </c>
       <c r="J43">
@@ -19673,8 +19682,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I44" s="36">
+    <row r="44" spans="1:11">
+      <c r="I44" s="35">
         <v>45258</v>
       </c>
       <c r="J44">
@@ -19684,8 +19693,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I45" s="36">
+    <row r="45" spans="1:11">
+      <c r="I45" s="35">
         <v>45252</v>
       </c>
       <c r="J45">
@@ -19695,8 +19704,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I46" s="36">
+    <row r="46" spans="1:11">
+      <c r="I46" s="35">
         <v>45250</v>
       </c>
       <c r="J46">
@@ -19706,8 +19715,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I47" s="36">
+    <row r="47" spans="1:11">
+      <c r="I47" s="35">
         <v>45248</v>
       </c>
       <c r="J47">
@@ -19717,8 +19726,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I48" s="36">
+    <row r="48" spans="1:11">
+      <c r="I48" s="35">
         <v>45238</v>
       </c>
       <c r="J48">
@@ -19728,8 +19737,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I49" s="36">
+    <row r="49" spans="1:12">
+      <c r="I49" s="35">
         <v>45233</v>
       </c>
       <c r="J49">
@@ -19739,8 +19748,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I50" s="36">
+    <row r="50" spans="1:12">
+      <c r="I50" s="35">
         <v>45229</v>
       </c>
       <c r="J50">
@@ -19750,8 +19759,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I51" s="36">
+    <row r="51" spans="1:12">
+      <c r="I51" s="35">
         <v>45228</v>
       </c>
       <c r="J51">
@@ -19761,8 +19770,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I52" s="36">
+    <row r="52" spans="1:12">
+      <c r="I52" s="35">
         <v>45220</v>
       </c>
       <c r="J52">
@@ -19772,8 +19781,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I53" s="36">
+    <row r="53" spans="1:12">
+      <c r="I53" s="35">
         <v>45220</v>
       </c>
       <c r="J53">
@@ -19783,8 +19792,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I54" s="36">
+    <row r="54" spans="1:12">
+      <c r="I54" s="35">
         <v>45216</v>
       </c>
       <c r="J54">
@@ -19794,8 +19803,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I55" s="36">
+    <row r="55" spans="1:12">
+      <c r="I55" s="35">
         <v>45212</v>
       </c>
       <c r="J55">
@@ -19805,8 +19814,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I56" s="36">
+    <row r="56" spans="1:12">
+      <c r="I56" s="35">
         <v>45208</v>
       </c>
       <c r="J56">
@@ -19816,8 +19825,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I57" s="36">
+    <row r="57" spans="1:12">
+      <c r="I57" s="35">
         <v>45207</v>
       </c>
       <c r="J57">
@@ -19827,8 +19836,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I58" s="36">
+    <row r="58" spans="1:12">
+      <c r="I58" s="35">
         <v>45204</v>
       </c>
       <c r="J58">
@@ -19838,8 +19847,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I59" s="36">
+    <row r="59" spans="1:12">
+      <c r="I59" s="35">
         <v>45198</v>
       </c>
       <c r="J59">
@@ -19849,8 +19858,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I60" s="36">
+    <row r="60" spans="1:12">
+      <c r="I60" s="35">
         <v>45262</v>
       </c>
       <c r="J60">
@@ -19860,61 +19869,61 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I61" s="36"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I62" s="36"/>
-    </row>
-    <row r="63" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
+    <row r="61" spans="1:12">
+      <c r="I61" s="35"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="I62" s="35"/>
+    </row>
+    <row r="63" spans="1:12" s="20" customFormat="1">
+      <c r="A63" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="20">
         <f>SUM(B2:B3)</f>
         <v>120</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="20">
         <f>SUM(D2:D15)</f>
         <v>833</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="20">
         <f>SUM(F2:F20)</f>
         <v>989</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="20">
         <f>SUM(H2:H35)</f>
         <v>1722</v>
       </c>
-      <c r="J63" s="21">
+      <c r="J63" s="20">
         <f>SUM(J2:J62)</f>
         <v>1892</v>
       </c>
-      <c r="L63" s="21">
+      <c r="L63" s="20">
         <f>SUM(B63:J63)</f>
         <v>5556</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="36">
+    <row r="65" spans="1:11">
+      <c r="A65" s="35">
         <v>44984</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="35">
         <v>45278</v>
       </c>
       <c r="D65">
         <v>36</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="35">
         <v>45041</v>
       </c>
       <c r="F65">
         <v>36</v>
       </c>
-      <c r="G65" s="36">
+      <c r="G65" s="35">
         <v>45268</v>
       </c>
       <c r="H65">
@@ -19924,20 +19933,20 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C66" s="36">
+    <row r="66" spans="1:11">
+      <c r="C66" s="35">
         <v>44963</v>
       </c>
       <c r="D66">
         <v>34</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="35">
         <v>45159</v>
       </c>
       <c r="F66">
         <v>34</v>
       </c>
-      <c r="G66" s="36">
+      <c r="G66" s="35">
         <v>44967</v>
       </c>
       <c r="H66">
@@ -19947,14 +19956,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C67" s="36">
+    <row r="67" spans="1:11">
+      <c r="C67" s="35">
         <v>45006</v>
       </c>
       <c r="D67">
         <v>34</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="35">
         <v>45287</v>
       </c>
       <c r="F67">
@@ -19964,8 +19973,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E68" s="36">
+    <row r="68" spans="1:11">
+      <c r="E68" s="35">
         <v>45108</v>
       </c>
       <c r="F68">
@@ -19975,8 +19984,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E69" s="36">
+    <row r="69" spans="1:11">
+      <c r="E69" s="35">
         <v>45010</v>
       </c>
       <c r="F69">
@@ -19986,8 +19995,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E70" s="36">
+    <row r="70" spans="1:11">
+      <c r="E70" s="35">
         <v>45074</v>
       </c>
       <c r="F70">
@@ -19997,8 +20006,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E71" s="36">
+    <row r="71" spans="1:11">
+      <c r="E71" s="35">
         <v>45213</v>
       </c>
       <c r="F71">
@@ -20008,8 +20017,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E72" s="36">
+    <row r="72" spans="1:11">
+      <c r="E72" s="35">
         <v>45183</v>
       </c>
       <c r="F72">
@@ -20019,9 +20028,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E73" s="36"/>
-      <c r="G73" s="36">
+    <row r="73" spans="1:11">
+      <c r="E73" s="35"/>
+      <c r="G73" s="35">
         <v>45221</v>
       </c>
       <c r="H73">
@@ -20031,11 +20040,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G74" s="36">
+    <row r="74" spans="1:11">
+      <c r="G74" s="35">
         <v>44936</v>
       </c>
-      <c r="I74" s="36">
+      <c r="I74" s="35">
         <v>45011</v>
       </c>
       <c r="J74">
@@ -20045,8 +20054,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I75" s="36">
+    <row r="75" spans="1:11">
+      <c r="I75" s="35">
         <v>44936</v>
       </c>
       <c r="J75">
@@ -20056,8 +20065,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I76" s="36">
+    <row r="76" spans="1:11">
+      <c r="I76" s="35">
         <v>44994</v>
       </c>
       <c r="J76">
@@ -20067,8 +20076,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I77" s="36">
+    <row r="77" spans="1:11">
+      <c r="I77" s="35">
         <v>45066</v>
       </c>
       <c r="J77">
@@ -20078,35 +20087,35 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="s">
+    <row r="78" spans="1:11">
+      <c r="A78" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="20">
         <f>SUM(B65:B77)</f>
         <v>6</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21">
+      <c r="C78" s="20"/>
+      <c r="D78" s="20">
         <f>SUM(D65:D77)</f>
         <v>104</v>
       </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21">
+      <c r="E78" s="20"/>
+      <c r="F78" s="20">
         <f>SUM(F65:F72)</f>
         <v>284</v>
       </c>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21">
+      <c r="G78" s="20"/>
+      <c r="H78" s="20">
         <f>SUM(H65:H77)</f>
         <v>110</v>
       </c>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21">
+      <c r="I78" s="20"/>
+      <c r="J78" s="20">
         <f>SUM(J64:J77)</f>
         <v>132</v>
       </c>
-      <c r="K78" s="21">
+      <c r="K78" s="20">
         <f>SUM(B78:J78)</f>
         <v>636</v>
       </c>

--- a/data/raw/life_cycle_data.xlsx
+++ b/data/raw/life_cycle_data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\Github\saleos\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29CBEB1-4F2F-495C-905C-3942B5795C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9035528E-4F81-472C-A220-ADD987CA8F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" r:id="rId2"/>
-    <sheet name="Results Visualisation" sheetId="3" r:id="rId3"/>
-    <sheet name="Final" sheetId="6" r:id="rId4"/>
-    <sheet name="cons_emissions" sheetId="11" r:id="rId5"/>
-    <sheet name="Transpose" sheetId="4" r:id="rId6"/>
-    <sheet name="example" sheetId="7" r:id="rId7"/>
-    <sheet name="mission" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
+    <sheet name="Results" sheetId="2" r:id="rId3"/>
+    <sheet name="Results Visualisation" sheetId="3" r:id="rId4"/>
+    <sheet name="Final" sheetId="6" r:id="rId5"/>
+    <sheet name="cons_emissions" sheetId="11" r:id="rId6"/>
+    <sheet name="Transpose" sheetId="4" r:id="rId7"/>
+    <sheet name="example" sheetId="7" r:id="rId8"/>
+    <sheet name="mission" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="180">
   <si>
     <t>Impact category UUID</t>
   </si>
@@ -565,29 +566,36 @@
     <t>Rocket Transportation</t>
   </si>
   <si>
-    <t>Ariane 5</t>
-  </si>
-  <si>
     <t>Rocket</t>
   </si>
   <si>
     <t>unknown_hyc</t>
+  </si>
+  <si>
+    <t>Falcon-9</t>
+  </si>
+  <si>
+    <t>Soyuz-FG</t>
+  </si>
+  <si>
+    <t>Ariane-5</t>
+  </si>
+  <si>
+    <t>unknown_hyd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,19 +648,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -742,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -792,11 +787,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9483,11 +9476,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
@@ -9515,7 +9508,7 @@
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9589,7 +9582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9666,7 +9659,7 @@
         <v>26479.613010181864</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9743,84 +9736,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="2" customFormat="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="28">
         <f>E4-73502240-21471840-12201446.4</f>
         <v>467816.80000000261</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="28">
         <v>107643343.2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="28">
         <v>11018755.479632294</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="28">
         <v>4793267.4795996109</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="28">
         <v>11043.18682335895</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="28">
         <f>J4-11330184-10900418.4-3867890.4</f>
         <v>630466.13519999431</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="28">
         <v>26728958.935199995</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="28">
         <v>4113533.9070438663</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="28">
         <v>4744753.3386012306</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="28">
         <v>17220.724910639186</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="28">
         <f>O4-5064495.04-4901963.04-1776324</f>
         <v>288655.10960000008</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="28">
         <v>12031437.1896</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="28">
         <v>44680412.981284596</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="28">
         <v>968910.19943819474</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="28">
         <v>4328.6038079110258</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="28">
         <v>3010.0417356509301</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="28">
         <v>8.1785312771686876</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="28">
         <v>5.2770303864775068</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="28">
         <v>5.7891776486982183</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="28">
         <v>1616263.5572494173</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="28">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9897,7 +9890,7 @@
         <v>3340.0507369887155</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9974,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10051,7 +10044,7 @@
         <v>-5879755.1550195301</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10128,7 +10121,7 @@
         <v>135834545.36514488</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -10205,7 +10198,7 @@
         <v>4266.6176385415683</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -10282,7 +10275,7 @@
         <v>5314.5705902229456</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -10359,7 +10352,7 @@
         <v>3716643.0167293628</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -10436,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -10513,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -10590,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -10667,7 +10660,7 @@
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -10744,7 +10737,7 @@
         <v>7995.7318478159505</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -10821,7 +10814,7 @@
         <v>14499.459904160849</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -10898,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -10975,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -11052,7 +11045,7 @@
         <v>81359612.470782876</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -11129,7 +11122,7 @@
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -11206,7 +11199,7 @@
         <v>55659.512490115521</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -11283,7 +11276,7 @@
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -11360,7 +11353,7 @@
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -11437,7 +11430,7 @@
         <v>8025510500.6247005</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -11521,14 +11514,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9658C233-613B-462C-88A4-45A199E77A56}">
+  <dimension ref="A2:C22"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="28">
+        <f>B3-73502240-21471840-12201446.4</f>
+        <v>467816.80000000261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="28">
+        <v>107643343.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="28">
+        <v>11018755.479632294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="28">
+        <v>4793267.4795996109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="28">
+        <v>11043.18682335895</v>
+      </c>
+      <c r="C6" s="21">
+        <f>SUM(B2:B6)</f>
+        <v>123934226.14605525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="28">
+        <f>B8-11330184-10900418.4-3867890.4</f>
+        <v>630466.13519999431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="28">
+        <v>26728958.935199995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="28">
+        <v>4113533.9070438663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="28">
+        <v>4744753.3386012306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="28">
+        <v>17220.724910639186</v>
+      </c>
+      <c r="C11" s="21">
+        <f>SUM(B7:B11)</f>
+        <v>36234933.040955722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="28">
+        <f>B13-5064495.04-4901963.04-1776324</f>
+        <v>288655.10960000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="28">
+        <v>12031437.1896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="28">
+        <v>44680412.981284596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="28">
+        <v>968910.19943819474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="28">
+        <v>4328.6038079110258</v>
+      </c>
+      <c r="C16" s="21">
+        <f>SUM(B12:B16)</f>
+        <v>57973744.083730698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="28">
+        <v>3010.0417356509301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="28">
+        <v>8.1785312771686876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="28">
+        <v>5.2770303864775068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="28">
+        <v>5.7891776486982183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="28">
+        <v>1616263.5572494173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="28">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
@@ -11558,7 +11753,7 @@
     <col min="28" max="28" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11641,7 +11836,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11724,7 +11919,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11831,7 +12026,7 @@
         <v>5603052.8998623258</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11938,7 +12133,7 @@
         <v>218297.2</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -12049,7 +12244,7 @@
         <v>3.5876885810410113</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -12156,7 +12351,7 @@
         <v>970241.10715785658</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -12263,7 +12458,7 @@
         <v>685000</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -12370,7 +12565,7 @@
         <v>-724629682.26727211</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12477,7 +12672,7 @@
         <v>19591026625.000957</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -12584,7 +12779,7 @@
         <v>622340.45053803571</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -12691,7 +12886,7 @@
         <v>1200157.687738826</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -12798,7 +12993,7 @@
         <v>284503183.97836286</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -12905,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -13012,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -13119,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -13226,7 +13421,7 @@
         <v>277533.9090081093</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -13333,7 +13528,7 @@
         <v>2968658.2702427674</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -13440,7 +13635,7 @@
         <v>4055763.7126770243</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -13547,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -13654,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -13761,7 +13956,7 @@
         <v>12998375123.27142</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -13868,7 +14063,7 @@
         <v>253778.79438827973</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -13975,7 +14170,7 @@
         <v>312871574.43354261</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -14082,7 +14277,7 @@
         <v>6629902747.9261084</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -14189,7 +14384,7 @@
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -14296,7 +14491,7 @@
         <v>2909455165589.1377</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -14403,7 +14598,7 @@
         <v>8023222710.5628309</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="Z28" s="5">
         <f>SUM(Z3:Z27)</f>
         <v>3739627385395.8403</v>
@@ -14417,7 +14612,7 @@
         <v>2957951117951.2559</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L30" t="s">
         <v>137</v>
       </c>
@@ -14425,7 +14620,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="K31" t="s">
         <v>140</v>
       </c>
@@ -14438,7 +14633,7 @@
         <v>23073540.183070235</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="K32" t="s">
         <v>139</v>
       </c>
@@ -14451,7 +14646,7 @@
         <v>1.3853653207842724</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K34">
         <f>K5/74</f>
         <v>26728958.935199995</v>
@@ -14463,7 +14658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3B24CC-A363-45F7-BDD6-4540FA91862D}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -14471,7 +14666,7 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="5"/>
@@ -14487,7 +14682,7 @@
     <col min="13" max="13" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1" s="5" t="s">
         <v>124</v>
       </c>
@@ -14519,8 +14714,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -14563,8 +14758,8 @@
         <v>1.3032140360995145E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="52"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
@@ -14606,8 +14801,8 @@
         <v>5.778039771532946E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="52"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
       <c r="B4" s="5" t="s">
         <v>96</v>
       </c>
@@ -14648,13 +14843,13 @@
         <v>2.3554832385923238E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="H5" s="2"/>
       <c r="M5" s="26"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
         <v>124</v>
       </c>
@@ -14682,8 +14877,8 @@
       <c r="M6" s="26"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -14726,8 +14921,8 @@
         <v>7.0799118024040389E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="52"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
       <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
@@ -14769,8 +14964,8 @@
         <v>1.4142380146734562E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="52"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
       <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
@@ -14811,12 +15006,12 @@
         <v>1.72381309942925E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="H10" s="2"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>124</v>
       </c>
@@ -14843,8 +15038,8 @@
       </c>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -14880,8 +15075,8 @@
       </c>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="52"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
@@ -14916,8 +15111,8 @@
       </c>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
       <c r="B14" s="5" t="s">
         <v>96</v>
       </c>
@@ -14951,12 +15146,12 @@
       </c>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="H15" s="2"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
         <v>124</v>
       </c>
@@ -14983,8 +15178,8 @@
       </c>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -15026,8 +15221,8 @@
         <v>1.160830337472771E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="52"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
       <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
@@ -15068,8 +15263,8 @@
         <v>8.142898028660972E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="52"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
       <c r="B19" s="5" t="s">
         <v>96</v>
       </c>
@@ -15109,11 +15304,11 @@
         <v>8.1348499974553479E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>124</v>
       </c>
@@ -15139,8 +15334,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="52" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -15175,8 +15370,8 @@
         <v>673.40683789445438</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="52"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
       <c r="B23" s="5" t="s">
         <v>95</v>
       </c>
@@ -15210,8 +15405,8 @@
         <v>490.83784818779668</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="52"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
       <c r="B24" s="5" t="s">
         <v>96</v>
       </c>
@@ -15244,7 +15439,7 @@
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E26" s="3">
         <v>7545609269.0161886</v>
       </c>
@@ -15269,7 +15464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EFF905-71F7-4E4C-A860-FECA9C454F58}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
@@ -15277,7 +15472,7 @@
       <selection activeCell="J18" sqref="D12:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -15302,7 +15497,7 @@
     <col min="25" max="27" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>143</v>
       </c>
@@ -15410,7 +15605,7 @@
         <v>TOTAL OneWeb</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
         <f>Results!A2</f>
         <v>Impact category UUID</v>
@@ -15520,7 +15715,7 @@
         <v>TOTAL OneWeb</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="20" customFormat="1">
+    <row r="3" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="str">
         <f>Results!A5</f>
         <v>305e2dd5-defb-4d89-8d38-d54a8ad9cdda</v>
@@ -15629,7 +15824,7 @@
         <v>1128969153.5449555</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="20" customFormat="1">
+    <row r="4" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="str">
         <f>Results!A5</f>
         <v>305e2dd5-defb-4d89-8d38-d54a8ad9cdda</v>
@@ -15738,7 +15933,7 @@
         <v>1363824795.1449556</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="20" customFormat="1">
+    <row r="5" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="str">
         <f>Results!A16</f>
         <v>5d5095a7-65cc-4657-8f3a-bd1c64f77b2b</v>
@@ -15847,7 +16042,7 @@
         <v>63231.709008109261</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="20" customFormat="1">
+    <row r="6" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="str">
         <f>Results!A16</f>
         <v>5d5095a7-65cc-4657-8f3a-bd1c64f77b2b</v>
@@ -15956,7 +16151,7 @@
         <v>277533.9090081093</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="str">
         <f>Results!A22</f>
         <v>1bd12fe7-e558-4abd-86f1-e9ef7c3439b9</v>
@@ -16066,7 +16261,7 @@
         <v>253778.79438827973</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="str">
         <f>Results!A24</f>
         <v>9a6e8ecd-bb0a-4204-ab5d-8686be10b6af</v>
@@ -16176,7 +16371,7 @@
         <v>6629902747.9261084</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="str">
         <f>Results!A25</f>
         <v>5a9aec82-fca2-48bd-803d-66d103d777fb</v>
@@ -16286,7 +16481,7 @@
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D12">
         <f t="shared" ref="D12:J18" si="3">D3/54</f>
         <v>467816.80000000261</v>
@@ -16316,7 +16511,7 @@
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D13" s="8">
         <f t="shared" si="3"/>
         <v>107643343.2</v>
@@ -16353,7 +16548,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D14" s="8">
         <f t="shared" si="3"/>
         <v>86728.6</v>
@@ -16397,7 +16592,7 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D15">
         <f t="shared" si="3"/>
         <v>211083.6</v>
@@ -16431,10 +16626,10 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="48"/>
+      <c r="W15" s="47"/>
       <c r="X15" s="8"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D16" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -16470,7 +16665,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="4:24">
+    <row r="17" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D17" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -16513,7 +16708,7 @@
       <c r="W17" s="45"/>
       <c r="X17" s="8"/>
     </row>
-    <row r="18" spans="4:24">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -16556,13 +16751,13 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
     </row>
-    <row r="19" spans="4:24">
+    <row r="19" spans="4:24" x14ac:dyDescent="0.3">
       <c r="R19" s="21"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="48"/>
+      <c r="W19" s="47"/>
       <c r="X19" s="8"/>
     </row>
   </sheetData>
@@ -16570,1004 +16765,1121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2589047-AB2C-1546-BBBF-01D856EB5DFF}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E1" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F1" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I1" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="54">
+        <v>630466.13520000002</v>
+      </c>
+      <c r="D2" s="54">
+        <v>4113533.9070438663</v>
+      </c>
+      <c r="E2" s="54">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="F2" s="54">
+        <v>4744753.3386012306</v>
+      </c>
+      <c r="G2" s="54">
+        <v>5594990.9167991066</v>
+      </c>
+      <c r="H2" s="54">
+        <v>17220.724910639186</v>
+      </c>
+      <c r="I2" s="54">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="54">
+        <v>26728958.935199995</v>
+      </c>
+      <c r="D3" s="54">
+        <v>4113533.9070438663</v>
+      </c>
+      <c r="E3" s="54">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="F3" s="54">
+        <v>4744753.3386012306</v>
+      </c>
+      <c r="G3" s="54">
+        <v>5594990.9167991066</v>
+      </c>
+      <c r="H3" s="54">
+        <v>17220.724910639186</v>
+      </c>
+      <c r="I3" s="54">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="54">
+        <v>6837.1799999999967</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0.27747851403236745</v>
+      </c>
+      <c r="E4" s="54">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0.54687465295254967</v>
+      </c>
+      <c r="G4" s="54">
+        <v>0.49942301463786543</v>
+      </c>
+      <c r="H4" s="54">
+        <v>3.5682837815305545E-3</v>
+      </c>
+      <c r="I4" s="54">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="54">
+        <v>30767.309999999998</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0.27747851403236745</v>
+      </c>
+      <c r="E5" s="54">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="F5" s="54">
+        <v>0.54687465295254967</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0.49942301463786543</v>
+      </c>
+      <c r="H5" s="54">
+        <v>3.5682837815305545E-3</v>
+      </c>
+      <c r="I5" s="54">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0</v>
+      </c>
+      <c r="D6" s="54">
+        <v>1783.3371177688603</v>
+      </c>
+      <c r="E6" s="54">
+        <v>15.65466434602483</v>
+      </c>
+      <c r="F6" s="54">
+        <v>32.926631961777332</v>
+      </c>
+      <c r="G6" s="54">
+        <v>277.75696511623221</v>
+      </c>
+      <c r="H6" s="54">
+        <v>0.83687164026362992</v>
+      </c>
+      <c r="I6" s="54">
+        <v>33.22600997996404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0</v>
+      </c>
+      <c r="D7" s="54">
+        <v>20253601.637710914</v>
+      </c>
+      <c r="E7" s="54">
+        <v>7701094.9926574985</v>
+      </c>
+      <c r="F7" s="54">
+        <v>15292951.197525069</v>
+      </c>
+      <c r="G7" s="54">
+        <v>36949013.689920552</v>
+      </c>
+      <c r="H7" s="54">
+        <v>47571.203415352677</v>
+      </c>
+      <c r="I7" s="54">
+        <v>18683396.815427154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="54">
+        <v>0</v>
+      </c>
+      <c r="D8" s="54">
+        <v>1.5153080599897464</v>
+      </c>
+      <c r="E8" s="54">
+        <v>0.48623415113583118</v>
+      </c>
+      <c r="F8" s="54">
+        <v>1.3787279638927508</v>
+      </c>
+      <c r="G8" s="54">
+        <v>2.4319269835396082</v>
+      </c>
+      <c r="H8" s="54">
+        <v>4.7666844362048606E-3</v>
+      </c>
+      <c r="I8" s="54">
+        <v>1.6958613678000689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50">
-        <v>630466.13520000002</v>
-      </c>
-      <c r="C3" s="29">
-        <v>4113533.9070438663</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="B9" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="54">
+        <v>288655.10960000008</v>
+      </c>
+      <c r="D9" s="54">
+        <v>44680412.981284596</v>
+      </c>
+      <c r="E9" s="54">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E3" s="29">
-        <v>4744753.3386012306</v>
-      </c>
-      <c r="F3" s="29">
-        <v>5594990.9167991066</v>
-      </c>
-      <c r="G3" s="29">
-        <v>17220.724910639186</v>
-      </c>
-      <c r="H3" s="29">
+      <c r="F9" s="54">
+        <v>968910.19943819474</v>
+      </c>
+      <c r="G9" s="54">
+        <v>3223330.483496089</v>
+      </c>
+      <c r="H9" s="54">
+        <v>4328.6038079110258</v>
+      </c>
+      <c r="I9" s="54">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="46" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="29">
-        <v>26728958.935199995</v>
-      </c>
-      <c r="C4" s="29">
-        <v>4113533.9070438663</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="B10" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="54">
+        <v>12031437.1896</v>
+      </c>
+      <c r="D10" s="54">
+        <v>44680412.981284596</v>
+      </c>
+      <c r="E10" s="54">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E4" s="29">
-        <v>4744753.3386012306</v>
-      </c>
-      <c r="F4" s="29">
-        <v>5594990.9167991066</v>
-      </c>
-      <c r="G4" s="29">
-        <v>17220.724910639186</v>
-      </c>
-      <c r="H4" s="29">
+      <c r="F10" s="54">
+        <v>968910.19943819474</v>
+      </c>
+      <c r="G10" s="54">
+        <v>3223330.483496089</v>
+      </c>
+      <c r="H10" s="54">
+        <v>4328.6038079110258</v>
+      </c>
+      <c r="I10" s="54">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="46" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="29">
-        <v>6837.1799999999967</v>
-      </c>
-      <c r="C5" s="29">
-        <v>0.27747851403236745</v>
-      </c>
-      <c r="D5" s="29">
+      <c r="B11" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="54">
+        <v>3157.14</v>
+      </c>
+      <c r="D11" s="54">
+        <v>3.1118177295096698</v>
+      </c>
+      <c r="E11" s="54">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E5" s="29">
-        <v>0.54687465295254967</v>
-      </c>
-      <c r="F5" s="29">
-        <v>0.49942301463786543</v>
-      </c>
-      <c r="G5" s="29">
-        <v>3.5682837815305545E-3</v>
-      </c>
-      <c r="H5" s="29">
+      <c r="F11" s="54">
+        <v>0.10999882300059302</v>
+      </c>
+      <c r="G11" s="54">
+        <v>0.28784860068329066</v>
+      </c>
+      <c r="H11" s="54">
+        <v>1.3395513644780855E-3</v>
+      </c>
+      <c r="I11" s="54">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="46" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="29">
-        <v>30767.309999999998</v>
-      </c>
-      <c r="C6" s="29">
-        <v>0.27747851403236745</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="B12" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="54">
+        <v>13872.25</v>
+      </c>
+      <c r="D12" s="54">
+        <v>3.1118177295096698</v>
+      </c>
+      <c r="E12" s="54">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E6" s="29">
-        <v>0.54687465295254967</v>
-      </c>
-      <c r="F6" s="29">
-        <v>0.49942301463786543</v>
-      </c>
-      <c r="G6" s="29">
-        <v>3.5682837815305545E-3</v>
-      </c>
-      <c r="H6" s="29">
+      <c r="F12" s="54">
+        <v>0.10999882300059302</v>
+      </c>
+      <c r="G12" s="54">
+        <v>0.28784860068329066</v>
+      </c>
+      <c r="H12" s="54">
+        <v>1.3395513644780855E-3</v>
+      </c>
+      <c r="I12" s="54">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="29" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29">
-        <v>1783.3371177688603</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="B13" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="54">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54">
+        <v>12473.4086030452</v>
+      </c>
+      <c r="E13" s="54">
         <v>15.65466434602483</v>
       </c>
-      <c r="E7" s="29">
-        <v>32.926631961777332</v>
-      </c>
-      <c r="F7" s="29">
-        <v>277.75696511623221</v>
-      </c>
-      <c r="G7" s="29">
-        <v>0.83687164026362992</v>
-      </c>
-      <c r="H7" s="29">
+      <c r="F13" s="54">
+        <v>6.7162504899370443</v>
+      </c>
+      <c r="G13" s="54">
+        <v>159.77569797841963</v>
+      </c>
+      <c r="H13" s="54">
+        <v>0.15849357444046022</v>
+      </c>
+      <c r="I13" s="54">
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29">
-        <v>20253601.637710914</v>
-      </c>
-      <c r="D8" s="29">
-        <v>7701094.9926574985</v>
-      </c>
-      <c r="E8" s="29">
-        <v>15292951.197525069</v>
-      </c>
-      <c r="F8" s="29">
-        <v>36949013.689920552</v>
-      </c>
-      <c r="G8" s="29">
-        <v>47571.203415352677</v>
-      </c>
-      <c r="H8" s="29">
+      <c r="B14" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="54">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54">
+        <v>280703930.50702399</v>
+      </c>
+      <c r="E14" s="54">
+        <v>7701094.9926574994</v>
+      </c>
+      <c r="F14" s="54">
+        <v>3114043.0979245142</v>
+      </c>
+      <c r="G14" s="54">
+        <v>21269740.344604127</v>
+      </c>
+      <c r="H14" s="54">
+        <v>22931.638668104453</v>
+      </c>
+      <c r="I14" s="54">
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="51">
-        <v>1.5153080599897464</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="B15" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54">
+        <v>19.1361268975229</v>
+      </c>
+      <c r="E15" s="54">
         <v>0.48623415113583118</v>
       </c>
-      <c r="E9" s="29">
-        <v>1.3787279638927508</v>
-      </c>
-      <c r="F9" s="29">
-        <v>2.4319269835396082</v>
-      </c>
-      <c r="G9" s="29">
-        <v>4.7666844362048606E-3</v>
-      </c>
-      <c r="H9" s="29">
+      <c r="F15" s="54">
+        <v>0.28140976012724422</v>
+      </c>
+      <c r="G15" s="54">
+        <v>1.3995528389592491</v>
+      </c>
+      <c r="H15" s="54">
+        <v>2.5803729087505245E-3</v>
+      </c>
+      <c r="I15" s="54">
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="46" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="29">
-        <v>288655.10960000008</v>
-      </c>
-      <c r="C15" s="29">
-        <v>44680412.981284596</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="B16" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="54">
+        <v>467816.80000000261</v>
+      </c>
+      <c r="D16" s="54">
+        <v>11018755.479632294</v>
+      </c>
+      <c r="E16" s="54">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E15" s="29">
-        <v>968910.19943819474</v>
-      </c>
-      <c r="F15" s="29">
-        <v>3223330.483496089</v>
-      </c>
-      <c r="G15" s="29">
-        <v>4328.6038079110258</v>
-      </c>
-      <c r="H15" s="29">
+      <c r="F16" s="54">
+        <v>4793267.4795996109</v>
+      </c>
+      <c r="G16" s="54">
+        <v>8984275.3361050114</v>
+      </c>
+      <c r="H16" s="54">
+        <v>11043.18682335895</v>
+      </c>
+      <c r="I16" s="54">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="46" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="29">
-        <v>12031437.1896</v>
-      </c>
-      <c r="C16" s="29">
-        <v>44680412.981284596</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="B17" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="54">
+        <v>107643343.2</v>
+      </c>
+      <c r="D17" s="54">
+        <v>11018755.479632294</v>
+      </c>
+      <c r="E17" s="54">
         <v>1616263.5572494173</v>
       </c>
-      <c r="E16" s="29">
-        <v>968910.19943819474</v>
-      </c>
-      <c r="F16" s="29">
-        <v>3223330.483496089</v>
-      </c>
-      <c r="G16" s="29">
-        <v>4328.6038079110258</v>
-      </c>
-      <c r="H16" s="29">
+      <c r="F17" s="54">
+        <v>4793267.4795996109</v>
+      </c>
+      <c r="G17" s="54">
+        <v>8984275.3361050114</v>
+      </c>
+      <c r="H17" s="54">
+        <v>11043.18682335895</v>
+      </c>
+      <c r="I17" s="54">
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="46" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="29">
-        <v>3157.14</v>
-      </c>
-      <c r="C17" s="29">
-        <v>3.1118177295096698</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="B18" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="54">
+        <v>86728.6</v>
+      </c>
+      <c r="D18" s="54">
+        <v>0.74573505127734652</v>
+      </c>
+      <c r="E18" s="54">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E17" s="29">
-        <v>0.10999882300059302</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0.28784860068329066</v>
-      </c>
-      <c r="G17" s="29">
-        <v>1.3395513644780855E-3</v>
-      </c>
-      <c r="H17" s="29">
+      <c r="F18" s="54">
+        <v>0.22329274937454158</v>
+      </c>
+      <c r="G18" s="54">
+        <v>0.75392759599629455</v>
+      </c>
+      <c r="H18" s="54">
+        <v>1.8928006407470293E-3</v>
+      </c>
+      <c r="I18" s="54">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="46" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="29">
-        <v>13872.25</v>
-      </c>
-      <c r="C18" s="29">
-        <v>3.1118177295096698</v>
-      </c>
-      <c r="D18" s="29">
+      <c r="B19" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="54">
+        <v>211083.6</v>
+      </c>
+      <c r="D19" s="54">
+        <v>0.74573505127734696</v>
+      </c>
+      <c r="E19" s="54">
         <v>0.15657529619262275</v>
       </c>
-      <c r="E18" s="29">
-        <v>0.10999882300059302</v>
-      </c>
-      <c r="F18" s="29">
-        <v>0.28784860068329066</v>
-      </c>
-      <c r="G18" s="29">
-        <v>1.3395513644780855E-3</v>
-      </c>
-      <c r="H18" s="29">
+      <c r="F19" s="54">
+        <v>0.22329274937454158</v>
+      </c>
+      <c r="G19" s="54">
+        <v>0.75392759599629455</v>
+      </c>
+      <c r="H19" s="54">
+        <v>1.8928006407470293E-3</v>
+      </c>
+      <c r="I19" s="54">
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="29" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="29">
-        <v>0</v>
-      </c>
-      <c r="C19" s="29">
-        <v>12473.4086030452</v>
-      </c>
-      <c r="D19" s="29">
+      <c r="B20" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="54">
+        <v>0</v>
+      </c>
+      <c r="D20" s="54">
+        <v>2719.7256868327318</v>
+      </c>
+      <c r="E20" s="54">
         <v>15.65466434602483</v>
       </c>
-      <c r="E19" s="29">
-        <v>6.7162504899370443</v>
-      </c>
-      <c r="F19" s="29">
-        <v>159.77569797841963</v>
-      </c>
-      <c r="G19" s="29">
-        <v>0.15849357444046022</v>
-      </c>
-      <c r="H19" s="29">
+      <c r="F20" s="54">
+        <v>34.596428111635966</v>
+      </c>
+      <c r="G20" s="54">
+        <v>510.20211806069682</v>
+      </c>
+      <c r="H20" s="54">
+        <v>0.19478691182100277</v>
+      </c>
+      <c r="I20" s="54">
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="29" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="29">
-        <v>0</v>
-      </c>
-      <c r="C20" s="29">
-        <v>280703930.50702399</v>
-      </c>
-      <c r="D20" s="29">
+      <c r="B21" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0</v>
+      </c>
+      <c r="D21" s="54">
+        <v>69735037.475485206</v>
+      </c>
+      <c r="E21" s="54">
         <v>7701094.9926574994</v>
       </c>
-      <c r="E20" s="29">
-        <v>3114043.0979245142</v>
-      </c>
-      <c r="F20" s="29">
-        <v>21269740.344604127</v>
-      </c>
-      <c r="G20" s="29">
-        <v>22931.638668104453</v>
-      </c>
-      <c r="H20" s="29">
+      <c r="F21" s="54">
+        <v>17124098.336521085</v>
+      </c>
+      <c r="G21" s="54">
+        <v>61938424.028104655</v>
+      </c>
+      <c r="H21" s="54">
+        <v>17341.877787438436</v>
+      </c>
+      <c r="I21" s="54">
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="29" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29">
-        <v>0</v>
-      </c>
-      <c r="C21" s="29">
-        <v>19.1361268975229</v>
-      </c>
-      <c r="D21" s="29">
+      <c r="B22" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="54">
+        <v>0</v>
+      </c>
+      <c r="D22" s="54">
+        <v>4.5853853789451549</v>
+      </c>
+      <c r="E22" s="54">
         <v>0.48623415113583118</v>
       </c>
-      <c r="E21" s="29">
-        <v>0.28140976012724422</v>
-      </c>
-      <c r="F21" s="29">
-        <v>1.3995528389592491</v>
-      </c>
-      <c r="G21" s="29">
-        <v>2.5803729087505245E-3</v>
-      </c>
-      <c r="H21" s="29">
+      <c r="F22" s="54">
+        <v>1.520253794218255</v>
+      </c>
+      <c r="G22" s="54">
+        <v>4.1811083796708388</v>
+      </c>
+      <c r="H22" s="54">
+        <v>1.6539262753034992E-3</v>
+      </c>
+      <c r="I22" s="54">
         <v>1.6958613678000689</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="16" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="54">
+        <v>467816.80000000261</v>
+      </c>
+      <c r="D23" s="54">
+        <v>11018755.479632294</v>
+      </c>
+      <c r="E23" s="54">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="F23" s="54">
+        <v>4793267.4795996109</v>
+      </c>
+      <c r="G23" s="54">
+        <v>8984275.3361050114</v>
+      </c>
+      <c r="H23" s="54">
+        <v>11043.18682335895</v>
+      </c>
+      <c r="I23" s="54">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="54">
+        <v>107643343.2</v>
+      </c>
+      <c r="D24" s="54">
+        <v>11018755.479632294</v>
+      </c>
+      <c r="E24" s="54">
+        <v>1616263.5572494173</v>
+      </c>
+      <c r="F24" s="54">
+        <v>4793267.4795996109</v>
+      </c>
+      <c r="G24" s="54">
+        <v>8984275.3361050114</v>
+      </c>
+      <c r="H24" s="54">
+        <v>11043.18682335895</v>
+      </c>
+      <c r="I24" s="54">
+        <v>5666556.7423715731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="54">
+        <v>86728.6</v>
+      </c>
+      <c r="D25" s="54">
+        <v>0.74573505127734652</v>
+      </c>
+      <c r="E25" s="54">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="F25" s="54">
+        <v>0.22329274937454158</v>
+      </c>
+      <c r="G25" s="54">
+        <v>0.75392759599629455</v>
+      </c>
+      <c r="H25" s="54">
+        <v>1.8928006407470293E-3</v>
+      </c>
+      <c r="I25" s="54">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="54">
+        <v>211083.6</v>
+      </c>
+      <c r="D26" s="54">
+        <v>0.74573505127734696</v>
+      </c>
+      <c r="E26" s="54">
+        <v>0.15657529619262275</v>
+      </c>
+      <c r="F26" s="54">
+        <v>0.22329274937454158</v>
+      </c>
+      <c r="G26" s="54">
+        <v>0.75392759599629455</v>
+      </c>
+      <c r="H26" s="54">
+        <v>1.8928006407470293E-3</v>
+      </c>
+      <c r="I26" s="54">
+        <v>0.7778704047126872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="54">
+        <v>0</v>
+      </c>
+      <c r="D27" s="54">
+        <v>2719.7256868327318</v>
+      </c>
+      <c r="E27" s="54">
+        <v>15.65466434602483</v>
+      </c>
+      <c r="F27" s="54">
+        <v>34.596428111635966</v>
+      </c>
+      <c r="G27" s="54">
+        <v>510.20211806069682</v>
+      </c>
+      <c r="H27" s="54">
+        <v>0.19478691182100277</v>
+      </c>
+      <c r="I27" s="54">
+        <v>33.22600997996404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="54">
+        <v>0</v>
+      </c>
+      <c r="D28" s="54">
+        <v>69735037.475485206</v>
+      </c>
+      <c r="E28" s="54">
+        <v>7701094.9926574994</v>
+      </c>
+      <c r="F28" s="54">
+        <v>17124098.336521085</v>
+      </c>
+      <c r="G28" s="54">
+        <v>61938424.028104655</v>
+      </c>
+      <c r="H28" s="54">
+        <v>17341.877787438436</v>
+      </c>
+      <c r="I28" s="54">
+        <v>18683396.815427154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="54">
+        <v>0</v>
+      </c>
+      <c r="D29" s="54">
+        <v>4.5853853789451549</v>
+      </c>
+      <c r="E29" s="54">
+        <v>0.48623415113583118</v>
+      </c>
+      <c r="F29" s="54">
+        <v>1.520253794218255</v>
+      </c>
+      <c r="G29" s="54">
+        <v>4.1811083796708388</v>
+      </c>
+      <c r="H29" s="54">
+        <v>1.6539262753034992E-3</v>
+      </c>
+      <c r="I29" s="54">
+        <v>1.6958613678000689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="29">
-        <v>467816.80000000261</v>
-      </c>
-      <c r="C27" s="29">
-        <v>11018755.479632294</v>
-      </c>
-      <c r="D27" s="29">
-        <v>1616263.5572494173</v>
-      </c>
-      <c r="E27" s="29">
-        <v>4793267.4795996109</v>
-      </c>
-      <c r="F27" s="29">
-        <v>8984275.3361050114</v>
-      </c>
-      <c r="G27" s="29">
-        <v>11043.18682335895</v>
-      </c>
-      <c r="H27" s="29">
-        <v>5666556.7423715731</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="29">
-        <v>107643343.2</v>
-      </c>
-      <c r="C28" s="29">
-        <v>11018755.479632294</v>
-      </c>
-      <c r="D28" s="29">
-        <v>1616263.5572494173</v>
-      </c>
-      <c r="E28" s="29">
-        <v>4793267.4795996109</v>
-      </c>
-      <c r="F28" s="29">
-        <v>8984275.3361050114</v>
-      </c>
-      <c r="G28" s="29">
-        <v>11043.18682335895</v>
-      </c>
-      <c r="H28" s="29">
-        <v>5666556.7423715731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="29">
-        <v>86728.6</v>
-      </c>
-      <c r="C29" s="29">
-        <v>0.74573505127734652</v>
-      </c>
-      <c r="D29" s="29">
-        <v>0.15657529619262275</v>
-      </c>
-      <c r="E29" s="29">
-        <v>0.22329274937454158</v>
-      </c>
-      <c r="F29" s="29">
-        <v>0.75392759599629455</v>
-      </c>
-      <c r="G29" s="29">
-        <v>1.8928006407470293E-3</v>
-      </c>
-      <c r="H29" s="29">
-        <v>0.7778704047126872</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="29">
-        <v>211083.6</v>
-      </c>
-      <c r="C30" s="29">
-        <v>0.74573505127734696</v>
-      </c>
-      <c r="D30" s="29">
-        <v>0.15657529619262275</v>
-      </c>
-      <c r="E30" s="29">
-        <v>0.22329274937454158</v>
-      </c>
-      <c r="F30" s="29">
-        <v>0.75392759599629455</v>
-      </c>
-      <c r="G30" s="29">
-        <v>1.8928006407470293E-3</v>
-      </c>
-      <c r="H30" s="29">
-        <v>0.7778704047126872</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="29">
-        <v>0</v>
-      </c>
-      <c r="C31" s="29">
-        <v>2719.7256868327318</v>
-      </c>
-      <c r="D31" s="29">
-        <v>15.65466434602483</v>
-      </c>
-      <c r="E31" s="29">
-        <v>34.596428111635966</v>
-      </c>
-      <c r="F31" s="29">
-        <v>510.20211806069682</v>
-      </c>
-      <c r="G31" s="29">
-        <v>0.19478691182100277</v>
-      </c>
-      <c r="H31" s="29">
-        <v>33.22600997996404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="29">
-        <v>0</v>
-      </c>
-      <c r="C32" s="29">
-        <v>69735037.475485206</v>
-      </c>
-      <c r="D32" s="29">
-        <v>7701094.9926574994</v>
-      </c>
-      <c r="E32" s="29">
-        <v>17124098.336521085</v>
-      </c>
-      <c r="F32" s="29">
-        <v>61938424.028104655</v>
-      </c>
-      <c r="G32" s="29">
-        <v>17341.877787438436</v>
-      </c>
-      <c r="H32" s="29">
-        <v>18683396.815427154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="29">
-        <v>0</v>
-      </c>
-      <c r="C33" s="29">
-        <v>4.5853853789451549</v>
-      </c>
-      <c r="D33" s="29">
-        <v>0.48623415113583118</v>
-      </c>
-      <c r="E33" s="29">
-        <v>1.520253794218255</v>
-      </c>
-      <c r="F33" s="29">
-        <v>4.1811083796708388</v>
-      </c>
-      <c r="G33" s="29">
-        <v>1.6539262753034992E-3</v>
-      </c>
-      <c r="H33" s="29">
-        <v>1.6958613678000689</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="29">
-        <f t="shared" ref="B39:H40" si="0">(B3+B15)/2</f>
+      <c r="C30" s="54">
+        <f t="shared" ref="C30:I36" si="0">(C2+C9)/2</f>
         <v>459560.62240000005</v>
       </c>
-      <c r="C39" s="29">
+      <c r="D30" s="54">
         <f t="shared" si="0"/>
         <v>24396973.444164231</v>
       </c>
-      <c r="D39" s="29">
+      <c r="E30" s="54">
         <f t="shared" si="0"/>
         <v>1616263.5572494173</v>
       </c>
-      <c r="E39" s="29">
+      <c r="F30" s="54">
         <f t="shared" si="0"/>
         <v>2856831.7690197127</v>
       </c>
-      <c r="F39" s="29">
+      <c r="G30" s="54">
         <f t="shared" si="0"/>
         <v>4409160.7001475981</v>
       </c>
-      <c r="G39" s="29">
+      <c r="H30" s="54">
         <f t="shared" si="0"/>
         <v>10774.664359275106</v>
       </c>
-      <c r="H39" s="29">
+      <c r="I30" s="54">
         <f t="shared" si="0"/>
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="46" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B31" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="54">
         <f t="shared" si="0"/>
         <v>19380198.062399998</v>
       </c>
-      <c r="C40" s="29">
+      <c r="D31" s="54">
         <f t="shared" si="0"/>
         <v>24396973.444164231</v>
       </c>
-      <c r="D40" s="29">
+      <c r="E31" s="54">
         <f t="shared" si="0"/>
         <v>1616263.5572494173</v>
       </c>
-      <c r="E40" s="29">
+      <c r="F31" s="54">
         <f t="shared" si="0"/>
         <v>2856831.7690197127</v>
       </c>
-      <c r="F40" s="29">
+      <c r="G31" s="54">
         <f t="shared" si="0"/>
         <v>4409160.7001475981</v>
       </c>
-      <c r="G40" s="29">
+      <c r="H31" s="54">
         <f t="shared" si="0"/>
         <v>10774.664359275106</v>
       </c>
-      <c r="H40" s="29">
+      <c r="I31" s="54">
         <f t="shared" si="0"/>
         <v>5666556.7423715731</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="46" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="29">
-        <f t="shared" ref="B41:D45" si="1">(B5+B17)/2</f>
+      <c r="B32" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="54">
+        <f t="shared" si="0"/>
         <v>4997.159999999998</v>
       </c>
-      <c r="C41" s="29">
-        <f t="shared" si="1"/>
+      <c r="D32" s="54">
+        <f t="shared" si="0"/>
         <v>1.6946481217710185</v>
       </c>
-      <c r="D41" s="29">
-        <f t="shared" si="1"/>
+      <c r="E32" s="54">
+        <f t="shared" si="0"/>
         <v>0.15657529619262275</v>
       </c>
-      <c r="E41" s="29">
-        <f>(E5+E17)/2</f>
+      <c r="F32" s="54">
+        <f t="shared" si="0"/>
         <v>0.32843673797657136</v>
       </c>
-      <c r="F41" s="29">
-        <f t="shared" ref="F41:H45" si="2">(F5+F17)/2</f>
+      <c r="G32" s="54">
+        <f t="shared" si="0"/>
         <v>0.39363580766057804</v>
       </c>
-      <c r="G41" s="29">
-        <f t="shared" si="2"/>
+      <c r="H32" s="54">
+        <f t="shared" si="0"/>
         <v>2.4539175730043201E-3</v>
       </c>
-      <c r="H41" s="29">
-        <f t="shared" si="2"/>
+      <c r="I32" s="54">
+        <f t="shared" si="0"/>
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="46" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="29">
-        <f t="shared" si="1"/>
+      <c r="B33" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="54">
+        <f t="shared" si="0"/>
         <v>22319.78</v>
       </c>
-      <c r="C42" s="29">
-        <f t="shared" si="1"/>
+      <c r="D33" s="54">
+        <f t="shared" si="0"/>
         <v>1.6946481217710185</v>
       </c>
-      <c r="D42" s="29">
-        <f t="shared" si="1"/>
+      <c r="E33" s="54">
+        <f t="shared" si="0"/>
         <v>0.15657529619262275</v>
       </c>
-      <c r="E42" s="29">
-        <f>(E6+E18)/2</f>
+      <c r="F33" s="54">
+        <f t="shared" si="0"/>
         <v>0.32843673797657136</v>
       </c>
-      <c r="F42" s="29">
-        <f t="shared" si="2"/>
+      <c r="G33" s="54">
+        <f t="shared" si="0"/>
         <v>0.39363580766057804</v>
       </c>
-      <c r="G42" s="29">
-        <f t="shared" si="2"/>
+      <c r="H33" s="54">
+        <f t="shared" si="0"/>
         <v>2.4539175730043201E-3</v>
       </c>
-      <c r="H42" s="29">
-        <f t="shared" si="2"/>
+      <c r="I33" s="54">
+        <f t="shared" si="0"/>
         <v>0.7778704047126872</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="29" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="29">
-        <f t="shared" si="1"/>
+      <c r="B34" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="54">
+        <f t="shared" si="0"/>
         <v>7128.3728604070302</v>
       </c>
-      <c r="D43" s="29">
-        <f t="shared" si="1"/>
+      <c r="E34" s="54">
+        <f t="shared" si="0"/>
         <v>15.65466434602483</v>
       </c>
-      <c r="E43" s="29">
-        <f>(E7+E19)/2</f>
+      <c r="F34" s="54">
+        <f t="shared" si="0"/>
         <v>19.821441225857189</v>
       </c>
-      <c r="F43" s="29">
-        <f t="shared" si="2"/>
+      <c r="G34" s="54">
+        <f t="shared" si="0"/>
         <v>218.76633154732593</v>
       </c>
-      <c r="G43" s="29">
-        <f t="shared" si="2"/>
+      <c r="H34" s="54">
+        <f t="shared" si="0"/>
         <v>0.49768260735204506</v>
       </c>
-      <c r="H43" s="29">
-        <f t="shared" si="2"/>
+      <c r="I34" s="54">
+        <f t="shared" si="0"/>
         <v>33.22600997996404</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="29" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C44" s="29">
-        <f t="shared" si="1"/>
+      <c r="B35" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="54">
+        <f t="shared" si="0"/>
         <v>150478766.07236746</v>
       </c>
-      <c r="D44" s="29">
-        <f t="shared" si="1"/>
+      <c r="E35" s="54">
+        <f t="shared" si="0"/>
         <v>7701094.9926574994</v>
       </c>
-      <c r="E44" s="29">
-        <f>(E8+E20)/2</f>
+      <c r="F35" s="54">
+        <f t="shared" si="0"/>
         <v>9203497.1477247924</v>
       </c>
-      <c r="F44" s="29">
-        <f t="shared" si="2"/>
+      <c r="G35" s="54">
+        <f t="shared" si="0"/>
         <v>29109377.01726234</v>
       </c>
-      <c r="G44" s="29">
-        <f t="shared" si="2"/>
+      <c r="H35" s="54">
+        <f t="shared" si="0"/>
         <v>35251.421041728565</v>
       </c>
-      <c r="H44" s="29">
-        <f t="shared" si="2"/>
+      <c r="I35" s="54">
+        <f t="shared" si="0"/>
         <v>18683396.815427154</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="29" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C45" s="29">
-        <f t="shared" si="1"/>
+      <c r="B36" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="54">
+        <f t="shared" si="0"/>
         <v>10.325717478756323</v>
       </c>
-      <c r="D45" s="29">
-        <f t="shared" si="1"/>
+      <c r="E36" s="54">
+        <f t="shared" si="0"/>
         <v>0.48623415113583118</v>
       </c>
-      <c r="E45" s="29">
-        <f>(E9+E21)/2</f>
+      <c r="F36" s="54">
+        <f t="shared" si="0"/>
         <v>0.83006886200999752</v>
       </c>
-      <c r="F45" s="29">
-        <f t="shared" si="2"/>
+      <c r="G36" s="54">
+        <f t="shared" si="0"/>
         <v>1.9157399112494287</v>
       </c>
-      <c r="G45" s="29">
-        <f t="shared" si="2"/>
+      <c r="H36" s="54">
+        <f t="shared" si="0"/>
         <v>3.6735286724776926E-3</v>
       </c>
-      <c r="H45" s="29">
-        <f t="shared" si="2"/>
+      <c r="I36" s="54">
+        <f t="shared" si="0"/>
         <v>1.6958613678000689</v>
       </c>
     </row>
@@ -17578,7 +17890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445714A6-DB77-4E6D-8803-0121084C8619}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -17586,7 +17898,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
@@ -17600,7 +17912,7 @@
     <col min="25" max="27" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f t="array" ref="A1:I27">TRANSPOSE(Final!A1:AA9)</f>
         <v>Constellation</v>
@@ -17630,7 +17942,7 @@
         <v>5a9aec82-fca2-48bd-803d-66d103d777fb</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <v>Constellation</v>
       </c>
@@ -17659,7 +17971,7 @@
         <v>Toxicity - Human Toxicity</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>Reference unit</v>
       </c>
@@ -17688,7 +18000,7 @@
         <v>cases</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <v>Kuiper</v>
       </c>
@@ -17717,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <v>Kuiper</v>
       </c>
@@ -17746,7 +18058,7 @@
         <v>247.61081046303838</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <v>Kuiper</v>
       </c>
@@ -17775,7 +18087,7 @@
         <v>26.256644161334883</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <v>Kuiper</v>
       </c>
@@ -17804,7 +18116,7 @@
         <v>82.093704887785776</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <v>Kuiper</v>
       </c>
@@ -17833,7 +18145,7 @@
         <v>225.77985250222531</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <v>Kuiper</v>
       </c>
@@ -17862,7 +18174,7 @@
         <v>8.9312018866388954E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <v>Kuiper</v>
       </c>
@@ -17891,7 +18203,7 @@
         <v>91.576513861203722</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <v>Starlink</v>
       </c>
@@ -17920,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1">
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <v>Starlink</v>
       </c>
@@ -17949,7 +18261,7 @@
         <v>112.13279643924123</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1">
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <v>Starlink</v>
       </c>
@@ -17978,7 +18290,7 @@
         <v>35.981327184051509</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1">
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <v>Starlink</v>
       </c>
@@ -18007,7 +18319,7 @@
         <v>102.02586932806355</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1">
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <v>Starlink</v>
       </c>
@@ -18036,7 +18348,7 @@
         <v>179.96259678193101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1">
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <v>Starlink</v>
       </c>
@@ -18065,7 +18377,7 @@
         <v>0.35273464827915968</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1">
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="str">
         <v>Starlink</v>
       </c>
@@ -18094,7 +18406,7 @@
         <v>125.4937412172051</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <v>OneWeb</v>
       </c>
@@ -18123,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <v>OneWeb</v>
       </c>
@@ -18152,7 +18464,7 @@
         <v>382.72253795045799</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <v>OneWeb</v>
       </c>
@@ -18181,7 +18493,7 @@
         <v>9.7246830227166239</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <v>OneWeb</v>
       </c>
@@ -18210,7 +18522,7 @@
         <v>5.6281952025448847</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <v>OneWeb</v>
       </c>
@@ -18239,7 +18551,7 @@
         <v>27.99105677918498</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <v>OneWeb</v>
       </c>
@@ -18268,7 +18580,7 @@
         <v>5.1607458175010487E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <v>OneWeb</v>
       </c>
@@ -18297,7 +18609,7 @@
         <v>33.917227356001376</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <v>TOTAL Kupier</v>
       </c>
@@ -18326,7 +18638,7 @@
         <v>673.40683789445438</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <v>TOTAL Starlink</v>
       </c>
@@ -18355,7 +18667,7 @@
         <v>555.94906559877165</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <v>TOTAL OneWeb</v>
       </c>
@@ -18384,7 +18696,7 @@
         <v>460.03530776908087</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="F28" s="21"/>
@@ -18398,7 +18710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2EF0A-47A9-4BD2-8B71-3C2A201626BA}">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -18406,28 +18718,28 @@
       <selection activeCell="B3" sqref="B3:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>147</v>
       </c>
@@ -18468,7 +18780,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>149</v>
       </c>
@@ -18509,7 +18821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>150</v>
       </c>
@@ -18542,7 +18854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1">
+    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>160</v>
       </c>
@@ -18563,7 +18875,7 @@
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
@@ -18604,7 +18916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1">
+    <row r="7" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>152</v>
       </c>
@@ -18635,7 +18947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1">
+    <row r="8" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>153</v>
       </c>
@@ -18666,7 +18978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1">
+    <row r="9" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>154</v>
       </c>
@@ -18697,7 +19009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>148</v>
       </c>
@@ -18718,42 +19030,42 @@
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -18768,7 +19080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849708CD-AF9C-FA44-89D3-3AC8A37EFCC0}">
   <dimension ref="A1:L78"/>
   <sheetViews>
@@ -18776,25 +19088,25 @@
       <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="55">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="53">
         <v>2019</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53">
         <v>2020</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53">
         <v>2021</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53">
         <v>2022</v>
       </c>
-      <c r="H1" s="55"/>
+      <c r="H1" s="53"/>
       <c r="J1">
         <v>2023</v>
       </c>
@@ -18802,7 +19114,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="42">
         <v>45413</v>
       </c>
@@ -18837,7 +19149,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="43">
         <v>45241</v>
       </c>
@@ -18872,7 +19184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C4" s="39">
         <v>44974</v>
       </c>
@@ -18901,7 +19213,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5" s="39">
         <v>45003</v>
       </c>
@@ -18930,7 +19242,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C6" s="39">
         <v>45038</v>
       </c>
@@ -18959,7 +19271,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="39">
         <v>45090</v>
       </c>
@@ -18988,7 +19300,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="39">
         <v>45081</v>
       </c>
@@ -19017,7 +19329,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="39">
         <v>45156</v>
       </c>
@@ -19046,7 +19358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="39">
         <v>45145</v>
       </c>
@@ -19075,7 +19387,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="39">
         <v>45172</v>
       </c>
@@ -19104,7 +19416,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="39">
         <v>45205</v>
       </c>
@@ -19133,7 +19445,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="39">
         <v>45217</v>
       </c>
@@ -19162,7 +19474,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="39">
         <v>45223</v>
       </c>
@@ -19191,7 +19503,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="39">
         <v>45255</v>
       </c>
@@ -19220,7 +19532,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16" s="40">
         <v>45072</v>
       </c>
@@ -19243,7 +19555,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="5:11">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="40">
         <v>45050</v>
       </c>
@@ -19266,7 +19578,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="5:11">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="40">
         <v>45055</v>
       </c>
@@ -19289,7 +19601,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="5:11">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="40">
         <v>45243</v>
       </c>
@@ -19312,7 +19624,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="5:11">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20" s="40">
         <v>45183</v>
       </c>
@@ -19335,7 +19647,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="5:11">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G21" s="36">
         <v>45094</v>
       </c>
@@ -19352,7 +19664,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="5:11">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G22" s="36">
         <v>45004</v>
       </c>
@@ -19369,7 +19681,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="5:11">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G23" s="36">
         <v>44988</v>
       </c>
@@ -19386,7 +19698,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="5:11">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G24" s="36">
         <v>44994</v>
       </c>
@@ -19403,7 +19715,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="5:11">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G25" s="36">
         <v>45059</v>
       </c>
@@ -19420,7 +19732,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="5:11">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G26" s="36">
         <v>45060</v>
       </c>
@@ -19437,7 +19749,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="5:11">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G27" s="36">
         <v>45064</v>
       </c>
@@ -19454,7 +19766,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="5:11">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G28" s="36">
         <v>45052</v>
       </c>
@@ -19471,7 +19783,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="5:11">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G29" s="36">
         <v>45219</v>
       </c>
@@ -19488,7 +19800,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="5:11">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G30" s="36">
         <v>45227</v>
       </c>
@@ -19505,7 +19817,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="5:11">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G31" s="36">
         <v>45204</v>
       </c>
@@ -19522,7 +19834,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="5:11">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G32" s="36">
         <v>45180</v>
       </c>
@@ -19539,7 +19851,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G33" s="36">
         <v>45188</v>
       </c>
@@ -19556,7 +19868,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -19577,7 +19889,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G35" s="36">
         <v>45174</v>
       </c>
@@ -19594,7 +19906,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I36" s="35">
         <v>45170</v>
       </c>
@@ -19605,7 +19917,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I37" s="35">
         <v>45181</v>
       </c>
@@ -19616,7 +19928,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I38" s="35">
         <v>45185</v>
       </c>
@@ -19627,7 +19939,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I39" s="35">
         <v>45189</v>
       </c>
@@ -19638,7 +19950,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I40" s="35">
         <v>45193</v>
       </c>
@@ -19649,7 +19961,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I41" s="35">
         <v>45194</v>
       </c>
@@ -19660,7 +19972,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I42" s="35">
         <v>45173</v>
       </c>
@@ -19671,7 +19983,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I43" s="35">
         <v>45178</v>
       </c>
@@ -19682,7 +19994,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I44" s="35">
         <v>45258</v>
       </c>
@@ -19693,7 +20005,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I45" s="35">
         <v>45252</v>
       </c>
@@ -19704,7 +20016,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I46" s="35">
         <v>45250</v>
       </c>
@@ -19715,7 +20027,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I47" s="35">
         <v>45248</v>
       </c>
@@ -19726,7 +20038,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I48" s="35">
         <v>45238</v>
       </c>
@@ -19737,7 +20049,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I49" s="35">
         <v>45233</v>
       </c>
@@ -19748,7 +20060,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I50" s="35">
         <v>45229</v>
       </c>
@@ -19759,7 +20071,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I51" s="35">
         <v>45228</v>
       </c>
@@ -19770,7 +20082,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I52" s="35">
         <v>45220</v>
       </c>
@@ -19781,7 +20093,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I53" s="35">
         <v>45220</v>
       </c>
@@ -19792,7 +20104,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I54" s="35">
         <v>45216</v>
       </c>
@@ -19803,7 +20115,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I55" s="35">
         <v>45212</v>
       </c>
@@ -19814,7 +20126,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I56" s="35">
         <v>45208</v>
       </c>
@@ -19825,7 +20137,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I57" s="35">
         <v>45207</v>
       </c>
@@ -19836,7 +20148,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I58" s="35">
         <v>45204</v>
       </c>
@@ -19847,7 +20159,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I59" s="35">
         <v>45198</v>
       </c>
@@ -19858,7 +20170,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I60" s="35">
         <v>45262</v>
       </c>
@@ -19869,13 +20181,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I61" s="35"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I62" s="35"/>
     </row>
-    <row r="63" spans="1:12" s="20" customFormat="1">
+    <row r="63" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>95</v>
       </c>
@@ -19904,7 +20216,7 @@
         <v>5556</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="35">
         <v>44984</v>
       </c>
@@ -19933,7 +20245,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C66" s="35">
         <v>44963</v>
       </c>
@@ -19956,7 +20268,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C67" s="35">
         <v>45006</v>
       </c>
@@ -19973,7 +20285,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E68" s="35">
         <v>45108</v>
       </c>
@@ -19984,7 +20296,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E69" s="35">
         <v>45010</v>
       </c>
@@ -19995,7 +20307,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E70" s="35">
         <v>45074</v>
       </c>
@@ -20006,7 +20318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E71" s="35">
         <v>45213</v>
       </c>
@@ -20017,7 +20329,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E72" s="35">
         <v>45183</v>
       </c>
@@ -20028,7 +20340,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E73" s="35"/>
       <c r="G73" s="35">
         <v>45221</v>
@@ -20040,7 +20352,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G74" s="35">
         <v>44936</v>
       </c>
@@ -20054,7 +20366,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I75" s="35">
         <v>44936</v>
       </c>
@@ -20065,7 +20377,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I76" s="35">
         <v>44994</v>
       </c>
@@ -20076,7 +20388,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I77" s="35">
         <v>45066</v>
       </c>
@@ -20087,7 +20399,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
         <v>96</v>
       </c>
